--- a/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="155">
   <si>
     <t>vehicle_id</t>
   </si>
@@ -103,21 +103,21 @@
     <t>unload_IC_3-Train-70</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=3, train_id=70)</t>
   </si>
   <si>
     <t>load_container(type='Outbound', id=2, train_id=70)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=1, train_id=70)</t>
+    <t>load_container(type='Outbound', id=5, train_id=70)</t>
   </si>
   <si>
     <t>load_container(type='Outbound', id=4, train_id=70)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=5, train_id=70)</t>
-  </si>
-  <si>
     <t>full</t>
   </si>
   <si>
@@ -157,61 +157,61 @@
     <t>pickup_IC_1-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC_2-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-19</t>
+  </si>
+  <si>
     <t>dropoff_IC_1-Train-19</t>
   </si>
   <si>
+    <t>dropoff_IC_2-Train-19</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-19</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC_5-Train-19</t>
+  </si>
+  <si>
+    <t>dropoff_IC_5-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
     <t>back_parking</t>
   </si>
   <si>
-    <t>pickup_IC_2-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_IC_2-Train-19</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=12)</t>
-  </si>
-  <si>
-    <t>dropoff_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=3, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
-  </si>
-  <si>
     <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
-    <t>pickup_IC_4-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_IC_4-Train-19</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_IC_5-Train-19</t>
-  </si>
-  <si>
     <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
   </si>
   <si>
-    <t>dropoff_IC_5-Train-19</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
+    <t>dropoff_container(type='Outbound', id=3, train_id=12)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=4, train_id=12)</t>
@@ -220,81 +220,81 @@
     <t>pickup_IC_1-Train-12</t>
   </si>
   <si>
+    <t>pickup_IC_2-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-12</t>
+  </si>
+  <si>
     <t>dropoff_IC_1-Train-12</t>
   </si>
   <si>
+    <t>dropoff_IC_2-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-12</t>
+  </si>
+  <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
     <t>dropoff_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
-    <t>pickup_IC_2-Train-12</t>
-  </si>
-  <si>
-    <t>dropoff_IC_2-Train-12</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=70)</t>
-  </si>
-  <si>
     <t>dropoff_container(type='Outbound', id=3, train_id=70)</t>
   </si>
   <si>
-    <t>pickup_IC_3-Train-12</t>
-  </si>
-  <si>
-    <t>dropoff_IC_3-Train-12</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=70)</t>
-  </si>
-  <si>
     <t>dropoff_container(type='Outbound', id=2, train_id=70)</t>
   </si>
   <si>
-    <t>pickup_IC_4-Train-12</t>
-  </si>
-  <si>
-    <t>dropoff_IC_4-Train-12</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=70)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=70)</t>
-  </si>
-  <si>
     <t>pickup_IC_1-Train-70</t>
   </si>
   <si>
+    <t>pickup_IC_2-Train-70</t>
+  </si>
+  <si>
     <t>dropoff_IC_1-Train-70</t>
   </si>
   <si>
+    <t>dropoff_IC_2-Train-70</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-70</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-70</t>
+  </si>
+  <si>
     <t>pickup_OC_container(type='Outbound', id=4, train_id=70)</t>
   </si>
   <si>
-    <t>pickup_IC_2-Train-70</t>
-  </si>
-  <si>
-    <t>dropoff_IC_2-Train-70</t>
+    <t>dropoff_container(type='Outbound', id=5, train_id=70)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=4, train_id=70)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=5, train_id=70)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=5, train_id=70)</t>
-  </si>
-  <si>
-    <t>pickup_IC_3-Train-70</t>
-  </si>
-  <si>
-    <t>dropoff_IC_3-Train-70</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>truck(type='Diesel', id=0, train_id=19)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=0, train_id=12)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=1, train_id=12)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=1, train_id=19)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=1, train_id=12)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=12)</t>
-  </si>
-  <si>
     <t>truck(type='Diesel', id=1, train_id=70)</t>
   </si>
   <si>
@@ -322,18 +322,18 @@
     <t>truck(type='Electric', id=3, train_id=19)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=2, train_id=70)</t>
+  </si>
+  <si>
+    <t>truck(type='Electric', id=3, train_id=12)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=2, train_id=19)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=3, train_id=12)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=2, train_id=70)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=2, train_id=12)</t>
-  </si>
-  <si>
     <t>truck(type='Electric', id=4, train_id=19)</t>
   </si>
   <si>
@@ -343,66 +343,66 @@
     <t>truck(type='Electric', id=4, train_id=70)</t>
   </si>
   <si>
+    <t>entry_OC_1</t>
+  </si>
+  <si>
+    <t>dropoff_OC_1</t>
+  </si>
+  <si>
+    <t>entry_OC_2</t>
+  </si>
+  <si>
+    <t>dropoff_OC_2</t>
+  </si>
+  <si>
+    <t>entry_OC_3</t>
+  </si>
+  <si>
+    <t>dropoff_OC_3</t>
+  </si>
+  <si>
+    <t>entry_OC_4</t>
+  </si>
+  <si>
+    <t>dropoff_OC_4</t>
+  </si>
+  <si>
+    <t>pass_gate</t>
+  </si>
+  <si>
+    <t>entry_OC_5</t>
+  </si>
+  <si>
+    <t>dropoff_OC_5</t>
+  </si>
+  <si>
     <t>pickup_IC-1-Train-19</t>
   </si>
   <si>
-    <t>entry_OC_2</t>
-  </si>
-  <si>
-    <t>dropoff_OC_2</t>
-  </si>
-  <si>
-    <t>entry_OC_3</t>
-  </si>
-  <si>
-    <t>dropoff_OC_3</t>
-  </si>
-  <si>
-    <t>entry_OC_1</t>
-  </si>
-  <si>
-    <t>dropoff_OC_1</t>
-  </si>
-  <si>
-    <t>entry_OC_4</t>
-  </si>
-  <si>
-    <t>dropoff_OC_4</t>
-  </si>
-  <si>
     <t>pickup_IC-2-Train-19</t>
   </si>
   <si>
-    <t>pass_gate</t>
-  </si>
-  <si>
     <t>pickup_IC-3-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC-4-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC-5-Train-19</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_4-Train-19</t>
+  </si>
+  <si>
     <t>leave_gate_IC_1-Train-19</t>
   </si>
   <si>
-    <t>entry_OC_5</t>
-  </si>
-  <si>
-    <t>dropoff_OC_5</t>
-  </si>
-  <si>
-    <t>pickup_IC-4-Train-19</t>
+    <t>leave_gate_IC_3-Train-19</t>
   </si>
   <si>
     <t>leave_gate_IC_2-Train-19</t>
   </si>
   <si>
-    <t>leave_gate_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>pickup_IC-5-Train-19</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_4-Train-19</t>
-  </si>
-  <si>
     <t>leave_gate_IC_5-Train-19</t>
   </si>
   <si>
@@ -415,10 +415,10 @@
     <t>pickup_IC-3-Train-12</t>
   </si>
   <si>
+    <t>pickup_IC-4-Train-12</t>
+  </si>
+  <si>
     <t>leave_gate_IC_1-Train-12</t>
-  </si>
-  <si>
-    <t>pickup_IC-4-Train-12</t>
   </si>
   <si>
     <t>leave_gate_IC_2-Train-12</t>
@@ -879,16 +879,16 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>0.0166714565350967</v>
+        <v>0.01690378226970759</v>
       </c>
       <c r="E2">
-        <v>0.8419085550223834</v>
+        <v>0.8536410046202331</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.0166714565350967</v>
+        <v>0.01690378226970759</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -902,16 +902,16 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>0.01676852326653371</v>
+        <v>0.01677461423150842</v>
       </c>
       <c r="E3">
-        <v>0.8468104249599523</v>
+        <v>0.8471180186911754</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.03343997980163041</v>
+        <v>0.03367839650121601</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -925,16 +925,16 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>0.01670296700226413</v>
+        <v>0.01688568365944449</v>
       </c>
       <c r="E4">
-        <v>0.8434998336143386</v>
+        <v>0.8527270248019466</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.05014294680389454</v>
+        <v>0.0505640801606605</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -948,16 +948,16 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>0.0167765323874504</v>
+        <v>0.01691158666534927</v>
       </c>
       <c r="E5">
-        <v>0.8472148855662451</v>
+        <v>0.854035126600138</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.06691947919134494</v>
+        <v>0.06747566682600976</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -971,16 +971,16 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>0.01680498713367</v>
+        <v>0.0169241601982257</v>
       </c>
       <c r="E6">
-        <v>0.848651850250335</v>
+        <v>0.8546700900103981</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6">
-        <v>0.08372446632501494</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -994,16 +994,16 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>0.01680516846875565</v>
+        <v>0.01686205401348459</v>
       </c>
       <c r="E7">
-        <v>0.8486610076721606</v>
+        <v>0.8515337276809718</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.1040804682376354</v>
+        <v>0.1172225933808737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1017,16 +1017,16 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>0.01669002458491745</v>
+        <v>0.01672306110290826</v>
       </c>
       <c r="E8">
-        <v>0.842846241538331</v>
+        <v>0.8445145856968669</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.1207704928225528</v>
+        <v>0.133945654483782</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1040,16 +1040,16 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>0.01666684253383773</v>
+        <v>0.01694176370539076</v>
       </c>
       <c r="E9">
-        <v>0.8416755479588053</v>
+        <v>0.8555590671222333</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>1.016666842533838</v>
+        <v>1.016941763705391</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,16 +1063,16 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.01669108921443772</v>
+        <v>0.01692806590054876</v>
       </c>
       <c r="E10">
-        <v>0.8429000053291049</v>
+        <v>0.8548673279777124</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1.033357931748275</v>
+        <v>1.03386982960594</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1086,16 +1086,16 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.01671457294859879</v>
+        <v>0.01678101910009333</v>
       </c>
       <c r="E11">
-        <v>0.8440859339042387</v>
+        <v>0.847441464554713</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11">
-        <v>1.050072504696874</v>
+        <v>1.050650848706033</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1109,16 +1109,16 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>0.01666878484728812</v>
+        <v>0.01673304095437528</v>
       </c>
       <c r="E12">
-        <v>0.8417736347880501</v>
+        <v>0.8450185681959516</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>1.066741289544162</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1132,16 +1132,16 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>0.01675702048184419</v>
+        <v>0.01676359060386184</v>
       </c>
       <c r="E13">
-        <v>0.8462295343331314</v>
+        <v>0.8465613254950232</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13">
-        <v>1.090191769499732</v>
+        <v>1.095815341786085</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1155,16 +1155,16 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>0.0166796359267127</v>
+        <v>0.01679503468223256</v>
       </c>
       <c r="E14">
-        <v>0.8423216142989914</v>
+        <v>0.8481492514527442</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14">
-        <v>1.106871405426445</v>
+        <v>1.112610376468318</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1178,16 +1178,16 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.01666672617442212</v>
+        <v>0.01685803964445843</v>
       </c>
       <c r="E15">
-        <v>0.8416696718083169</v>
+        <v>0.8513310020451509</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15">
-        <v>1.123538131600867</v>
+        <v>1.129468416112776</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1201,16 +1201,16 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>0.01681678370664559</v>
+        <v>0.01672335113499182</v>
       </c>
       <c r="E16">
-        <v>0.8492475771856022</v>
+        <v>0.8445292323170871</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16">
-        <v>1.140354915307513</v>
+        <v>1.146191767247768</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1224,16 +1224,16 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>0.01679290014812097</v>
+        <v>0.01683623401550204</v>
       </c>
       <c r="E17">
-        <v>0.8480414574801088</v>
+        <v>0.8502298177828531</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>2.016792900148121</v>
+        <v>2.016836234015502</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1247,16 +1247,16 @@
         <v>33</v>
       </c>
       <c r="D18">
-        <v>0.01682055869451714</v>
+        <v>0.01689393478974957</v>
       </c>
       <c r="E18">
-        <v>0.8494382140731155</v>
+        <v>0.8531437068823533</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>2.033613458842638</v>
+        <v>2.033730168805252</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,16 +1270,16 @@
         <v>33</v>
       </c>
       <c r="D19">
-        <v>0.01682156472227127</v>
+        <v>0.01678563385834669</v>
       </c>
       <c r="E19">
-        <v>0.8494890184746992</v>
+        <v>0.8476745098465078</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
-        <v>2.050435023564909</v>
+        <v>2.050515802663599</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1293,16 +1293,16 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>0.01676231675046008</v>
+        <v>0.01668344668613012</v>
       </c>
       <c r="E20">
-        <v>0.8464969958982341</v>
+        <v>0.8425140576495712</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
-        <v>2.074222131264265</v>
+        <v>2.075035575698707</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1316,16 +1316,16 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>0.01673831721208244</v>
+        <v>0.01672927778306897</v>
       </c>
       <c r="E21">
-        <v>0.8452850192101633</v>
+        <v>0.8448285280449831</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21">
-        <v>2.090960448476348</v>
+        <v>2.091764853481776</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1339,16 +1339,16 @@
         <v>33</v>
       </c>
       <c r="D22">
-        <v>0.01669159101437035</v>
+        <v>0.01674291523049148</v>
       </c>
       <c r="E22">
-        <v>0.8429253462257026</v>
+        <v>0.8455172191398199</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22">
-        <v>2.107652039490718</v>
+        <v>2.108507768712268</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1362,16 +1362,16 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>0.01670934515355061</v>
+        <v>0.01682242091523897</v>
       </c>
       <c r="E23">
-        <v>0.8438219302543059</v>
+        <v>0.8495322562195677</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>2.124361384644269</v>
+        <v>2.125330189627507</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1385,16 +1385,16 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>0.01668953872125138</v>
+        <v>0.01677964100566375</v>
       </c>
       <c r="E24">
-        <v>0.8428217054231948</v>
+        <v>0.8473718707860192</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>2.14105092336552</v>
+        <v>2.14210983063317</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,44 +1444,44 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>0.004400087169095797</v>
+        <v>0.009248448166595586</v>
       </c>
       <c r="E2">
-        <v>0.02728054044839394</v>
+        <v>0.05734037863289263</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.0210715437041925</v>
+        <v>0.02216453546422651</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>0.001776784366115171</v>
+        <v>0.004789427575283162</v>
       </c>
       <c r="E3">
-        <v>0.02789551454800819</v>
+        <v>0.02969445096675561</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.02284832807030767</v>
+        <v>0.03580744185220169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -1490,21 +1490,21 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>0.005193459820288687</v>
+        <v>0.007537780945140647</v>
       </c>
       <c r="E4">
-        <v>0.03219945088578986</v>
+        <v>0.04673424185987202</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.02804178789059636</v>
+        <v>0.05351121252603577</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1513,21 +1513,21 @@
         <v>92</v>
       </c>
       <c r="D5">
-        <v>0.002711221891593443</v>
+        <v>0.004578973350739948</v>
       </c>
       <c r="E5">
-        <v>0.01680957572787935</v>
+        <v>0.02838963477458768</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.03615120169322385</v>
+        <v>0.07007545330710548</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -1536,16 +1536,16 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>0.006987018417312966</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1096961891518136</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6">
-        <v>0.04313822011053682</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1556,19 +1556,19 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>0.0052366566795949</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03246727141348838</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.04837487679013172</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1579,24 +1579,24 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>0.0005680867351631726</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.00352213775801167</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.05071103353905772</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -1605,21 +1605,21 @@
         <v>93</v>
       </c>
       <c r="D9">
-        <v>0.003518600552733129</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0218153234269454</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>0.05189347734286485</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -1628,21 +1628,21 @@
         <v>92</v>
       </c>
       <c r="D10">
-        <v>0.001927003175859823</v>
+        <v>0.005710862764744881</v>
       </c>
       <c r="E10">
-        <v>0.0119474196903309</v>
+        <v>0.03540734914141826</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>0.05382048051872467</v>
+        <v>0.08677173833627121</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -1651,44 +1651,44 @@
         <v>93</v>
       </c>
       <c r="D11">
-        <v>0.006183056598523943</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09707398859682591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11">
-        <v>0.05689409013758166</v>
+        <v>0.08677173833627121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>0.004019900016453757</v>
+        <v>0.003597715906412948</v>
       </c>
       <c r="E12">
-        <v>0.06311243025832398</v>
+        <v>0.02230583861976028</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>0.05784038053517843</v>
+        <v>0.08799754293064842</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -1697,39 +1697,39 @@
         <v>92</v>
       </c>
       <c r="D13">
-        <v>0.004427906219326497</v>
+        <v>0.005403303071293126</v>
       </c>
       <c r="E13">
-        <v>0.02745301855982428</v>
+        <v>0.03350047904201738</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13">
-        <v>0.06132199635690816</v>
+        <v>0.08980313009552859</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>0.006400117352064439</v>
+        <v>0.006059748661334971</v>
       </c>
       <c r="E14">
-        <v>0.03968072758279952</v>
+        <v>0.03757044170027682</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14">
-        <v>0.0677221137089726</v>
+        <v>0.09045957568557045</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1740,47 +1740,47 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>0.007586926895882592</v>
+        <v>0.0006952954621371309</v>
       </c>
       <c r="E15">
-        <v>0.04703894675447207</v>
+        <v>0.004310831865250212</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15">
-        <v>0.07450640608722754</v>
+        <v>0.09130448140450807</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>0.006715268136199778</v>
+        <v>0.008505596532864722</v>
       </c>
       <c r="E16">
-        <v>0.1054297097383365</v>
+        <v>0.05273469850376128</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16">
-        <v>0.08122167422342733</v>
+        <v>0.09290542355710019</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -1789,21 +1789,21 @@
         <v>92</v>
       </c>
       <c r="D17">
-        <v>0.003631410145275566</v>
+        <v>0.006352175202274865</v>
       </c>
       <c r="E17">
-        <v>0.02251474290070851</v>
+        <v>0.03938348625410416</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>0.0848530843687029</v>
+        <v>0.09312391353854607</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -1812,21 +1812,21 @@
         <v>92</v>
       </c>
       <c r="D18">
-        <v>0.002992467766763993</v>
+        <v>0.006310834899667038</v>
       </c>
       <c r="E18">
-        <v>0.01855330015393676</v>
+        <v>0.03912717637793564</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>0.08671693409177894</v>
+        <v>0.09761531630417511</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -1835,85 +1835,85 @@
         <v>93</v>
       </c>
       <c r="D19">
-        <v>0.002422215400176814</v>
+        <v>0.008402189145294102</v>
       </c>
       <c r="E19">
-        <v>0.01501773548109625</v>
+        <v>0.05209357270082344</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
-        <v>0.08727529976887971</v>
+        <v>0.09833400939958981</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20">
-        <v>0.001507389314482853</v>
+        <v>0.00817509261421699</v>
       </c>
       <c r="E20">
-        <v>0.009345813749793692</v>
+        <v>0.05068557420814534</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
-        <v>0.08878268908336256</v>
+        <v>0.1003605393673891</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
       </c>
       <c r="D21">
-        <v>0.006619109483229016</v>
+        <v>0.008250581759960953</v>
       </c>
       <c r="E21">
-        <v>0.1039200188866956</v>
+        <v>0.05115360691175791</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21">
-        <v>0.09333604357500795</v>
+        <v>0.1027582460760374</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>92</v>
       </c>
       <c r="D22">
-        <v>0.003559352853736013</v>
+        <v>0.002930232029062961</v>
       </c>
       <c r="E22">
-        <v>0.02206798769316328</v>
+        <v>0.01816743858019036</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22">
-        <v>0.09689539642874397</v>
+        <v>0.1032907713964521</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1927,85 +1927,85 @@
         <v>93</v>
       </c>
       <c r="D23">
-        <v>0.002580239299425956</v>
+        <v>0.008141933109581893</v>
       </c>
       <c r="E23">
-        <v>0.01599748365644093</v>
+        <v>0.05047998527940774</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>0.09947563572816992</v>
+        <v>0.1032977367385963</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>92</v>
       </c>
       <c r="D24">
-        <v>0.003648893709383314</v>
+        <v>0.0019133884816322</v>
       </c>
       <c r="E24">
-        <v>0.02262314099817655</v>
+        <v>0.01186300858611964</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>0.1031245294375532</v>
+        <v>0.1046716345576695</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>92</v>
       </c>
       <c r="D25">
-        <v>0.004791424471651255</v>
+        <v>0.006383924825750111</v>
       </c>
       <c r="E25">
-        <v>0.02970683172423778</v>
+        <v>0.03958033391965068</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25">
-        <v>1.021458267005489</v>
+        <v>0.1047179342253399</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>0.00362963406897879</v>
+        <v>0.007497334375344228</v>
       </c>
       <c r="E26">
-        <v>0.056985254882967</v>
+        <v>0.04648347312713422</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26">
-        <v>1.025087901074468</v>
+        <v>0.1107950711139406</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2013,91 +2013,91 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>92</v>
       </c>
       <c r="D27">
-        <v>0.001665442505850851</v>
+        <v>0.01002164372516651</v>
       </c>
       <c r="E27">
-        <v>0.01032574353627528</v>
+        <v>0.06213419109603239</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27">
-        <v>1.026753343580318</v>
+        <v>1.020675278455365</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28">
-        <v>0.004954099948594587</v>
+        <v>0.004086176740347256</v>
       </c>
       <c r="E28">
-        <v>0.03071541968128644</v>
+        <v>0.02533429579015299</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28">
-        <v>1.031707443528913</v>
+        <v>1.037373700541583</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>92</v>
       </c>
       <c r="D29">
-        <v>0.005005571213553412</v>
+        <v>0.005416731523708002</v>
       </c>
       <c r="E29">
-        <v>0.03103454152403116</v>
+        <v>0.03358373544698962</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29">
-        <v>1.036713014742467</v>
+        <v>1.053304501023851</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30">
-        <v>0.003954468081303808</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.02451770210408361</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30">
-        <v>1.037312399829579</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2105,45 +2105,45 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>93</v>
       </c>
       <c r="D31">
-        <v>0.007210715537490358</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.07354929848240165</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31">
-        <v>1.044523115367069</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32">
-        <v>0.003798897260509684</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.00911735342522324</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32">
-        <v>1.048322012627579</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2151,91 +2151,91 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>0.0005945721615123901</v>
+        <v>0.001912646266006945</v>
       </c>
       <c r="E33">
-        <v>0.001426973187629736</v>
+        <v>0.004590351038416669</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33">
-        <v>1.048916584789091</v>
+        <v>1.069296535926415</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>92</v>
       </c>
       <c r="D34">
-        <v>0.002062899014094146</v>
+        <v>0.004554497871760484</v>
       </c>
       <c r="E34">
-        <v>0.0127899738873837</v>
+        <v>0.028237886804915</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34">
-        <v>1.052135403710968</v>
+        <v>1.069936727484375</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35">
-        <v>0.00535959000057237</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.01286301600137369</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35">
-        <v>1.054276174789664</v>
+        <v>1.069936727484375</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36">
-        <v>0.005512779789604206</v>
+        <v>0.005042737905370728</v>
       </c>
       <c r="E36">
-        <v>0.0562303538539629</v>
+        <v>0.03126497501329852</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36">
-        <v>1.057648183500572</v>
+        <v>1.072426627565779</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2249,85 +2249,85 @@
         <v>92</v>
       </c>
       <c r="D37">
-        <v>0.00417587903838246</v>
+        <v>0.006996363552078925</v>
       </c>
       <c r="E37">
-        <v>0.0100221096921179</v>
+        <v>0.01679127252498942</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37">
-        <v>1.061824062538955</v>
+        <v>1.074380253212487</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>0.002688803577330435</v>
+        <v>0.007499850150157976</v>
       </c>
       <c r="E38">
-        <v>0.006453128585593044</v>
+        <v>0.01799964036037914</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38">
-        <v>1.064512866116285</v>
+        <v>1.077436577634533</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39">
-        <v>0.001331901674876996</v>
+        <v>0.007632850913526555</v>
       </c>
       <c r="E39">
-        <v>0.003196564019704789</v>
+        <v>0.01831884219246373</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39">
-        <v>1.065844767791162</v>
+        <v>1.077857510726712</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40">
-        <v>0.006693459473725966</v>
+        <v>0.005108142481648789</v>
       </c>
       <c r="E40">
-        <v>0.04149944873710099</v>
+        <v>0.03167048338622249</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40">
-        <v>1.073434749017888</v>
+        <v>1.079051751182224</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2335,50 +2335,50 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>93</v>
       </c>
       <c r="D41">
-        <v>0.007358327613718879</v>
+        <v>0.003720663006656674</v>
       </c>
       <c r="E41">
-        <v>0.07505494165993257</v>
+        <v>0.008929591215976017</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41">
-        <v>1.080793076631607</v>
+        <v>1.08280942537765</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>92</v>
       </c>
       <c r="D42">
-        <v>0.00502831010224608</v>
+        <v>0.005006426389517348</v>
       </c>
       <c r="E42">
-        <v>0.01206794424539059</v>
+        <v>0.01201542333484163</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42">
-        <v>1.085821386733853</v>
+        <v>1.082863937116229</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>81</v>
@@ -2387,85 +2387,85 @@
         <v>93</v>
       </c>
       <c r="D43">
-        <v>0.001530970844776291</v>
+        <v>0.00837780515808252</v>
       </c>
       <c r="E43">
-        <v>0.003674330027463099</v>
+        <v>0.02010673237939805</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
       </c>
       <c r="G43">
-        <v>1.087352357578629</v>
+        <v>1.083814889630604</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>92</v>
       </c>
       <c r="D44">
-        <v>0.003257706951875689</v>
+        <v>0.007175356428893491</v>
       </c>
       <c r="E44">
-        <v>0.007818496684501653</v>
+        <v>0.04448720985913965</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44">
-        <v>1.090610064530505</v>
+        <v>1.086227107611117</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45">
-        <v>0.007046202265661341</v>
+        <v>0.002420016469474145</v>
       </c>
       <c r="E45">
-        <v>0.04368645404710032</v>
+        <v>0.005808039526737948</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="G45">
-        <v>2.023839102413783</v>
+        <v>1.086234906100078</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>0.002683207042109604</v>
+        <v>0.008486499034676546</v>
       </c>
       <c r="E46">
-        <v>0.02736871182951795</v>
+        <v>0.02036759768322371</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46">
-        <v>2.026522309455892</v>
+        <v>1.091295924412327</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2473,206 +2473,206 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
       <c r="D47">
-        <v>0.005490121425820345</v>
+        <v>0.003330508359236032</v>
       </c>
       <c r="E47">
-        <v>0.01317629142196883</v>
+        <v>0.0206491518272634</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47">
-        <v>2.032012430881712</v>
+        <v>2.019583013904813</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48">
-        <v>0.001989693093265735</v>
+        <v>0.005684685312229075</v>
       </c>
       <c r="E48">
-        <v>0.01233609717824756</v>
+        <v>0.03524504893582027</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
       </c>
       <c r="G48">
-        <v>2.035603151935904</v>
+        <v>2.036830809957054</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
       </c>
       <c r="D49">
-        <v>0.0009105302979340982</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.01429532567756534</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
       <c r="G49">
-        <v>2.036513682233838</v>
+        <v>2.050515802663599</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
       </c>
       <c r="D50">
-        <v>0.005140695413808613</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.01233766899314067</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
       </c>
       <c r="G50">
-        <v>2.037153126295521</v>
+        <v>2.050515802663599</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>92</v>
       </c>
       <c r="D51">
-        <v>0.001102030078421137</v>
+        <v>0.001993196262339379</v>
       </c>
       <c r="E51">
-        <v>0.002644872188210729</v>
+        <v>0.01235781682650415</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51">
-        <v>2.038255156373942</v>
+        <v>2.052508998925938</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>92</v>
       </c>
       <c r="D52">
-        <v>0.00544080557359026</v>
+        <v>0.009305326928935695</v>
       </c>
       <c r="E52">
-        <v>0.03373299455625962</v>
+        <v>0.05769302695940131</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52">
-        <v>2.041954487807428</v>
+        <v>2.052601113920915</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
         <v>93</v>
       </c>
       <c r="D53">
-        <v>0.004340762423932297</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.02691272702838024</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53">
-        <v>2.046295250231361</v>
+        <v>2.052601113920915</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>92</v>
       </c>
       <c r="D54">
-        <v>0.001577107155525968</v>
+        <v>0.00290755082858184</v>
       </c>
       <c r="E54">
-        <v>0.009778064364260999</v>
+        <v>0.006978121988596417</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
       </c>
       <c r="G54">
-        <v>2.047872357386887</v>
+        <v>2.05342335349218</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
         <v>92</v>
       </c>
       <c r="D55">
-        <v>0.007024790948895537</v>
+        <v>0.003866877290774908</v>
       </c>
       <c r="E55">
-        <v>0.04355370388315234</v>
+        <v>0.02397463920280443</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
       </c>
       <c r="G55">
-        <v>2.057459814513805</v>
+        <v>2.056467991211691</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2680,45 +2680,91 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>93</v>
       </c>
       <c r="D56">
-        <v>0.004620176097028342</v>
+        <v>0.002749196556272818</v>
       </c>
       <c r="E56">
-        <v>0.07253676472334497</v>
+        <v>0.01704501864889147</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56">
-        <v>2.062079990610833</v>
+        <v>2.057003614755747</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57">
+        <v>0.002751592319149601</v>
+      </c>
+      <c r="E57">
+        <v>0.006603821565959044</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>2.058352129012577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>38</v>
       </c>
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57">
-        <v>0.003379397747790538</v>
-      </c>
-      <c r="E57">
-        <v>0.02095226603630134</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57">
-        <v>2.065459388358624</v>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>0.003717945320089012</v>
+      </c>
+      <c r="E58">
+        <v>0.02305126098455187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58">
+        <v>2.060721560075836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59">
+        <v>0.004565038153707436</v>
+      </c>
+      <c r="E59">
+        <v>0.01095609156889785</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59">
+        <v>2.062917167166284</v>
       </c>
     </row>
   </sheetData>
@@ -2765,47 +2811,47 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>0.0007748238954387245</v>
+        <v>0.01802561385012095</v>
       </c>
       <c r="E2">
-        <v>0.004029084256281367</v>
+        <v>0.3731302066975036</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.02284832807030767</v>
+        <v>0.01802561385012095</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
       </c>
       <c r="D3">
-        <v>0.02314664409157181</v>
+        <v>0.001509042382462942</v>
       </c>
       <c r="E3">
-        <v>0.4791355326955365</v>
+        <v>0.0312371773169829</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.02314664409157181</v>
+        <v>0.01802561385012095</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
@@ -2814,16 +2860,16 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>0.0005972029001622007</v>
+        <v>0.001509042382462942</v>
       </c>
       <c r="E4">
-        <v>0.01236210003335755</v>
+        <v>0.0312371773169829</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.02314664409157181</v>
+        <v>0.01802561385012095</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2837,44 +2883,44 @@
         <v>93</v>
       </c>
       <c r="D5">
-        <v>0.0005972029001622007</v>
+        <v>0.01840249984170718</v>
       </c>
       <c r="E5">
-        <v>0.01236210003335755</v>
+        <v>0.3809317467233387</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.02314664409157181</v>
+        <v>0.01840249984170718</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
       </c>
       <c r="D6">
-        <v>0.02577789865767872</v>
+        <v>0.002949883693149344</v>
       </c>
       <c r="E6">
-        <v>0.5336025022139494</v>
+        <v>0.06106259244819143</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6">
-        <v>0.02577789865767872</v>
+        <v>0.01840249984170718</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>111</v>
@@ -2883,16 +2929,16 @@
         <v>93</v>
       </c>
       <c r="D7">
-        <v>0.002890030012147653</v>
+        <v>0.002949883693149344</v>
       </c>
       <c r="E7">
-        <v>0.05982362125145642</v>
+        <v>0.06106259244819143</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.02577789865767872</v>
+        <v>0.01840249984170718</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2906,44 +2952,44 @@
         <v>93</v>
       </c>
       <c r="D8">
-        <v>0.002890030012147653</v>
+        <v>0.01844961957527937</v>
       </c>
       <c r="E8">
-        <v>0.05982362125145642</v>
+        <v>0.3819071252082828</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.02577789865767872</v>
+        <v>0.01844961957527937</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
       </c>
       <c r="D9">
-        <v>0.02872859197506501</v>
+        <v>0.001088259135281261</v>
       </c>
       <c r="E9">
-        <v>0.5946818538838458</v>
+        <v>0.02252696410032211</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>0.02872859197506501</v>
+        <v>0.01844961957527937</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -2952,39 +2998,39 @@
         <v>93</v>
       </c>
       <c r="D10">
-        <v>0.001349714714824863</v>
+        <v>0.001088259135281261</v>
       </c>
       <c r="E10">
-        <v>0.02793909459687465</v>
+        <v>0.02252696410032211</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>0.02872859197506501</v>
+        <v>0.01844961957527937</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11">
-        <v>0.001349714714824863</v>
+        <v>0.018737123530644</v>
       </c>
       <c r="E11">
-        <v>0.02793909459687465</v>
+        <v>0.3878584570843308</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11">
-        <v>0.02872859197506501</v>
+        <v>0.018737123530644</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2992,22 +3038,22 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
       </c>
       <c r="D12">
-        <v>0.02962942874773809</v>
+        <v>0.001427888406434504</v>
       </c>
       <c r="E12">
-        <v>0.6133291750781785</v>
+        <v>0.02955729001319423</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>0.02962942874773809</v>
+        <v>0.018737123530644</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3015,45 +3061,45 @@
         <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13">
-        <v>0.000570773899303599</v>
+        <v>0.001427888406434504</v>
       </c>
       <c r="E13">
-        <v>0.0118150197155845</v>
+        <v>0.02955729001319423</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13">
-        <v>0.02962942874773809</v>
+        <v>0.018737123530644</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>93</v>
       </c>
       <c r="D14">
-        <v>0.000570773899303599</v>
+        <v>0.01895101826228155</v>
       </c>
       <c r="E14">
-        <v>0.0118150197155845</v>
+        <v>0.3922860780292281</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14">
-        <v>0.02962942874773809</v>
+        <v>0.01895101826228155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3061,22 +3107,22 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
       </c>
       <c r="D15">
-        <v>0.0297804348371455</v>
+        <v>0.001688054829498719</v>
       </c>
       <c r="E15">
-        <v>0.6164550011289118</v>
+        <v>0.03494273497062348</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15">
-        <v>0.0297804348371455</v>
+        <v>0.01895101826228155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3090,39 +3136,39 @@
         <v>93</v>
       </c>
       <c r="D16">
-        <v>0.0005619583741444279</v>
+        <v>0.001688054829498719</v>
       </c>
       <c r="E16">
-        <v>0.01163253834478966</v>
+        <v>0.03494273497062348</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16">
-        <v>0.0297804348371455</v>
+        <v>0.01895101826228155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
       </c>
       <c r="D17">
-        <v>0.0005619583741444279</v>
+        <v>0.01896553698688131</v>
       </c>
       <c r="E17">
-        <v>0.01163253834478966</v>
+        <v>0.3925866156284431</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>0.0297804348371455</v>
+        <v>0.01896553698688131</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3130,22 +3176,22 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
       <c r="D18">
-        <v>0.03103566963416919</v>
+        <v>0.002898442958521926</v>
       </c>
       <c r="E18">
-        <v>0.6424383614273022</v>
+        <v>0.05999776924140386</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>0.03103566963416919</v>
+        <v>0.01896553698688131</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3153,91 +3199,91 @@
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
       </c>
       <c r="D19">
-        <v>0.0002646449664076364</v>
+        <v>0.002898442958521926</v>
       </c>
       <c r="E19">
-        <v>0.005478150804638073</v>
+        <v>0.05999776924140386</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
-        <v>0.03103566963416919</v>
+        <v>0.01896553698688131</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20">
-        <v>0.0002646449664076364</v>
+        <v>0.01794569575449721</v>
       </c>
       <c r="E20">
-        <v>0.005478150804638073</v>
+        <v>0.04306966981079329</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
-        <v>0.03103566963416919</v>
+        <v>0.03634819559620439</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>0.002455441603081099</v>
+        <v>0.01846921963794343</v>
       </c>
       <c r="E21">
-        <v>0.01276829633602172</v>
+        <v>0.188386040307023</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21">
-        <v>0.04313822011053682</v>
+        <v>0.0369188392132228</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22">
-        <v>0.01812890465995092</v>
+        <v>0.0002001152153779949</v>
       </c>
       <c r="E22">
-        <v>0.0435093711838822</v>
+        <v>0.002041175196855548</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22">
-        <v>0.04390680331762964</v>
+        <v>0.0369188392132228</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3245,22 +3291,22 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23">
-        <v>0.02772187154041623</v>
+        <v>0.0002001152153779949</v>
       </c>
       <c r="E23">
-        <v>0.1441537320101644</v>
+        <v>0.002041175196855548</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>0.05086851563198804</v>
+        <v>0.0369188392132228</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3268,22 +3314,22 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
       </c>
       <c r="D24">
-        <v>0.02178516272144379</v>
+        <v>0.0184185903900058</v>
       </c>
       <c r="E24">
-        <v>0.2222086597587266</v>
+        <v>0.38126482107312</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>0.05282083235561298</v>
+        <v>0.0371557139206498</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3291,22 +3337,22 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
       </c>
       <c r="D25">
-        <v>0.002731465933613521</v>
+        <v>0.0004515675964182606</v>
       </c>
       <c r="E25">
-        <v>0.02786095252285791</v>
+        <v>0.009347449245857994</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25">
-        <v>0.05282083235561298</v>
+        <v>0.0371557139206498</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3314,22 +3360,22 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
       </c>
       <c r="D26">
-        <v>0.002731465933613521</v>
+        <v>0.0004515675964182606</v>
       </c>
       <c r="E26">
-        <v>0.02786095252285791</v>
+        <v>0.009347449245857994</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26">
-        <v>0.05282083235561298</v>
+        <v>0.0371557139206498</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3337,22 +3383,22 @@
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
-        <v>0.02515331535380651</v>
+        <v>0.01842962318346783</v>
       </c>
       <c r="E27">
-        <v>0.5206736278237948</v>
+        <v>0.1879821564713718</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27">
-        <v>0.05478274410154461</v>
+        <v>0.03739516017034913</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3360,22 +3406,22 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
       </c>
       <c r="D28">
-        <v>0.001166157670205192</v>
+        <v>0.001128067578420291</v>
       </c>
       <c r="E28">
-        <v>0.02413946377324747</v>
+        <v>0.01150628929988697</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28">
-        <v>0.05478274410154461</v>
+        <v>0.03739516017034913</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3383,22 +3429,22 @@
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
       </c>
       <c r="D29">
-        <v>0.001166157670205192</v>
+        <v>0.001128067578420291</v>
       </c>
       <c r="E29">
-        <v>0.02413946377324747</v>
+        <v>0.01150628929988697</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29">
-        <v>0.05478274410154461</v>
+        <v>0.03739516017034913</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3406,50 +3452,50 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>0.02723212677861425</v>
+        <v>0.01943154462916975</v>
       </c>
       <c r="E30">
-        <v>0.2777676931418653</v>
+        <v>0.1010440320716827</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30">
-        <v>0.05596071875367926</v>
+        <v>0.0374571584792907</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>0.002330090047700738</v>
+        <v>0.01884071905263273</v>
       </c>
       <c r="E31">
-        <v>0.02376691848654752</v>
+        <v>0.04521772572631854</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31">
-        <v>0.05596071875367926</v>
+        <v>0.03779173731491428</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -3458,131 +3504,131 @@
         <v>93</v>
       </c>
       <c r="D32">
-        <v>0.002330090047700738</v>
+        <v>0.01713823250539141</v>
       </c>
       <c r="E32">
-        <v>0.02376691848654752</v>
+        <v>0.1748099715549923</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32">
-        <v>0.05596071875367926</v>
+        <v>0.0534864281015958</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>0.0001851566891768561</v>
+        <v>0.0006680345510783261</v>
       </c>
       <c r="E33">
-        <v>0.000962814783719652</v>
+        <v>0.006813952420998926</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33">
-        <v>0.05689409013758166</v>
+        <v>0.0534864281015958</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34">
-        <v>0.02972053812905066</v>
+        <v>0.0006680345510783261</v>
       </c>
       <c r="E34">
-        <v>0.07132929150972157</v>
+        <v>0.006813952420998926</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34">
-        <v>0.05950097296619616</v>
+        <v>0.0534864281015958</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
       </c>
       <c r="D35">
-        <v>0.01769185663074313</v>
+        <v>0.01824455177955129</v>
       </c>
       <c r="E35">
-        <v>0.1804569376335799</v>
+        <v>0.1860944281514232</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35">
-        <v>0.06159865994837277</v>
+        <v>0.05516339099277409</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
       <c r="D36">
-        <v>0.002949074353783581</v>
+        <v>0.002677616970066939</v>
       </c>
       <c r="E36">
-        <v>0.03008055840859253</v>
+        <v>0.02731169309468277</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36">
-        <v>0.06159865994837277</v>
+        <v>0.05516339099277409</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
       </c>
       <c r="D37">
-        <v>0.002949074353783581</v>
+        <v>0.002677616970066939</v>
       </c>
       <c r="E37">
-        <v>0.03008055840859253</v>
+        <v>0.02731169309468277</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37">
-        <v>0.06159865994837277</v>
+        <v>0.05516339099277409</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3590,96 +3636,96 @@
         <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>0.0446918034842647</v>
+        <v>0.001608840295973781</v>
       </c>
       <c r="E38">
-        <v>0.9251203321242792</v>
+        <v>0.008365969539063661</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38">
-        <v>0.06754013155457236</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39">
-        <v>0.0236529929815325</v>
+        <v>0.00196062860165755</v>
       </c>
       <c r="E39">
-        <v>0.2412605284116315</v>
+        <v>0.01019526872861926</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39">
-        <v>0.07452150861352054</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40">
-        <v>0.002842574916663578</v>
+        <v>0.0007690322182353335</v>
       </c>
       <c r="E40">
-        <v>0.02899426414996849</v>
+        <v>0.003998967534823734</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40">
-        <v>0.07452150861352054</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>0.002842574916663578</v>
+        <v>0.0001343949493105717</v>
       </c>
       <c r="E41">
-        <v>0.02899426414996849</v>
+        <v>0.000698853736414973</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41">
-        <v>0.07452150861352054</v>
+        <v>0.08439982702423547</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
@@ -3688,16 +3734,16 @@
         <v>92</v>
       </c>
       <c r="D42">
-        <v>0.002115264951025335</v>
+        <v>0.002271367527081863</v>
       </c>
       <c r="E42">
-        <v>0.01099937774533174</v>
+        <v>0.01181111114082569</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42">
-        <v>0.08122167422342733</v>
+        <v>0.08677173833627121</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3711,21 +3757,21 @@
         <v>93</v>
       </c>
       <c r="D43">
-        <v>0.04652286147466716</v>
+        <v>0.03396759306371248</v>
       </c>
       <c r="E43">
-        <v>0.9630232325256102</v>
+        <v>0.7031291764188484</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
       </c>
       <c r="G43">
-        <v>0.08966108158520397</v>
+        <v>0.118367420087948</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>125</v>
@@ -3734,39 +3780,39 @@
         <v>93</v>
       </c>
       <c r="D44">
-        <v>0.03583569182231978</v>
+        <v>0.03444864614722631</v>
       </c>
       <c r="E44">
-        <v>0.7417988207220194</v>
+        <v>0.7130869752475847</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44">
-        <v>0.09272978195990145</v>
+        <v>0.1188484731714618</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>0.001068070698108941</v>
+        <v>0.03458598611243306</v>
       </c>
       <c r="E45">
-        <v>0.005553967630166494</v>
+        <v>0.7159299125273644</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="G45">
-        <v>0.09333604357500795</v>
+        <v>0.1189858131366685</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3780,16 +3826,16 @@
         <v>93</v>
       </c>
       <c r="D46">
-        <v>0.04176531023650704</v>
+        <v>0.0352031431959548</v>
       </c>
       <c r="E46">
-        <v>0.8645419218956956</v>
+        <v>0.7287050641562643</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46">
-        <v>0.1229869844599344</v>
+        <v>0.1196029702201903</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3803,16 +3849,16 @@
         <v>93</v>
       </c>
       <c r="D47">
-        <v>0.04860620411492888</v>
+        <v>0.03371722724360599</v>
       </c>
       <c r="E47">
-        <v>1.006148425179028</v>
+        <v>0.697946603942644</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47">
-        <v>0.1419422476899368</v>
+        <v>0.1204889655798772</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3826,21 +3872,21 @@
         <v>92</v>
       </c>
       <c r="D48">
-        <v>0.001037654205917994</v>
+        <v>0.001495640606238974</v>
       </c>
       <c r="E48">
-        <v>0.005395801870773568</v>
+        <v>0.007777331152442663</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
       </c>
       <c r="G48">
-        <v>1.025087901074468</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>130</v>
@@ -3849,16 +3895,16 @@
         <v>92</v>
       </c>
       <c r="D49">
-        <v>0.002677997653621443</v>
+        <v>0.002007261749665451</v>
       </c>
       <c r="E49">
-        <v>0.0139255877988315</v>
+        <v>0.01043776109826035</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
       <c r="G49">
-        <v>1.044523115367069</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3872,67 +3918,67 @@
         <v>92</v>
       </c>
       <c r="D50">
-        <v>0.002855330594877039</v>
+        <v>0.0009866674195465205</v>
       </c>
       <c r="E50">
-        <v>0.006852793427704894</v>
+        <v>0.002368001806911649</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
       </c>
       <c r="G50">
-        <v>1.057648183500572</v>
+        <v>1.067383889660408</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>0.03604949918812626</v>
+        <v>0.0003869400563570595</v>
       </c>
       <c r="E51">
-        <v>0.7462246331942136</v>
+        <v>0.0009286561352569427</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51">
-        <v>1.061137400262594</v>
+        <v>1.069936727484375</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>0.001197451765529953</v>
+        <v>0.0341321375884831</v>
       </c>
       <c r="E52">
-        <v>0.002873884237271887</v>
+        <v>0.7065352480816002</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52">
-        <v>1.080793076631607</v>
+        <v>1.101516027248891</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>134</v>
@@ -3941,16 +3987,16 @@
         <v>93</v>
       </c>
       <c r="D53">
-        <v>0.04262274906010713</v>
+        <v>0.03489824477563175</v>
       </c>
       <c r="E53">
-        <v>0.8822909055442175</v>
+        <v>0.7223936668555772</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53">
-        <v>1.087145864427177</v>
+        <v>1.10228213443604</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3964,21 +4010,21 @@
         <v>93</v>
       </c>
       <c r="D54">
-        <v>0.04862230141473399</v>
+        <v>0.03519266725094875</v>
       </c>
       <c r="E54">
-        <v>0.4959474744302866</v>
+        <v>0.3589652059596772</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
       </c>
       <c r="G54">
-        <v>1.106270484915306</v>
+        <v>1.102576556911357</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
         <v>136</v>
@@ -3987,21 +4033,21 @@
         <v>93</v>
       </c>
       <c r="D55">
-        <v>0.04095863328537738</v>
+        <v>0.0340860321264625</v>
       </c>
       <c r="E55">
-        <v>0.4177780595108492</v>
+        <v>0.3476775276899175</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
       </c>
       <c r="G55">
-        <v>1.121751709916984</v>
+        <v>1.104022759610837</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
@@ -4010,16 +4056,16 @@
         <v>92</v>
       </c>
       <c r="D56">
-        <v>0.001385640464624122</v>
+        <v>0.002731512859715496</v>
       </c>
       <c r="E56">
-        <v>0.007205330416045435</v>
+        <v>0.01420386687052058</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56">
-        <v>2.026522309455892</v>
+        <v>2.050515802663599</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4033,21 +4079,21 @@
         <v>92</v>
       </c>
       <c r="D57">
-        <v>0.002525965094677461</v>
+        <v>0.002248325170219423</v>
       </c>
       <c r="E57">
-        <v>0.006062316227225906</v>
+        <v>0.005395980408526616</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57">
-        <v>2.036513682233838</v>
+        <v>2.050515802663599</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
         <v>139</v>
@@ -4056,21 +4102,21 @@
         <v>92</v>
       </c>
       <c r="D58">
-        <v>0.0008767407349829491</v>
+        <v>0.0004133880118271498</v>
       </c>
       <c r="E58">
-        <v>0.002104177763959077</v>
+        <v>0.0009921312283851594</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="G58">
-        <v>2.062079990610833</v>
+        <v>2.052601113920915</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
@@ -4079,16 +4125,16 @@
         <v>93</v>
       </c>
       <c r="D59">
-        <v>0.04485306327034297</v>
+        <v>0.03507301869872498</v>
       </c>
       <c r="E59">
-        <v>0.9284584096960994</v>
+        <v>0.7260114870636071</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59">
-        <v>2.071375372726235</v>
+        <v>2.085588821362323</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4102,21 +4148,21 @@
         <v>93</v>
       </c>
       <c r="D60">
-        <v>0.03969336552273386</v>
+        <v>0.03523363440983347</v>
       </c>
       <c r="E60">
-        <v>0.4048723283318854</v>
+        <v>0.3593830709803014</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60">
-        <v>2.076207047756572</v>
+        <v>2.085749437073432</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>142</v>
@@ -4125,16 +4171,16 @@
         <v>93</v>
       </c>
       <c r="D61">
-        <v>0.04435823368933013</v>
+        <v>0.03355194651169268</v>
       </c>
       <c r="E61">
-        <v>0.4524539836311673</v>
+        <v>0.3422298544192653</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
       </c>
       <c r="G61">
-        <v>2.106438224300163</v>
+        <v>2.086153060432608</v>
       </c>
     </row>
   </sheetData>
@@ -4181,22 +4227,22 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>19.43781600526951</v>
+        <v>19.53250878361402</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.43781600526951</v>
+        <v>19.53250878361402</v>
       </c>
       <c r="F2">
-        <v>0.3849072476290992</v>
+        <v>0.3867823521507727</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.3849072476290992</v>
+        <v>0.3867823521507727</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4207,22 +4253,22 @@
         <v>151</v>
       </c>
       <c r="C3">
-        <v>1.467818528538292</v>
+        <v>1.067723145341624</v>
       </c>
       <c r="D3">
-        <v>0.2680053073930748</v>
+        <v>0.2754771218721043</v>
       </c>
       <c r="E3">
-        <v>1.735823835931367</v>
+        <v>1.343200267213728</v>
       </c>
       <c r="F3">
-        <v>0.1775624598964679</v>
+        <v>0.1985442794890047</v>
       </c>
       <c r="G3">
-        <v>0.04840168499664624</v>
+        <v>0.05627088433871642</v>
       </c>
       <c r="H3">
-        <v>0.2259641448931141</v>
+        <v>0.2548151638277211</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4233,22 +4279,22 @@
         <v>152</v>
       </c>
       <c r="C4">
-        <v>9.166384353982453</v>
+        <v>7.388499120331498</v>
       </c>
       <c r="D4">
-        <v>5.449795237373152</v>
+        <v>4.019927821627057</v>
       </c>
       <c r="E4">
-        <v>14.61617959135561</v>
+        <v>11.40842694195856</v>
       </c>
       <c r="F4">
-        <v>0.609306569243919</v>
+        <v>0.4873222360268388</v>
       </c>
       <c r="G4">
-        <v>0.3201214979874225</v>
+        <v>0.2356055761766951</v>
       </c>
       <c r="H4">
-        <v>0.9294280672313415</v>
+        <v>0.722927812203534</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4259,22 +4305,22 @@
         <v>153</v>
       </c>
       <c r="C5">
-        <v>30.07201888779026</v>
+        <v>27.98873104928714</v>
       </c>
       <c r="D5">
-        <v>5.717800544766227</v>
+        <v>4.295404943499161</v>
       </c>
       <c r="E5">
-        <v>35.78981943255648</v>
+        <v>32.2841359927863</v>
       </c>
       <c r="F5">
-        <v>1.171776276769486</v>
+        <v>1.072648867666616</v>
       </c>
       <c r="G5">
-        <v>0.3685231829840687</v>
+        <v>0.2918764605154116</v>
       </c>
       <c r="H5">
-        <v>1.540299459753555</v>
+        <v>1.364525328182028</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4285,22 +4331,22 @@
         <v>154</v>
       </c>
       <c r="C6">
-        <v>30.07201888779026</v>
+        <v>27.98873104928714</v>
       </c>
       <c r="D6">
-        <v>5.717800544766227</v>
+        <v>4.295404943499161</v>
       </c>
       <c r="E6">
-        <v>17.89490971627824</v>
+        <v>16.14206799639315</v>
       </c>
       <c r="F6">
-        <v>1.171776276769486</v>
+        <v>1.072648867666616</v>
       </c>
       <c r="G6">
-        <v>0.3685231829840687</v>
+        <v>0.2918764605154116</v>
       </c>
       <c r="H6">
-        <v>0.7701497298767774</v>
+        <v>0.6822626640910139</v>
       </c>
     </row>
   </sheetData>

--- a/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="155">
   <si>
     <t>vehicle_id</t>
   </si>
@@ -82,15 +82,15 @@
     <t>unload_IC_4-Train-12</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=2, train_id=12)</t>
   </si>
   <si>
     <t>load_container(type='Outbound', id=3, train_id=12)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=4, train_id=12)</t>
-  </si>
-  <si>
     <t>load_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>unload_IC_3-Train-70</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=1, train_id=70)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=3, train_id=70)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=2, train_id=70)</t>
-  </si>
-  <si>
     <t>load_container(type='Outbound', id=5, train_id=70)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=4, train_id=70)</t>
-  </si>
-  <si>
     <t>full</t>
   </si>
   <si>
@@ -184,37 +184,43 @@
     <t>dropoff_IC_5-Train-19</t>
   </si>
   <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
+  </si>
+  <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
+    <t>dropoff_OC_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=2, train_id=12)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
+    <t>dropoff_container(type='Outbound', id=3, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
   </si>
   <si>
     <t>back_parking</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=3, train_id=12)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=4, train_id=12)</t>
+    <t>dropoff_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
     <t>pickup_IC_1-Train-12</t>
@@ -235,36 +241,36 @@
     <t>dropoff_IC_3-Train-12</t>
   </si>
   <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=70)</t>
   </si>
   <si>
-    <t>pickup_IC_4-Train-12</t>
-  </si>
-  <si>
-    <t>dropoff_IC_4-Train-12</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=70)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=70)</t>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=70)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=1, train_id=70)</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=12)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=3, train_id=70)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=70)</t>
-  </si>
-  <si>
     <t>pickup_IC_1-Train-70</t>
   </si>
   <si>
@@ -286,63 +292,63 @@
     <t>dropoff_IC_3-Train-70</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=70)</t>
-  </si>
-  <si>
     <t>dropoff_container(type='Outbound', id=5, train_id=70)</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=4, train_id=70)</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>loaded</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=1, train_id=12)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=0, train_id=19)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=0, train_id=70)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=1, train_id=19)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=0, train_id=12)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=1, train_id=12)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=1, train_id=19)</t>
-  </si>
-  <si>
     <t>truck(type='Diesel', id=1, train_id=70)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=0, train_id=70)</t>
-  </si>
-  <si>
     <t>truck(type='Electric', id=3, train_id=19)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=2, train_id=12)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=4, train_id=19)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=2, train_id=70)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=2, train_id=19)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=3, train_id=12)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=4, train_id=19)</t>
-  </si>
-  <si>
     <t>truck(type='Electric', id=3, train_id=70)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=4, train_id=70)</t>
   </si>
   <si>
+    <t>entry_OC_3</t>
+  </si>
+  <si>
+    <t>dropoff_OC_3</t>
+  </si>
+  <si>
     <t>entry_OC_1</t>
   </si>
   <si>
@@ -355,12 +361,6 @@
     <t>dropoff_OC_2</t>
   </si>
   <si>
-    <t>entry_OC_3</t>
-  </si>
-  <si>
-    <t>dropoff_OC_3</t>
-  </si>
-  <si>
     <t>entry_OC_4</t>
   </si>
   <si>
@@ -391,18 +391,18 @@
     <t>pickup_IC-5-Train-19</t>
   </si>
   <si>
+    <t>leave_gate_IC_2-Train-19</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_3-Train-19</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_1-Train-19</t>
+  </si>
+  <si>
     <t>leave_gate_IC_4-Train-19</t>
   </si>
   <si>
-    <t>leave_gate_IC_1-Train-19</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_2-Train-19</t>
-  </si>
-  <si>
     <t>leave_gate_IC_5-Train-19</t>
   </si>
   <si>
@@ -439,10 +439,10 @@
     <t>pickup_IC-3-Train-70</t>
   </si>
   <si>
+    <t>leave_gate_IC_2-Train-70</t>
+  </si>
+  <si>
     <t>leave_gate_IC_1-Train-70</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_2-Train-70</t>
   </si>
   <si>
     <t>leave_gate_IC_3-Train-70</t>
@@ -879,16 +879,16 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>0.01690378226970759</v>
+        <v>0.0168729634030843</v>
       </c>
       <c r="E2">
-        <v>0.8536410046202331</v>
+        <v>0.8520846518557573</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.01690378226970759</v>
+        <v>0.0168729634030843</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -902,16 +902,16 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>0.01677461423150842</v>
+        <v>0.01667678591923155</v>
       </c>
       <c r="E3">
-        <v>0.8471180186911754</v>
+        <v>0.8421776889211935</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.03367839650121601</v>
+        <v>0.03354974932231586</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -925,16 +925,16 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>0.01688568365944449</v>
+        <v>0.01691544867648138</v>
       </c>
       <c r="E4">
-        <v>0.8527270248019466</v>
+        <v>0.85423015816231</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.0505640801606605</v>
+        <v>0.05046519799879724</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -948,16 +948,16 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>0.01691158666534927</v>
+        <v>0.01667606994663591</v>
       </c>
       <c r="E5">
-        <v>0.854035126600138</v>
+        <v>0.8421415323051135</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.06747566682600976</v>
+        <v>0.06714126794543315</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -971,16 +971,16 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>0.0169241601982257</v>
+        <v>0.0166716930404261</v>
       </c>
       <c r="E6">
-        <v>0.8546700900103981</v>
+        <v>0.8419204985415181</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -994,16 +994,16 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>0.01686205401348459</v>
+        <v>0.01686810334235243</v>
       </c>
       <c r="E7">
-        <v>0.8515337276809718</v>
+        <v>0.8518392187887978</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.1172225933808737</v>
+        <v>0.1136435246880062</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1017,16 +1017,16 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>0.01672306110290826</v>
+        <v>0.01668263919771392</v>
       </c>
       <c r="E8">
-        <v>0.8445145856968669</v>
+        <v>0.8424732794845529</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.133945654483782</v>
+        <v>0.1303261638857201</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1040,16 +1040,16 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>0.01694176370539076</v>
+        <v>0.01694157565057359</v>
       </c>
       <c r="E9">
-        <v>0.8555590671222333</v>
+        <v>0.8555495703539662</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>1.016941763705391</v>
+        <v>1.016941575650574</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,16 +1063,16 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.01692806590054876</v>
+        <v>0.01693252008776093</v>
       </c>
       <c r="E10">
-        <v>0.8548673279777124</v>
+        <v>0.8550922644319268</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1.03386982960594</v>
+        <v>1.033874095738335</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1086,16 +1086,16 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.01678101910009333</v>
+        <v>0.01674793725122401</v>
       </c>
       <c r="E11">
-        <v>0.847441464554713</v>
+        <v>0.8457708311868124</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11">
-        <v>1.050650848706033</v>
+        <v>1.050622032989559</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1109,16 +1109,16 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>0.01673304095437528</v>
+        <v>0.01684151209060395</v>
       </c>
       <c r="E12">
-        <v>0.8450185681959516</v>
+        <v>0.8504963605754994</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>1.067383889660408</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1132,16 +1132,16 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>0.01676359060386184</v>
+        <v>0.01686979605105573</v>
       </c>
       <c r="E13">
-        <v>0.8465613254950232</v>
+        <v>0.8519247005783145</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13">
-        <v>1.095815341786085</v>
+        <v>1.095103633084816</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1155,16 +1155,16 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>0.01679503468223256</v>
+        <v>0.01689568294064945</v>
       </c>
       <c r="E14">
-        <v>0.8481492514527442</v>
+        <v>0.8532319885027974</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14">
-        <v>1.112610376468318</v>
+        <v>1.111999316025466</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1178,16 +1178,16 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.01685803964445843</v>
+        <v>0.01677273951943277</v>
       </c>
       <c r="E15">
-        <v>0.8513310020451509</v>
+        <v>0.8470233457313551</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15">
-        <v>1.129468416112776</v>
+        <v>1.128772055544898</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1201,16 +1201,16 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>0.01672335113499182</v>
+        <v>0.0168020911324663</v>
       </c>
       <c r="E16">
-        <v>0.8445292323170871</v>
+        <v>0.8485056021895482</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16">
-        <v>1.146191767247768</v>
+        <v>1.145574146677365</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1224,16 +1224,16 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>0.01683623401550204</v>
+        <v>0.01681243561674326</v>
       </c>
       <c r="E17">
-        <v>0.8502298177828531</v>
+        <v>0.8490279986455345</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>2.016836234015502</v>
+        <v>2.016812435616743</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1247,16 +1247,16 @@
         <v>33</v>
       </c>
       <c r="D18">
-        <v>0.01689393478974957</v>
+        <v>0.01680933965345817</v>
       </c>
       <c r="E18">
-        <v>0.8531437068823533</v>
+        <v>0.8488716524996377</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>2.033730168805252</v>
+        <v>2.033621775270201</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,16 +1270,16 @@
         <v>33</v>
       </c>
       <c r="D19">
-        <v>0.01678563385834669</v>
+        <v>0.01684194181161554</v>
       </c>
       <c r="E19">
-        <v>0.8476745098465078</v>
+        <v>0.850518061486585</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
-        <v>2.050515802663599</v>
+        <v>2.050463717081817</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1293,16 +1293,16 @@
         <v>33</v>
       </c>
       <c r="D20">
-        <v>0.01668344668613012</v>
+        <v>0.01685066974433566</v>
       </c>
       <c r="E20">
-        <v>0.8425140576495712</v>
+        <v>0.8509588220889507</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
-        <v>2.075035575698707</v>
+        <v>2.079589399930027</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1316,16 +1316,16 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>0.01672927778306897</v>
+        <v>0.01680281211631492</v>
       </c>
       <c r="E21">
-        <v>0.8448285280449831</v>
+        <v>0.8485420118739037</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21">
-        <v>2.091764853481776</v>
+        <v>2.096392212046342</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1339,16 +1339,16 @@
         <v>33</v>
       </c>
       <c r="D22">
-        <v>0.01674291523049148</v>
+        <v>0.01669707925122127</v>
       </c>
       <c r="E22">
-        <v>0.8455172191398199</v>
+        <v>0.8432025021866739</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22">
-        <v>2.108507768712268</v>
+        <v>2.113089291297563</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1362,16 +1362,16 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>0.01682242091523897</v>
+        <v>0.0168266160693569</v>
       </c>
       <c r="E23">
-        <v>0.8495322562195677</v>
+        <v>0.8497441115025235</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>2.125330189627507</v>
+        <v>2.12991590736692</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1385,16 +1385,16 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>0.01677964100566375</v>
+        <v>0.01678856351264633</v>
       </c>
       <c r="E24">
-        <v>0.8473718707860192</v>
+        <v>0.8478224573886396</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>2.14210983063317</v>
+        <v>2.146704470879566</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,16 +1444,16 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>0.009248448166595586</v>
+        <v>0.00716232947448782</v>
       </c>
       <c r="E2">
-        <v>0.05734037863289263</v>
+        <v>0.04440644274182449</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.02216453546422651</v>
+        <v>0.02099056313116112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1467,16 +1467,16 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>0.004789427575283162</v>
+        <v>0.01062578501286387</v>
       </c>
       <c r="E3">
-        <v>0.02969445096675561</v>
+        <v>0.06587986707975599</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.03580744185220169</v>
+        <v>0.03854622842560491</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1490,16 +1490,16 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>0.007537780945140647</v>
+        <v>0.002458898703619652</v>
       </c>
       <c r="E4">
-        <v>0.04673424185987202</v>
+        <v>0.01524517196244185</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.05351121252603577</v>
+        <v>0.05255848245221698</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1513,16 +1513,16 @@
         <v>92</v>
       </c>
       <c r="D5">
-        <v>0.004578973350739948</v>
+        <v>0.006792609827015727</v>
       </c>
       <c r="E5">
-        <v>0.02838963477458768</v>
+        <v>0.04211418092749751</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.07007545330710548</v>
+        <v>0.0687080202576448</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1545,7 +1545,7 @@
         <v>34</v>
       </c>
       <c r="G6">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1591,7 +1591,7 @@
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1614,7 +1614,7 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1628,16 +1628,16 @@
         <v>92</v>
       </c>
       <c r="D10">
-        <v>0.005710862764744881</v>
+        <v>0.003655877731385122</v>
       </c>
       <c r="E10">
-        <v>0.03540734914141826</v>
+        <v>0.02266644193458776</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>0.08677173833627121</v>
+        <v>0.08545547513181107</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1660,7 +1660,7 @@
         <v>34</v>
       </c>
       <c r="G11">
-        <v>0.08677173833627121</v>
+        <v>0.08545547513181107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1674,16 +1674,16 @@
         <v>92</v>
       </c>
       <c r="D12">
-        <v>0.003597715906412948</v>
+        <v>0.004224027783644523</v>
       </c>
       <c r="E12">
-        <v>0.02230583861976028</v>
+        <v>0.02618897225859605</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>0.08799754293064842</v>
+        <v>0.08803698876950378</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1697,21 +1697,21 @@
         <v>92</v>
       </c>
       <c r="D13">
-        <v>0.005403303071293126</v>
+        <v>0.004288408234891267</v>
       </c>
       <c r="E13">
-        <v>0.03350047904201738</v>
+        <v>0.02658813105632585</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13">
-        <v>0.08980313009552859</v>
+        <v>0.08810136922075051</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -1720,39 +1720,39 @@
         <v>92</v>
       </c>
       <c r="D14">
-        <v>0.006059748661334971</v>
+        <v>0.001976765915718452</v>
       </c>
       <c r="E14">
-        <v>0.03757044170027682</v>
+        <v>0.0122559486774544</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14">
-        <v>0.09045957568557045</v>
+        <v>0.08813040055851082</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>0.0006952954621371309</v>
+        <v>0.002915551543119164</v>
       </c>
       <c r="E15">
-        <v>0.004310831865250212</v>
+        <v>0.01807641956733882</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15">
-        <v>0.09130448140450807</v>
+        <v>0.08837102667493023</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1766,21 +1766,21 @@
         <v>92</v>
       </c>
       <c r="D16">
-        <v>0.008505596532864722</v>
+        <v>0.005304475570132047</v>
       </c>
       <c r="E16">
-        <v>0.05273469850376128</v>
+        <v>0.03288774853481869</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16">
-        <v>0.09290542355710019</v>
+        <v>0.08911743655599129</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -1789,44 +1789,44 @@
         <v>92</v>
       </c>
       <c r="D17">
-        <v>0.006352175202274865</v>
+        <v>0.005647498940702288</v>
       </c>
       <c r="E17">
-        <v>0.03938348625410416</v>
+        <v>0.03501449343235419</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>0.09312391353854607</v>
+        <v>0.08946045992656154</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>0.006310834899667038</v>
+        <v>0.005899987889693599</v>
       </c>
       <c r="E18">
-        <v>0.03912717637793564</v>
+        <v>0.0926298098681895</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>0.09761531630417511</v>
+        <v>0.09403038844820441</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -1835,21 +1835,21 @@
         <v>93</v>
       </c>
       <c r="D19">
-        <v>0.008402189145294102</v>
+        <v>0.004904148125605381</v>
       </c>
       <c r="E19">
-        <v>0.05209357270082344</v>
+        <v>0.03040571837875336</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
-        <v>0.09833400939958981</v>
+        <v>0.09530041328333574</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -1858,21 +1858,21 @@
         <v>93</v>
       </c>
       <c r="D20">
-        <v>0.00817509261421699</v>
+        <v>0.005903466535946725</v>
       </c>
       <c r="E20">
-        <v>0.05068557420814534</v>
+        <v>0.0366014925228697</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
-        <v>0.1003605393673891</v>
+        <v>0.09563407367401319</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -1881,39 +1881,39 @@
         <v>93</v>
       </c>
       <c r="D21">
-        <v>0.008250581759960953</v>
+        <v>0.006202527811425771</v>
       </c>
       <c r="E21">
-        <v>0.05115360691175791</v>
+        <v>0.03845567243083978</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21">
-        <v>0.1027582460760374</v>
+        <v>0.09619248856175464</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22">
-        <v>0.002930232029062961</v>
+        <v>0.006813805203744683</v>
       </c>
       <c r="E22">
-        <v>0.01816743858019036</v>
+        <v>0.04224559226321704</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22">
-        <v>0.1032907713964521</v>
+        <v>0.09677542134565374</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1921,22 +1921,22 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23">
-        <v>0.008141933109581893</v>
+        <v>0.00213849415746827</v>
       </c>
       <c r="E23">
-        <v>0.05047998527940774</v>
+        <v>0.01325866377630328</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>0.1032977367385963</v>
+        <v>0.09891391550312201</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1944,73 +1944,73 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24">
-        <v>0.0019133884816322</v>
+        <v>0.008718754416763801</v>
       </c>
       <c r="E24">
-        <v>0.01186300858611964</v>
+        <v>0.05405627738393557</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>0.1046716345576695</v>
+        <v>0.09950655779307874</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>92</v>
       </c>
       <c r="D25">
-        <v>0.006383924825750111</v>
+        <v>0.006005003570159971</v>
       </c>
       <c r="E25">
-        <v>0.03958033391965068</v>
+        <v>0.03723102213499183</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25">
-        <v>0.1047179342253399</v>
+        <v>0.1013054168534957</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
-        <v>0.007497334375344228</v>
+        <v>0.006543660876002538</v>
       </c>
       <c r="E26">
-        <v>0.04648347312713422</v>
+        <v>0.04057069743121574</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26">
-        <v>0.1107950711139406</v>
+        <v>0.1021777345500157</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -2019,44 +2019,44 @@
         <v>92</v>
       </c>
       <c r="D27">
-        <v>0.01002164372516651</v>
+        <v>0.006718570181592671</v>
       </c>
       <c r="E27">
-        <v>0.06213419109603239</v>
+        <v>0.04165513512587456</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27">
-        <v>1.020675278455365</v>
+        <v>0.1029110587433473</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>92</v>
       </c>
       <c r="D28">
-        <v>0.004086176740347256</v>
+        <v>0.005313003315147617</v>
       </c>
       <c r="E28">
-        <v>0.02533429579015299</v>
+        <v>0.03294062055391523</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28">
-        <v>1.037373700541583</v>
+        <v>0.1048195611082264</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
@@ -2065,67 +2065,67 @@
         <v>92</v>
       </c>
       <c r="D29">
-        <v>0.005416731523708002</v>
+        <v>0.002901889331720192</v>
       </c>
       <c r="E29">
-        <v>0.03358373544698962</v>
+        <v>0.01799171385666519</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29">
-        <v>1.053304501023851</v>
+        <v>1.021169752776227</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.001669765054291145</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.0103525433366051</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30">
-        <v>1.067383889660408</v>
+        <v>1.035774157435377</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.004145559793631954</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.02570247072051811</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31">
-        <v>1.067383889660408</v>
+        <v>1.053581316750045</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2143,30 +2143,30 @@
         <v>34</v>
       </c>
       <c r="G32">
-        <v>1.067383889660408</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>0.001912646266006945</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.004590351038416669</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33">
-        <v>1.069296535926415</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2177,19 +2177,19 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34">
-        <v>0.004554497871760484</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.028237886804915</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34">
-        <v>1.069936727484375</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2200,24 +2200,24 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.00210114798821477</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.005042755171715449</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35">
-        <v>1.069936727484375</v>
+        <v>1.069564693068377</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -2226,44 +2226,44 @@
         <v>92</v>
       </c>
       <c r="D36">
-        <v>0.005042737905370728</v>
+        <v>0.00364189402450845</v>
       </c>
       <c r="E36">
-        <v>0.03126497501329852</v>
+        <v>0.02257974295195239</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36">
-        <v>1.072426627565779</v>
+        <v>1.069885867143429</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37">
-        <v>0.006996363552078925</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.01679127252498942</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37">
-        <v>1.074380253212487</v>
+        <v>1.069885867143429</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -2272,16 +2272,16 @@
         <v>92</v>
       </c>
       <c r="D38">
-        <v>0.007499850150157976</v>
+        <v>0.004155140810606508</v>
       </c>
       <c r="E38">
-        <v>0.01799964036037914</v>
+        <v>0.00997233794545562</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38">
-        <v>1.077436577634533</v>
+        <v>1.071618685890769</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2292,42 +2292,42 @@
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39">
-        <v>0.007632850913526555</v>
+        <v>0.006335499256032897</v>
       </c>
       <c r="E39">
-        <v>0.01831884219246373</v>
+        <v>0.01520519821447895</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39">
-        <v>1.077857510726712</v>
+        <v>1.073799044336196</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40">
-        <v>0.005108142481648789</v>
+        <v>0.005817974818131259</v>
       </c>
       <c r="E40">
-        <v>0.03167048338622249</v>
+        <v>0.01396313956351502</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40">
-        <v>1.079051751182224</v>
+        <v>1.07570384196156</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2341,39 +2341,39 @@
         <v>93</v>
       </c>
       <c r="D41">
-        <v>0.003720663006656674</v>
+        <v>0.006959679253733936</v>
       </c>
       <c r="E41">
-        <v>0.008929591215976017</v>
+        <v>0.01670323020896144</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41">
-        <v>1.08280942537765</v>
+        <v>1.07823383703376</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42">
-        <v>0.005006426389517348</v>
+        <v>0.001932047572945665</v>
       </c>
       <c r="E42">
-        <v>0.01201542333484163</v>
+        <v>0.004636914175069595</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42">
-        <v>1.082863937116229</v>
+        <v>1.078734607522427</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2381,206 +2381,206 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>93</v>
       </c>
       <c r="D43">
-        <v>0.00837780515808252</v>
+        <v>0.007648622206662494</v>
       </c>
       <c r="E43">
-        <v>0.02010673237939805</v>
+        <v>0.01835669329598999</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
       </c>
       <c r="G43">
-        <v>1.083814889630604</v>
+        <v>1.080248402480866</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44">
-        <v>0.007175356428893491</v>
+        <v>0.006731486523899787</v>
       </c>
       <c r="E44">
-        <v>0.04448720985913965</v>
+        <v>0.01615556765735949</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44">
-        <v>1.086227107611117</v>
+        <v>1.082489049705777</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45">
-        <v>0.002420016469474145</v>
+        <v>0.006035450336233643</v>
       </c>
       <c r="E45">
-        <v>0.005808039526737948</v>
+        <v>0.01448508080696074</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="G45">
-        <v>1.086234906100078</v>
+        <v>1.084269287369994</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
       </c>
       <c r="D46">
-        <v>0.008486499034676546</v>
+        <v>0.007765920233404409</v>
       </c>
       <c r="E46">
-        <v>0.02036759768322371</v>
+        <v>0.01863820856017058</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46">
-        <v>1.091295924412327</v>
+        <v>1.086500527755832</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
       <c r="D47">
-        <v>0.003330508359236032</v>
+        <v>0.007180281147450647</v>
       </c>
       <c r="E47">
-        <v>0.0206491518272634</v>
+        <v>0.01723267475388155</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47">
-        <v>2.019583013904813</v>
+        <v>1.087428683628316</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48">
-        <v>0.005684685312229075</v>
+        <v>0.005493476864429058</v>
       </c>
       <c r="E48">
-        <v>0.03524504893582027</v>
+        <v>0.01318434447462974</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
       </c>
       <c r="G48">
-        <v>2.036830809957054</v>
+        <v>1.087982526570206</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.004498259701016203</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02788921014630046</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
       <c r="G49">
-        <v>2.050515802663599</v>
+        <v>2.020857027617276</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.006137684447465595</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.03805364357428669</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
       </c>
       <c r="G50">
-        <v>2.050515802663599</v>
+        <v>2.035434766684655</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>0.001993196262339379</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0.01235781682650415</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51">
-        <v>2.052508998925938</v>
+        <v>2.050463717081817</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2591,47 +2591,47 @@
         <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>0.009305326928935695</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0.05769302695940131</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52">
-        <v>2.052601113920915</v>
+        <v>2.050463717081817</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.002121566713794011</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01315371362552287</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53">
-        <v>2.052601113920915</v>
+        <v>2.052585283795611</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
         <v>89</v>
@@ -2640,39 +2640,39 @@
         <v>92</v>
       </c>
       <c r="D54">
-        <v>0.00290755082858184</v>
+        <v>0.004647923040381567</v>
       </c>
       <c r="E54">
-        <v>0.006978121988596417</v>
+        <v>0.02881712285036572</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
       </c>
       <c r="G54">
-        <v>2.05342335349218</v>
+        <v>2.053407204345525</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55">
-        <v>0.003866877290774908</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.02397463920280443</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
       </c>
       <c r="G55">
-        <v>2.056467991211691</v>
+        <v>2.053407204345525</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2680,27 +2680,27 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>0.002749196556272818</v>
+        <v>0.007022640339780262</v>
       </c>
       <c r="E56">
-        <v>0.01704501864889147</v>
+        <v>0.04354037010663762</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56">
-        <v>2.057003614755747</v>
+        <v>2.060429844685305</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
         <v>91</v>
@@ -2709,62 +2709,39 @@
         <v>93</v>
       </c>
       <c r="D57">
-        <v>0.002751592319149601</v>
+        <v>0.007955007704042645</v>
       </c>
       <c r="E57">
-        <v>0.006603821565959044</v>
+        <v>0.0493210477650644</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57">
-        <v>2.058352129012577</v>
+        <v>2.062738730185691</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>92</v>
       </c>
       <c r="D58">
-        <v>0.003717945320089012</v>
+        <v>0.002960480387602852</v>
       </c>
       <c r="E58">
-        <v>0.02305126098455187</v>
+        <v>0.01835497840313768</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="G58">
-        <v>2.060721560075836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59">
-        <v>0.004565038153707436</v>
-      </c>
-      <c r="E59">
-        <v>0.01095609156889785</v>
-      </c>
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59">
-        <v>2.062917167166284</v>
+        <v>2.065699210573294</v>
       </c>
     </row>
   </sheetData>
@@ -2814,16 +2791,16 @@
         <v>93</v>
       </c>
       <c r="D2">
-        <v>0.01802561385012095</v>
+        <v>0.01689331733005417</v>
       </c>
       <c r="E2">
-        <v>0.3731302066975036</v>
+        <v>0.3496916687321212</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.01802561385012095</v>
+        <v>0.01689331733005417</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2837,16 +2814,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>0.001509042382462942</v>
+        <v>0.001211886072412492</v>
       </c>
       <c r="E3">
-        <v>0.0312371773169829</v>
+        <v>0.02508604169893859</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.01802561385012095</v>
+        <v>0.01689331733005417</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2860,16 +2837,16 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>0.001509042382462942</v>
+        <v>0.001211886072412492</v>
       </c>
       <c r="E4">
-        <v>0.0312371773169829</v>
+        <v>0.02508604169893859</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.01802561385012095</v>
+        <v>0.01689331733005417</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2883,16 +2860,16 @@
         <v>93</v>
       </c>
       <c r="D5">
-        <v>0.01840249984170718</v>
+        <v>0.01711143291968176</v>
       </c>
       <c r="E5">
-        <v>0.3809317467233387</v>
+        <v>0.3542066614374124</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.01840249984170718</v>
+        <v>0.01711143291968176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2906,16 +2883,16 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>0.002949883693149344</v>
+        <v>0.001016026456723559</v>
       </c>
       <c r="E6">
-        <v>0.06106259244819143</v>
+        <v>0.02103174765417767</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6">
-        <v>0.01840249984170718</v>
+        <v>0.01711143291968176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2929,16 +2906,16 @@
         <v>93</v>
       </c>
       <c r="D7">
-        <v>0.002949883693149344</v>
+        <v>0.001016026456723559</v>
       </c>
       <c r="E7">
-        <v>0.06106259244819143</v>
+        <v>0.02103174765417767</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.01840249984170718</v>
+        <v>0.01711143291968176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2946,22 +2923,22 @@
         <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
       </c>
       <c r="D8">
-        <v>0.01844961957527937</v>
+        <v>0.0172985264747843</v>
       </c>
       <c r="E8">
-        <v>0.3819071252082828</v>
+        <v>0.3580794980280351</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.01844961957527937</v>
+        <v>0.0172985264747843</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2969,22 +2946,22 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
       </c>
       <c r="D9">
-        <v>0.001088259135281261</v>
+        <v>0.001681914487536391</v>
       </c>
       <c r="E9">
-        <v>0.02252696410032211</v>
+        <v>0.03481562989200328</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>0.01844961957527937</v>
+        <v>0.0172985264747843</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2992,22 +2969,22 @@
         <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
       </c>
       <c r="D10">
-        <v>0.001088259135281261</v>
+        <v>0.001681914487536391</v>
       </c>
       <c r="E10">
-        <v>0.02252696410032211</v>
+        <v>0.03481562989200328</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>0.01844961957527937</v>
+        <v>0.0172985264747843</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3015,22 +2992,22 @@
         <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11">
-        <v>0.018737123530644</v>
+        <v>0.01749167585760823</v>
       </c>
       <c r="E11">
-        <v>0.3878584570843308</v>
+        <v>0.3620776902524904</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11">
-        <v>0.018737123530644</v>
+        <v>0.01749167585760823</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3038,22 +3015,22 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
       </c>
       <c r="D12">
-        <v>0.001427888406434504</v>
+        <v>0.001526844953841911</v>
       </c>
       <c r="E12">
-        <v>0.02955729001319423</v>
+        <v>0.03160569054452755</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>0.018737123530644</v>
+        <v>0.01749167585760823</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3061,22 +3038,22 @@
         <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13">
-        <v>0.001427888406434504</v>
+        <v>0.001526844953841911</v>
       </c>
       <c r="E13">
-        <v>0.02955729001319423</v>
+        <v>0.03160569054452755</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
       <c r="G13">
-        <v>0.018737123530644</v>
+        <v>0.01749167585760823</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3084,22 +3061,22 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>93</v>
       </c>
       <c r="D14">
-        <v>0.01895101826228155</v>
+        <v>0.01811220402884679</v>
       </c>
       <c r="E14">
-        <v>0.3922860780292281</v>
+        <v>0.3749226233971286</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
       <c r="G14">
-        <v>0.01895101826228155</v>
+        <v>0.01811220402884679</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3107,22 +3084,22 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
       </c>
       <c r="D15">
-        <v>0.001688054829498719</v>
+        <v>0.0008007547609984524</v>
       </c>
       <c r="E15">
-        <v>0.03494273497062348</v>
+        <v>0.01657562355266796</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15">
-        <v>0.01895101826228155</v>
+        <v>0.01811220402884679</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3130,22 +3107,22 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
         <v>93</v>
       </c>
       <c r="D16">
-        <v>0.001688054829498719</v>
+        <v>0.0008007547609984524</v>
       </c>
       <c r="E16">
-        <v>0.03494273497062348</v>
+        <v>0.01657562355266796</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
       <c r="G16">
-        <v>0.01895101826228155</v>
+        <v>0.01811220402884679</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3153,22 +3130,22 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
       </c>
       <c r="D17">
-        <v>0.01896553698688131</v>
+        <v>0.01830535449504237</v>
       </c>
       <c r="E17">
-        <v>0.3925866156284431</v>
+        <v>0.3789208380473771</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
       <c r="G17">
-        <v>0.01896553698688131</v>
+        <v>0.01830535449504237</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3176,22 +3153,22 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
       <c r="D18">
-        <v>0.002898442958521926</v>
+        <v>0.0007416536950234888</v>
       </c>
       <c r="E18">
-        <v>0.05999776924140386</v>
+        <v>0.01535223148698622</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>0.01896553698688131</v>
+        <v>0.01830535449504237</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3199,22 +3176,22 @@
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
       </c>
       <c r="D19">
-        <v>0.002898442958521926</v>
+        <v>0.0007416536950234888</v>
       </c>
       <c r="E19">
-        <v>0.05999776924140386</v>
+        <v>0.01535223148698622</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
-        <v>0.01896553698688131</v>
+        <v>0.01830535449504237</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3228,16 +3205,16 @@
         <v>92</v>
       </c>
       <c r="D20">
-        <v>0.01794569575449721</v>
+        <v>0.01676809178908558</v>
       </c>
       <c r="E20">
-        <v>0.04306966981079329</v>
+        <v>0.04024342029380539</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
-        <v>0.03634819559620439</v>
+        <v>0.03387952470876734</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3245,22 +3222,22 @@
         <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
       </c>
       <c r="D21">
-        <v>0.01846921963794343</v>
+        <v>0.01716756466190372</v>
       </c>
       <c r="E21">
-        <v>0.188386040307023</v>
+        <v>0.1751091595514179</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
       <c r="G21">
-        <v>0.0369188392132228</v>
+        <v>0.03446609113668803</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3268,22 +3245,22 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
       </c>
       <c r="D22">
-        <v>0.0002001152153779949</v>
+        <v>0.002874707498251585</v>
       </c>
       <c r="E22">
-        <v>0.002041175196855548</v>
+        <v>0.02932201648216617</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
       <c r="G22">
-        <v>0.0369188392132228</v>
+        <v>0.03446609113668803</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3291,22 +3268,22 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>93</v>
       </c>
       <c r="D23">
-        <v>0.0002001152153779949</v>
+        <v>0.002874707498251585</v>
       </c>
       <c r="E23">
-        <v>0.002041175196855548</v>
+        <v>0.02932201648216617</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
       <c r="G23">
-        <v>0.0369188392132228</v>
+        <v>0.03446609113668803</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3314,68 +3291,68 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <v>0.0184185903900058</v>
+        <v>0.01710384015892931</v>
       </c>
       <c r="E24">
-        <v>0.38126482107312</v>
+        <v>0.04104921638143033</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>0.0371557139206498</v>
+        <v>0.0352160441877761</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
       </c>
       <c r="D25">
-        <v>0.0004515675964182606</v>
+        <v>0.01786387487662115</v>
       </c>
       <c r="E25">
-        <v>0.009347449245857994</v>
+        <v>0.3697822099460577</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
       <c r="G25">
-        <v>0.0371557139206498</v>
+        <v>0.03535555073422938</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
       </c>
       <c r="D26">
-        <v>0.0004515675964182606</v>
+        <v>0.0006534332372024089</v>
       </c>
       <c r="E26">
-        <v>0.009347449245857994</v>
+        <v>0.01352606801008986</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26">
-        <v>0.0371557139206498</v>
+        <v>0.03535555073422938</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3383,91 +3360,91 @@
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
-        <v>0.01842962318346783</v>
+        <v>0.0006534332372024089</v>
       </c>
       <c r="E27">
-        <v>0.1879821564713718</v>
+        <v>0.01352606801008986</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
       <c r="G27">
-        <v>0.03739516017034913</v>
+        <v>0.03535555073422938</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28">
-        <v>0.001128067578420291</v>
+        <v>0.0192066995795253</v>
       </c>
       <c r="E28">
-        <v>0.01150628929988697</v>
+        <v>0.09987483781353154</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
       <c r="G28">
-        <v>0.03739516017034913</v>
+        <v>0.03610001690957947</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
       </c>
       <c r="D29">
-        <v>0.001128067578420291</v>
+        <v>0.01834149013781672</v>
       </c>
       <c r="E29">
-        <v>0.01150628929988697</v>
+        <v>0.1870831994057305</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
       <c r="G29">
-        <v>0.03739516017034913</v>
+        <v>0.0366468446328591</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30">
-        <v>0.01943154462916975</v>
+        <v>0.002677447427010121</v>
       </c>
       <c r="E30">
-        <v>0.1010440320716827</v>
+        <v>0.02730996375550323</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30">
-        <v>0.0374571584792907</v>
+        <v>0.0366468446328591</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3475,22 +3452,22 @@
         <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31">
-        <v>0.01884071905263273</v>
+        <v>0.002677447427010121</v>
       </c>
       <c r="E31">
-        <v>0.04521772572631854</v>
+        <v>0.02730996375550323</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31">
-        <v>0.03779173731491428</v>
+        <v>0.0366468446328591</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3504,16 +3481,16 @@
         <v>93</v>
       </c>
       <c r="D32">
-        <v>0.01713823250539141</v>
+        <v>0.01872073853432661</v>
       </c>
       <c r="E32">
-        <v>0.1748099715549923</v>
+        <v>0.1909515330501315</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
       </c>
       <c r="G32">
-        <v>0.0534864281015958</v>
+        <v>0.05260026324309396</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3527,16 +3504,16 @@
         <v>93</v>
       </c>
       <c r="D33">
-        <v>0.0006680345510783261</v>
+        <v>0.0002890595879318068</v>
       </c>
       <c r="E33">
-        <v>0.006813952420998926</v>
+        <v>0.00294840779690443</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
       </c>
       <c r="G33">
-        <v>0.0534864281015958</v>
+        <v>0.05260026324309396</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3550,16 +3527,16 @@
         <v>93</v>
       </c>
       <c r="D34">
-        <v>0.0006680345510783261</v>
+        <v>0.0002890595879318068</v>
       </c>
       <c r="E34">
-        <v>0.006813952420998926</v>
+        <v>0.00294840779690443</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34">
-        <v>0.0534864281015958</v>
+        <v>0.05260026324309396</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3573,16 +3550,16 @@
         <v>93</v>
       </c>
       <c r="D35">
-        <v>0.01824455177955129</v>
+        <v>0.01912592991778573</v>
       </c>
       <c r="E35">
-        <v>0.1860944281514232</v>
+        <v>0.1950844851614145</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
       </c>
       <c r="G35">
-        <v>0.05516339099277409</v>
+        <v>0.05359202105447376</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3596,16 +3573,16 @@
         <v>93</v>
       </c>
       <c r="D36">
-        <v>0.002677616970066939</v>
+        <v>0.0003419972298144299</v>
       </c>
       <c r="E36">
-        <v>0.02731169309468277</v>
+        <v>0.003488371744107184</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
       </c>
       <c r="G36">
-        <v>0.05516339099277409</v>
+        <v>0.05359202105447376</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3619,21 +3596,21 @@
         <v>93</v>
       </c>
       <c r="D37">
-        <v>0.002677616970066939</v>
+        <v>0.0003419972298144299</v>
       </c>
       <c r="E37">
-        <v>0.02731169309468277</v>
+        <v>0.003488371744107184</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
       </c>
       <c r="G37">
-        <v>0.05516339099277409</v>
+        <v>0.05359202105447376</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
         <v>119</v>
@@ -3642,21 +3619,21 @@
         <v>92</v>
       </c>
       <c r="D38">
-        <v>0.001608840295973781</v>
+        <v>0.00132748668756599</v>
       </c>
       <c r="E38">
-        <v>0.008365969539063661</v>
+        <v>0.006902930775343148</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
       </c>
       <c r="G38">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
@@ -3665,21 +3642,21 @@
         <v>92</v>
       </c>
       <c r="D39">
-        <v>0.00196062860165755</v>
+        <v>0.001639669794796557</v>
       </c>
       <c r="E39">
-        <v>0.01019526872861926</v>
+        <v>0.008526282932942095</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
       </c>
       <c r="G39">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
@@ -3688,16 +3665,16 @@
         <v>92</v>
       </c>
       <c r="D40">
-        <v>0.0007690322182353335</v>
+        <v>0.001019243787107256</v>
       </c>
       <c r="E40">
-        <v>0.003998967534823734</v>
+        <v>0.005300067692957733</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
       </c>
       <c r="G40">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3711,21 +3688,21 @@
         <v>92</v>
       </c>
       <c r="D41">
-        <v>0.0001343949493105717</v>
+        <v>0.001249140274378346</v>
       </c>
       <c r="E41">
-        <v>0.000698853736414973</v>
+        <v>0.006495529426767398</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
       <c r="G41">
-        <v>0.08439982702423547</v>
+        <v>0.08381296098585925</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
@@ -3734,21 +3711,21 @@
         <v>92</v>
       </c>
       <c r="D42">
-        <v>0.002271367527081863</v>
+        <v>0.002156930611201412</v>
       </c>
       <c r="E42">
-        <v>0.01181111114082569</v>
+        <v>0.01121603917824734</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
       </c>
       <c r="G42">
-        <v>0.08677173833627121</v>
+        <v>0.08545547513181107</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>124</v>
@@ -3757,21 +3734,21 @@
         <v>93</v>
       </c>
       <c r="D43">
-        <v>0.03396759306371248</v>
+        <v>0.03404800752409359</v>
       </c>
       <c r="E43">
-        <v>0.7031291764188484</v>
+        <v>0.7047937557487374</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
       </c>
       <c r="G43">
-        <v>0.118367420087948</v>
+        <v>0.1178609685099528</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>125</v>
@@ -3780,21 +3757,21 @@
         <v>93</v>
       </c>
       <c r="D44">
-        <v>0.03444864614722631</v>
+        <v>0.03572849312483527</v>
       </c>
       <c r="E44">
-        <v>0.7130869752475847</v>
+        <v>0.73957980768409</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44">
-        <v>0.1188484731714618</v>
+        <v>0.1195414541106945</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>126</v>
@@ -3803,21 +3780,21 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>0.03458598611243306</v>
+        <v>0.0358350186780182</v>
       </c>
       <c r="E45">
-        <v>0.7159299125273644</v>
+        <v>0.7417848866349768</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
       <c r="G45">
-        <v>0.1189858131366685</v>
+        <v>0.1196479796638774</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>127</v>
@@ -3826,21 +3803,21 @@
         <v>93</v>
       </c>
       <c r="D46">
-        <v>0.0352031431959548</v>
+        <v>0.03607583347228657</v>
       </c>
       <c r="E46">
-        <v>0.7287050641562643</v>
+        <v>0.7467697528763318</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
       </c>
       <c r="G46">
-        <v>0.1196029702201903</v>
+        <v>0.1198887944581458</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>128</v>
@@ -3849,21 +3826,21 @@
         <v>93</v>
       </c>
       <c r="D47">
-        <v>0.03371722724360599</v>
+        <v>0.03595595466191505</v>
       </c>
       <c r="E47">
-        <v>0.697946603942644</v>
+        <v>0.7442882615016415</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
       </c>
       <c r="G47">
-        <v>0.1204889655798772</v>
+        <v>0.1214114297937261</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>129</v>
@@ -3872,16 +3849,16 @@
         <v>92</v>
       </c>
       <c r="D48">
-        <v>0.001495640606238974</v>
+        <v>0.001345991838655554</v>
       </c>
       <c r="E48">
-        <v>0.007777331152442663</v>
+        <v>0.006999157561008879</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
       </c>
       <c r="G48">
-        <v>1.067383889660408</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3895,16 +3872,16 @@
         <v>92</v>
       </c>
       <c r="D49">
-        <v>0.002007261749665451</v>
+        <v>0.002009107844076962</v>
       </c>
       <c r="E49">
-        <v>0.01043776109826035</v>
+        <v>0.0104473607892002</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
       </c>
       <c r="G49">
-        <v>1.067383889660408</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3918,16 +3895,16 @@
         <v>92</v>
       </c>
       <c r="D50">
-        <v>0.0009866674195465205</v>
+        <v>9.186679206409012E-05</v>
       </c>
       <c r="E50">
-        <v>0.002368001806911649</v>
+        <v>0.0002204803009538163</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
       </c>
       <c r="G50">
-        <v>1.067383889660408</v>
+        <v>1.067463545080163</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3941,21 +3918,21 @@
         <v>92</v>
       </c>
       <c r="D51">
-        <v>0.0003869400563570595</v>
+        <v>0.001116208613722532</v>
       </c>
       <c r="E51">
-        <v>0.0009286561352569427</v>
+        <v>0.002678900672934077</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
       </c>
       <c r="G51">
-        <v>1.069936727484375</v>
+        <v>1.069885867143429</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -3964,16 +3941,16 @@
         <v>93</v>
       </c>
       <c r="D52">
-        <v>0.0341321375884831</v>
+        <v>0.03366353242931194</v>
       </c>
       <c r="E52">
-        <v>0.7065352480816002</v>
+        <v>0.6968351212867571</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
       </c>
       <c r="G52">
-        <v>1.101516027248891</v>
+        <v>1.101127077509475</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3987,16 +3964,16 @@
         <v>93</v>
       </c>
       <c r="D53">
-        <v>0.03489824477563175</v>
+        <v>0.03494711061681403</v>
       </c>
       <c r="E53">
-        <v>0.7223936668555772</v>
+        <v>0.7234051897680503</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
       </c>
       <c r="G53">
-        <v>1.10228213443604</v>
+        <v>1.102410655696977</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4010,16 +3987,16 @@
         <v>93</v>
       </c>
       <c r="D54">
-        <v>0.03519266725094875</v>
+        <v>0.03551687497685768</v>
       </c>
       <c r="E54">
-        <v>0.3589652059596772</v>
+        <v>0.3622721247639483</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
       </c>
       <c r="G54">
-        <v>1.102576556911357</v>
+        <v>1.10298042005702</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4033,21 +4010,21 @@
         <v>93</v>
       </c>
       <c r="D55">
-        <v>0.0340860321264625</v>
+        <v>0.03352845697366207</v>
       </c>
       <c r="E55">
-        <v>0.3476775276899175</v>
+        <v>0.3419902611313531</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
       </c>
       <c r="G55">
-        <v>1.104022759610837</v>
+        <v>1.103414324117091</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
@@ -4056,21 +4033,21 @@
         <v>92</v>
       </c>
       <c r="D56">
-        <v>0.002731512859715496</v>
+        <v>0.002890209094368068</v>
       </c>
       <c r="E56">
-        <v>0.01420386687052058</v>
+        <v>0.01502908729071396</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
       <c r="G56">
-        <v>2.050515802663599</v>
+        <v>2.050463717081817</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
@@ -4079,21 +4056,21 @@
         <v>92</v>
       </c>
       <c r="D57">
-        <v>0.002248325170219423</v>
+        <v>0.0009799454318563032</v>
       </c>
       <c r="E57">
-        <v>0.005395980408526616</v>
+        <v>0.002351869036455127</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
       </c>
       <c r="G57">
-        <v>2.050515802663599</v>
+        <v>2.050463717081817</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
         <v>139</v>
@@ -4102,16 +4079,16 @@
         <v>92</v>
       </c>
       <c r="D58">
-        <v>0.0004133880118271498</v>
+        <v>0.002696097072666928</v>
       </c>
       <c r="E58">
-        <v>0.0009921312283851594</v>
+        <v>0.006470632974400627</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="G58">
-        <v>2.052601113920915</v>
+        <v>2.053407204345525</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4125,21 +4102,21 @@
         <v>93</v>
       </c>
       <c r="D59">
-        <v>0.03507301869872498</v>
+        <v>0.03418575947651288</v>
       </c>
       <c r="E59">
-        <v>0.7260114870636071</v>
+        <v>0.3486947466604314</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
       <c r="G59">
-        <v>2.085588821362323</v>
+        <v>2.08464947655833</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>141</v>
@@ -4148,21 +4125,21 @@
         <v>93</v>
       </c>
       <c r="D60">
-        <v>0.03523363440983347</v>
+        <v>0.03487549655262862</v>
       </c>
       <c r="E60">
-        <v>0.3593830709803014</v>
+        <v>0.7219227786394123</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
       </c>
       <c r="G60">
-        <v>2.085749437073432</v>
+        <v>2.085339213634446</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
         <v>142</v>
@@ -4171,16 +4148,16 @@
         <v>93</v>
       </c>
       <c r="D61">
-        <v>0.03355194651169268</v>
+        <v>0.03446257997697232</v>
       </c>
       <c r="E61">
-        <v>0.3422298544192653</v>
+        <v>0.3515183157651176</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
       </c>
       <c r="G61">
-        <v>2.086153060432608</v>
+        <v>2.087869784322497</v>
       </c>
     </row>
   </sheetData>
@@ -4227,22 +4204,22 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>19.53250878361402</v>
+        <v>19.52314930928191</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.53250878361402</v>
+        <v>19.52314930928191</v>
       </c>
       <c r="F2">
-        <v>0.3867823521507727</v>
+        <v>0.3865970160253843</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.3867823521507727</v>
+        <v>0.3865970160253843</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4253,22 +4230,22 @@
         <v>151</v>
       </c>
       <c r="C3">
-        <v>1.067723145341624</v>
+        <v>0.9597285542925802</v>
       </c>
       <c r="D3">
-        <v>0.2754771218721043</v>
+        <v>0.3009786679157654</v>
       </c>
       <c r="E3">
-        <v>1.343200267213728</v>
+        <v>1.260707222208346</v>
       </c>
       <c r="F3">
-        <v>0.1985442794890047</v>
+        <v>0.1852850029064301</v>
       </c>
       <c r="G3">
-        <v>0.05627088433871642</v>
+        <v>0.05078804546468078</v>
       </c>
       <c r="H3">
-        <v>0.2548151638277211</v>
+        <v>0.2360730483711109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4279,22 +4256,22 @@
         <v>152</v>
       </c>
       <c r="C4">
-        <v>7.388499120331498</v>
+        <v>7.487660815581539</v>
       </c>
       <c r="D4">
-        <v>4.019927821627057</v>
+        <v>3.738033152245462</v>
       </c>
       <c r="E4">
-        <v>11.40842694195856</v>
+        <v>11.225693967827</v>
       </c>
       <c r="F4">
-        <v>0.4873222360268388</v>
+        <v>0.4904236478339083</v>
       </c>
       <c r="G4">
-        <v>0.2356055761766951</v>
+        <v>0.2240635600479648</v>
       </c>
       <c r="H4">
-        <v>0.722927812203534</v>
+        <v>0.7144872078818731</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4305,22 +4282,22 @@
         <v>153</v>
       </c>
       <c r="C5">
-        <v>27.98873104928714</v>
+        <v>27.97053867915603</v>
       </c>
       <c r="D5">
-        <v>4.295404943499161</v>
+        <v>4.039011820161227</v>
       </c>
       <c r="E5">
-        <v>32.2841359927863</v>
+        <v>32.00955049931726</v>
       </c>
       <c r="F5">
-        <v>1.072648867666616</v>
+        <v>1.062305666765723</v>
       </c>
       <c r="G5">
-        <v>0.2918764605154116</v>
+        <v>0.2748516055126456</v>
       </c>
       <c r="H5">
-        <v>1.364525328182028</v>
+        <v>1.337157272278368</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4331,22 +4308,22 @@
         <v>154</v>
       </c>
       <c r="C6">
-        <v>27.98873104928714</v>
+        <v>27.97053867915603</v>
       </c>
       <c r="D6">
-        <v>4.295404943499161</v>
+        <v>4.039011820161227</v>
       </c>
       <c r="E6">
-        <v>16.14206799639315</v>
+        <v>16.00477524965863</v>
       </c>
       <c r="F6">
-        <v>1.072648867666616</v>
+        <v>1.062305666765723</v>
       </c>
       <c r="G6">
-        <v>0.2918764605154116</v>
+        <v>0.2748516055126456</v>
       </c>
       <c r="H6">
-        <v>0.6822626640910139</v>
+        <v>0.6685786361391842</v>
       </c>
     </row>
   </sheetData>

--- a/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="249">
   <si>
     <t>vehicle_id</t>
   </si>
@@ -40,82 +40,136 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>crane(type='Hybrid', id=1, track_id=2)</t>
+  </si>
+  <si>
     <t>crane(type='Hybrid', id=1, track_id=1)</t>
   </si>
   <si>
     <t>(1, 'Hybrid')</t>
   </si>
   <si>
-    <t>crane(type='Hybrid', id=1, track_id=2)</t>
+    <t>unload_IC_1-Train-9</t>
   </si>
   <si>
     <t>unload_IC_1-Train-19</t>
   </si>
   <si>
+    <t>unload_IC_2-Train-9</t>
+  </si>
+  <si>
     <t>unload_IC_2-Train-19</t>
   </si>
   <si>
+    <t>unload_IC_3-Train-9</t>
+  </si>
+  <si>
     <t>unload_IC_3-Train-19</t>
   </si>
   <si>
+    <t>unload_IC_4-Train-9</t>
+  </si>
+  <si>
     <t>unload_IC_4-Train-19</t>
   </si>
   <si>
+    <t>unload_IC_5-Train-9</t>
+  </si>
+  <si>
     <t>unload_IC_5-Train-19</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=2, train_id=9)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=1, train_id=9)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=2, train_id=19)</t>
   </si>
   <si>
+    <t>unload_IC_1-Train-2</t>
+  </si>
+  <si>
     <t>unload_IC_1-Train-12</t>
   </si>
   <si>
     <t>unload_IC_2-Train-12</t>
   </si>
   <si>
+    <t>unload_IC_2-Train-2</t>
+  </si>
+  <si>
     <t>unload_IC_3-Train-12</t>
   </si>
   <si>
+    <t>unload_IC_3-Train-2</t>
+  </si>
+  <si>
     <t>unload_IC_4-Train-12</t>
   </si>
   <si>
+    <t>unload_IC_4-Train-2</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=1, train_id=2)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=1, train_id=12)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=2)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=4, train_id=12)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=2, train_id=12)</t>
+    <t>load_container(type='Outbound', id=4, train_id=2)</t>
   </si>
   <si>
     <t>load_container(type='Outbound', id=3, train_id=12)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=1, train_id=12)</t>
+    <t>load_container(type='Outbound', id=3, train_id=2)</t>
   </si>
   <si>
     <t>unload_IC_1-Train-70</t>
   </si>
   <si>
+    <t>unload_IC_1-Train-7</t>
+  </si>
+  <si>
     <t>unload_IC_2-Train-70</t>
   </si>
   <si>
+    <t>unload_IC_2-Train-7</t>
+  </si>
+  <si>
+    <t>unload_IC_3-Train-7</t>
+  </si>
+  <si>
     <t>unload_IC_3-Train-70</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=3, train_id=70)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=4, train_id=70)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=2, train_id=70)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=1, train_id=70)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=5, train_id=70)</t>
+    <t>load_container(type='Outbound', id=1, train_id=7)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=3, train_id=7)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=4, train_id=7)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=5, train_id=7)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=7)</t>
   </si>
   <si>
     <t>full</t>
@@ -124,24 +178,24 @@
     <t>end</t>
   </si>
   <si>
+    <t>hostler(type='Diesel', id=1)</t>
+  </si>
+  <si>
     <t>hostler(type='Diesel', id=0)</t>
   </si>
   <si>
-    <t>hostler(type='Diesel', id=1)</t>
-  </si>
-  <si>
     <t>hostler(type='Diesel', id=2)</t>
   </si>
   <si>
     <t>hostler(type='Diesel', id=3)</t>
   </si>
   <si>
+    <t>hostler(type='Diesel', id=5)</t>
+  </si>
+  <si>
     <t>hostler(type='Diesel', id=4)</t>
   </si>
   <si>
-    <t>hostler(type='Diesel', id=5)</t>
-  </si>
-  <si>
     <t>hostler(type='electric', id=6)</t>
   </si>
   <si>
@@ -157,15 +211,39 @@
     <t>pickup_IC_1-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC_1-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_IC_2-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC_2-Train-19</t>
   </si>
   <si>
     <t>pickup_IC_3-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC_3-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC_4-Train-19</t>
   </si>
   <si>
+    <t>dropoff_IC_1-Train-9</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-9</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-9</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-9</t>
+  </si>
+  <si>
     <t>dropoff_IC_1-Train-19</t>
   </si>
   <si>
@@ -178,57 +256,96 @@
     <t>dropoff_IC_4-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC_5-Train-9</t>
+  </si>
+  <si>
+    <t>dropoff_IC_5-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=9)</t>
+  </si>
+  <si>
     <t>pickup_IC_5-Train-19</t>
   </si>
   <si>
     <t>dropoff_IC_5-Train-19</t>
   </si>
   <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=9)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
+  </si>
+  <si>
+    <t>back_parking</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=2)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=9)</t>
+  </si>
+  <si>
     <t>pickup_OC_container(type='Outbound', id=3, train_id=12)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=4, train_id=12)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=12)</t>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=2)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=9)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=2)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=3, train_id=12)</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>back_parking</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=12)</t>
+    <t>dropoff_container(type='Outbound', id=2, train_id=2)</t>
   </si>
   <si>
     <t>pickup_IC_1-Train-12</t>
   </si>
   <si>
+    <t>pickup_IC_1-Train-2</t>
+  </si>
+  <si>
     <t>pickup_IC_2-Train-12</t>
   </si>
   <si>
+    <t>pickup_IC_2-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-2</t>
+  </si>
+  <si>
     <t>pickup_IC_3-Train-12</t>
   </si>
   <si>
@@ -241,9 +358,30 @@
     <t>dropoff_IC_3-Train-12</t>
   </si>
   <si>
+    <t>dropoff_IC_1-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-2</t>
+  </si>
+  <si>
     <t>pickup_OC_container(type='Outbound', id=3, train_id=70)</t>
   </si>
   <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-2</t>
+  </si>
+  <si>
     <t>pickup_IC_4-Train-12</t>
   </si>
   <si>
@@ -253,37 +391,73 @@
     <t>pickup_OC_container(type='Outbound', id=2, train_id=70)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=70)</t>
+    <t>dropoff_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=2)</t>
   </si>
   <si>
     <t>pickup_OC_container(type='Outbound', id=4, train_id=70)</t>
   </si>
   <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
     <t>dropoff_container(type='Outbound', id=3, train_id=70)</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=4, train_id=70)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=70)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=70)</t>
+    <t>dropoff_container(type='Outbound', id=4, train_id=2)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=3, train_id=2)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=5, train_id=70)</t>
   </si>
   <si>
     <t>pickup_IC_1-Train-70</t>
   </si>
   <si>
+    <t>pickup_IC_1-Train-7</t>
+  </si>
+  <si>
     <t>pickup_IC_2-Train-70</t>
   </si>
   <si>
+    <t>pickup_IC_2-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_IC_1-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-7</t>
+  </si>
+  <si>
     <t>dropoff_IC_1-Train-70</t>
   </si>
   <si>
     <t>dropoff_IC_2-Train-70</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=5, train_id=70)</t>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=7)</t>
   </si>
   <si>
     <t>pickup_IC_3-Train-70</t>
@@ -292,7 +466,25 @@
     <t>dropoff_IC_3-Train-70</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=5, train_id=70)</t>
+    <t>dropoff_container(type='Outbound', id=3, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=5, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=7)</t>
   </si>
   <si>
     <t>empty</t>
@@ -301,72 +493,114 @@
     <t>loaded</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=0, train_id=7)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=9)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=19)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=12)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=70)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=2)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=1, train_id=9)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=1, train_id=19)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=1, train_id=12)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=0, train_id=19)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=70)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=12)</t>
+    <t>truck(type='Diesel', id=1, train_id=2)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=1, train_id=70)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=1, train_id=7)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=2, train_id=9)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=2, train_id=19)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=3, train_id=19)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=2, train_id=2)</t>
+  </si>
+  <si>
+    <t>truck(type='Electric', id=3, train_id=9)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=2, train_id=12)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=2, train_id=7)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=2, train_id=70)</t>
+  </si>
+  <si>
+    <t>truck(type='Electric', id=4, train_id=9)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=4, train_id=19)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=2, train_id=70)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=2, train_id=19)</t>
-  </si>
-  <si>
     <t>truck(type='Electric', id=3, train_id=12)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=3, train_id=2)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=3, train_id=70)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=3, train_id=7)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=4, train_id=70)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=4, train_id=7)</t>
+  </si>
+  <si>
+    <t>entry_OC_2</t>
+  </si>
+  <si>
+    <t>dropoff_OC_2</t>
+  </si>
+  <si>
+    <t>entry_OC_1</t>
+  </si>
+  <si>
+    <t>dropoff_OC_1</t>
+  </si>
+  <si>
+    <t>entry_OC_4</t>
+  </si>
+  <si>
+    <t>dropoff_OC_4</t>
+  </si>
+  <si>
     <t>entry_OC_3</t>
   </si>
   <si>
     <t>dropoff_OC_3</t>
   </si>
   <si>
-    <t>entry_OC_1</t>
-  </si>
-  <si>
-    <t>dropoff_OC_1</t>
-  </si>
-  <si>
-    <t>entry_OC_2</t>
-  </si>
-  <si>
-    <t>dropoff_OC_2</t>
-  </si>
-  <si>
-    <t>entry_OC_4</t>
-  </si>
-  <si>
-    <t>dropoff_OC_4</t>
-  </si>
-  <si>
     <t>pass_gate</t>
   </si>
   <si>
@@ -376,28 +610,43 @@
     <t>dropoff_OC_5</t>
   </si>
   <si>
+    <t>pickup_IC-1-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC-1-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC-2-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC-2-Train-19</t>
   </si>
   <si>
     <t>pickup_IC-3-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC-3-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_IC-4-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC-4-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC-5-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC-5-Train-19</t>
   </si>
   <si>
-    <t>leave_gate_IC_2-Train-19</t>
+    <t>leave_gate_IC_2-Train-9</t>
   </si>
   <si>
     <t>leave_gate_IC_3-Train-19</t>
   </si>
   <si>
-    <t>leave_gate_IC_1-Train-19</t>
+    <t>leave_gate_IC_1-Train-9</t>
   </si>
   <si>
     <t>leave_gate_IC_4-Train-19</t>
@@ -406,25 +655,46 @@
     <t>leave_gate_IC_5-Train-19</t>
   </si>
   <si>
+    <t>leave_gate_IC_5-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_IC-1-Train-2</t>
+  </si>
+  <si>
     <t>pickup_IC-1-Train-12</t>
   </si>
   <si>
     <t>pickup_IC-2-Train-12</t>
   </si>
   <si>
+    <t>pickup_IC-2-Train-2</t>
+  </si>
+  <si>
     <t>pickup_IC-3-Train-12</t>
   </si>
   <si>
+    <t>pickup_IC-3-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC-4-Train-2</t>
+  </si>
+  <si>
     <t>pickup_IC-4-Train-12</t>
   </si>
   <si>
+    <t>leave_gate_IC_3-Train-2</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_2-Train-12</t>
+  </si>
+  <si>
     <t>leave_gate_IC_1-Train-12</t>
   </si>
   <si>
-    <t>leave_gate_IC_2-Train-12</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_3-Train-12</t>
+    <t>leave_gate_IC_2-Train-2</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_4-Train-2</t>
   </si>
   <si>
     <t>leave_gate_IC_4-Train-12</t>
@@ -433,19 +703,31 @@
     <t>pickup_IC-1-Train-70</t>
   </si>
   <si>
+    <t>pickup_IC-1-Train-7</t>
+  </si>
+  <si>
     <t>pickup_IC-2-Train-70</t>
   </si>
   <si>
+    <t>pickup_IC-2-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-7</t>
+  </si>
+  <si>
     <t>pickup_IC-3-Train-70</t>
   </si>
   <si>
+    <t>leave_gate_IC_1-Train-7</t>
+  </si>
+  <si>
     <t>leave_gate_IC_2-Train-70</t>
   </si>
   <si>
-    <t>leave_gate_IC_1-Train-70</t>
-  </si>
-  <si>
     <t>leave_gate_IC_3-Train-70</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_3-Train-7</t>
   </si>
   <si>
     <t>Vehicle</t>
@@ -839,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,42 +1158,42 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>0.0168729634030843</v>
+        <v>0.01686034961128433</v>
       </c>
       <c r="E2">
-        <v>0.8520846518557573</v>
+        <v>0.8514476553698584</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>0.0168729634030843</v>
+        <v>0.01686034961128433</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>0.01667678591923155</v>
+        <v>0.01691688245188639</v>
       </c>
       <c r="E3">
-        <v>0.8421776889211935</v>
+        <v>0.8543025638202626</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>0.03354974932231586</v>
+        <v>0.01691688245188639</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -922,42 +1204,42 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>0.01691544867648138</v>
+        <v>0.01668445365326725</v>
       </c>
       <c r="E4">
-        <v>0.85423015816231</v>
+        <v>0.842564909489996</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>0.05046519799879724</v>
+        <v>0.03354480326455157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>0.01667606994663591</v>
+        <v>0.01683303321325331</v>
       </c>
       <c r="E5">
-        <v>0.8421415323051135</v>
+        <v>0.8500681772692921</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>0.06714126794543315</v>
+        <v>0.0337499156651397</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -968,19 +1250,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>0.0166716930404261</v>
+        <v>0.01668164093059474</v>
       </c>
       <c r="E6">
-        <v>0.8419204985415181</v>
+        <v>0.8424228669950347</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>0.08381296098585925</v>
+        <v>0.05022644419514632</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -991,111 +1273,111 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0.01686810334235243</v>
+        <v>0.01688499521243585</v>
       </c>
       <c r="E7">
-        <v>0.8518392187887978</v>
+        <v>0.8526922582280104</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>0.1136435246880062</v>
+        <v>0.05063491087757555</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>0.01668263919771392</v>
+        <v>0.01669552420116055</v>
       </c>
       <c r="E8">
-        <v>0.8424732794845529</v>
+        <v>0.8431239721586079</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>0.1303261638857201</v>
+        <v>0.06692196839630687</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>0.01694157565057359</v>
+        <v>0.01682450927976124</v>
       </c>
       <c r="E9">
-        <v>0.8555495703539662</v>
+        <v>0.8496377186279428</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>1.016941575650574</v>
+        <v>0.06745942015733679</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>0.01693252008776093</v>
+        <v>0.01687111616233226</v>
       </c>
       <c r="E10">
-        <v>0.8550922644319268</v>
+        <v>0.851991366197779</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>1.033874095738335</v>
+        <v>0.08379308455863912</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>0.01674793725122401</v>
+        <v>0.01689146242768389</v>
       </c>
       <c r="E11">
-        <v>0.8457708311868124</v>
+        <v>0.8530188525980367</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>1.050622032989559</v>
+        <v>0.08435088258502069</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1106,88 +1388,88 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>0.01684151209060395</v>
+        <v>0.01684971388696196</v>
       </c>
       <c r="E12">
-        <v>0.8504963605754994</v>
+        <v>0.8509105512915792</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>1.067463545080163</v>
+        <v>0.1118756763970371</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>0.01686979605105573</v>
+        <v>0.01689349890659925</v>
       </c>
       <c r="E13">
-        <v>0.8519247005783145</v>
+        <v>0.8531216947832619</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>1.095103633084816</v>
+        <v>0.1138513678750623</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>0.01689568294064945</v>
+        <v>0.01676723855475017</v>
       </c>
       <c r="E14">
-        <v>0.8532319885027974</v>
+        <v>0.8467455470148837</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G14">
-        <v>1.111999316025466</v>
+        <v>0.1286429149517872</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>0.01677273951943277</v>
+        <v>0.01690508662366358</v>
       </c>
       <c r="E15">
-        <v>0.8470233457313551</v>
+        <v>0.8537068744950106</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>1.128772055544898</v>
+        <v>0.1307564544987258</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1198,19 +1480,19 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>0.0168020911324663</v>
+        <v>0.01684308495706089</v>
       </c>
       <c r="E16">
-        <v>0.8485056021895482</v>
+        <v>0.8505757903315749</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G16">
-        <v>1.145574146677365</v>
+        <v>1.016843084957061</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1221,19 +1503,19 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>0.01681243561674326</v>
+        <v>0.0168735139080842</v>
       </c>
       <c r="E17">
-        <v>0.8490279986455345</v>
+        <v>0.8521124523582519</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>2.016812435616743</v>
+        <v>1.016873513908084</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1244,65 +1526,65 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>0.01680933965345817</v>
+        <v>0.01679292087477313</v>
       </c>
       <c r="E18">
-        <v>0.8488716524996377</v>
+        <v>0.8480425041760431</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G18">
-        <v>2.033621775270201</v>
+        <v>1.033666434782857</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>0.01684194181161554</v>
+        <v>0.01686320364702707</v>
       </c>
       <c r="E19">
-        <v>0.850518061486585</v>
+        <v>0.8515917841748671</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>2.050463717081817</v>
+        <v>1.033706288604088</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>0.01685066974433566</v>
+        <v>0.01674447388387397</v>
       </c>
       <c r="E20">
-        <v>0.8509588220889507</v>
+        <v>0.8455959311356352</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G20">
-        <v>2.079589399930027</v>
+        <v>1.050410908666731</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1313,42 +1595,42 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>0.01680281211631492</v>
+        <v>0.01679298546040769</v>
       </c>
       <c r="E21">
-        <v>0.8485420118739037</v>
+        <v>0.8480457657505884</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>2.096392212046342</v>
+        <v>1.050499274064496</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>0.01669707925122127</v>
+        <v>0.01680065768373654</v>
       </c>
       <c r="E22">
-        <v>0.8432025021866739</v>
+        <v>0.8484332130286951</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>2.113089291297563</v>
+        <v>1.067211566350468</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1359,42 +1641,456 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>0.0168266160693569</v>
+        <v>0.01690800622711149</v>
       </c>
       <c r="E23">
-        <v>0.8497441115025235</v>
+        <v>0.8538543144691302</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>2.12991590736692</v>
+        <v>1.067407280291607</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>0.01679640929972953</v>
+      </c>
+      <c r="E24">
+        <v>0.8482186696363415</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>1.091420268807463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="D24">
-        <v>0.01678856351264633</v>
-      </c>
-      <c r="E24">
-        <v>0.8478224573886396</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>0.01666855396467834</v>
+      </c>
+      <c r="E25">
+        <v>0.8417619752162563</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>1.101977188713221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="G24">
-        <v>2.146704470879566</v>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>0.01678977016375794</v>
+      </c>
+      <c r="E26">
+        <v>0.847883393269776</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>1.108210038971222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>0.01678242320613501</v>
+      </c>
+      <c r="E27">
+        <v>0.8475123719098178</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>1.118759611919356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>0.01676472432655032</v>
+      </c>
+      <c r="E28">
+        <v>0.8466185784907914</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>1.124974763297772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0.01688241663126947</v>
+      </c>
+      <c r="E29">
+        <v>0.8525620398791085</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29">
+        <v>1.135642028550626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>0.01685154899795712</v>
+      </c>
+      <c r="E30">
+        <v>0.8510032243968347</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <v>1.141826312295729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>0.01681976954734717</v>
+      </c>
+      <c r="E31">
+        <v>0.8493983621410323</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31">
+        <v>1.152461798097973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>0.01686919371118118</v>
+      </c>
+      <c r="E32">
+        <v>0.8518942824146495</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>2.016869193711181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>0.01691739461740466</v>
+      </c>
+      <c r="E33">
+        <v>0.8543284281789352</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33">
+        <v>2.016917394617405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>0.01685410327588089</v>
+      </c>
+      <c r="E34">
+        <v>0.8511322154319849</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34">
+        <v>2.033723296987062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>0.01683945271776514</v>
+      </c>
+      <c r="E35">
+        <v>0.8503923622471395</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35">
+        <v>2.03375684733517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>0.01676633757010415</v>
+      </c>
+      <c r="E36">
+        <v>0.8467000472902598</v>
+      </c>
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36">
+        <v>2.050523184905274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>0.01680340713041629</v>
+      </c>
+      <c r="E37">
+        <v>0.8485720600860227</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37">
+        <v>2.050526704117479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>0.01693393062527553</v>
+      </c>
+      <c r="E38">
+        <v>0.855163496576414</v>
+      </c>
+      <c r="F38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38">
+        <v>2.078240235583347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>0.01669010140115993</v>
+      </c>
+      <c r="E39">
+        <v>0.8428501207585763</v>
+      </c>
+      <c r="F39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39">
+        <v>2.094930336984507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>0.01691550056946082</v>
+      </c>
+      <c r="E40">
+        <v>0.8542327787577715</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40">
+        <v>2.111845837553968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>0.01680942743037855</v>
+      </c>
+      <c r="E41">
+        <v>0.848876085234117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41">
+        <v>2.128655264984347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>0.01668132393348679</v>
+      </c>
+      <c r="E42">
+        <v>0.8424068586410829</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <v>2.145336588917834</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +2100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1435,220 +2131,220 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>0.00716232947448782</v>
+        <v>0.003092484435410585</v>
       </c>
       <c r="E2">
-        <v>0.04440644274182449</v>
+        <v>0.01917340349954563</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>0.02099056313116112</v>
+        <v>0.01916003372064625</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>0.01062578501286387</v>
+        <v>0.006139240213967901</v>
       </c>
       <c r="E3">
-        <v>0.06587986707975599</v>
+        <v>0.03806328932660099</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>0.03854622842560491</v>
+        <v>0.02029382100892664</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>0.002458898703619652</v>
+        <v>0.00778373363748037</v>
       </c>
       <c r="E4">
-        <v>0.01524517196244185</v>
+        <v>0.0482591485523783</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>0.05255848245221698</v>
+        <v>0.03621239025759555</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D5">
-        <v>0.006792609827015727</v>
+        <v>0.008206277208706175</v>
       </c>
       <c r="E5">
-        <v>0.04211418092749751</v>
+        <v>0.05087891869397829</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>0.0687080202576448</v>
+        <v>0.03829569618257192</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01008138739142686</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06250460182684656</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>0.08381296098585925</v>
+        <v>0.05500942330667509</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.004191713544739043</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02598862397738207</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>0.08381296098585925</v>
+        <v>0.05503065732697267</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.007849321148565201</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04866579112110425</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>0.08381296098585925</v>
+        <v>0.07140081215993557</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.003343861180545859</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02073193931938433</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>0.08381296098585925</v>
+        <v>0.07236761397418397</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D10">
-        <v>0.003655877731385122</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02266644193458776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>0.08545547513181107</v>
+        <v>0.08379308455863912</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1657,1091 +2353,2425 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>0.08545547513181107</v>
+        <v>0.08379308455863912</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D12">
-        <v>0.004224027783644523</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02618897225859605</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>0.08803698876950378</v>
+        <v>0.08379308455863912</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D13">
-        <v>0.004288408234891267</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02658813105632585</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>0.08810136922075051</v>
+        <v>0.08379308455863912</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D14">
-        <v>0.001976765915718452</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0122559486774544</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G14">
-        <v>0.08813040055851082</v>
+        <v>0.08435088258502069</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D15">
-        <v>0.002915551543119164</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01807641956733882</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>0.08837102667493023</v>
+        <v>0.08435088258502069</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D16">
-        <v>0.005304475570132047</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03288774853481869</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G16">
-        <v>0.08911743655599129</v>
+        <v>0.08435088258502069</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D17">
-        <v>0.005647498940702288</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03501449343235419</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>0.08946045992656154</v>
+        <v>0.08435088258502069</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D18">
-        <v>0.005899987889693599</v>
+        <v>0.009440863786062088</v>
       </c>
       <c r="E18">
-        <v>0.0926298098681895</v>
+        <v>0.05853335547358494</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G18">
-        <v>0.09403038844820441</v>
+        <v>0.08513476872343095</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D19">
-        <v>0.004904148125605381</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03040571837875336</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>0.09530041328333574</v>
+        <v>0.08513476872343095</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D20">
-        <v>0.005903466535946725</v>
+        <v>0.001629073614621674</v>
       </c>
       <c r="E20">
-        <v>0.0366014925228697</v>
+        <v>0.01010025641065438</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G20">
-        <v>0.09563407367401319</v>
+        <v>0.08597995619964235</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D21">
-        <v>0.006202527811425771</v>
+        <v>0.005159839818106571</v>
       </c>
       <c r="E21">
-        <v>0.03845567243083978</v>
+        <v>0.03199100687226075</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>0.09619248856175464</v>
+        <v>0.08657649561044764</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D22">
-        <v>0.006813805203744683</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04224559226321704</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>0.09677542134565374</v>
+        <v>0.08657649561044764</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D23">
-        <v>0.00213849415746827</v>
+        <v>0.003165927412600755</v>
       </c>
       <c r="E23">
-        <v>0.01325866377630328</v>
+        <v>0.007598225790241811</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>0.09891391550312201</v>
+        <v>0.08695901197123988</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D24">
-        <v>0.008718754416763801</v>
+        <v>0.003403388264371622</v>
       </c>
       <c r="E24">
-        <v>0.05405627738393557</v>
+        <v>0.02110100723910406</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G24">
-        <v>0.09950655779307874</v>
+        <v>0.08719647282301074</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D25">
-        <v>0.006005003570159971</v>
+        <v>0.00485202891661596</v>
       </c>
       <c r="E25">
-        <v>0.03723102213499183</v>
+        <v>0.03008257928301895</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G25">
-        <v>0.1013054168534957</v>
+        <v>0.08864511347525508</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>0.006543660876002538</v>
+        <v>0.005003369665146409</v>
       </c>
       <c r="E26">
-        <v>0.04057069743121574</v>
+        <v>0.03102089192390774</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G26">
-        <v>0.1021777345500157</v>
+        <v>0.08879645422378553</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>0.006718570181592671</v>
+        <v>0.00146480954410069</v>
       </c>
       <c r="E27">
-        <v>0.04165513512587456</v>
+        <v>0.00908181917342428</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G27">
-        <v>0.1029110587433473</v>
+        <v>0.08961476586201952</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D28">
-        <v>0.005313003315147617</v>
+        <v>0.00167215873947037</v>
       </c>
       <c r="E28">
-        <v>0.03294062055391523</v>
+        <v>0.01036738418471629</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G28">
-        <v>0.1048195611082264</v>
+        <v>0.09128692460148989</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D29">
-        <v>0.002901889331720192</v>
+        <v>0.001000493877752504</v>
       </c>
       <c r="E29">
-        <v>0.01799171385666519</v>
+        <v>0.006203062042065528</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G29">
-        <v>1.021169752776227</v>
+        <v>0.09141959425089002</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D30">
-        <v>0.001669765054291145</v>
+        <v>0.007293884005367115</v>
       </c>
       <c r="E30">
-        <v>0.0103525433366051</v>
+        <v>0.04522208083327611</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G30">
-        <v>1.035774157435377</v>
+        <v>0.0916447665903878</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D31">
-        <v>0.004145559793631954</v>
+        <v>0.007260511349417317</v>
       </c>
       <c r="E31">
-        <v>0.02570247072051811</v>
+        <v>0.01742522723860156</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>1.053581316750045</v>
+        <v>0.09239528007284827</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.004968500677006817</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.03080470419744227</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G32">
-        <v>1.067463545080163</v>
+        <v>0.09248037163566206</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.008425945421628977</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02022226901190954</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>1.067463545080163</v>
+        <v>0.09277682800664966</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.008582103466646809</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.05320904149321021</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>1.067463545080163</v>
+        <v>0.0929329860516675</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D35">
-        <v>0.00210114798821477</v>
+        <v>0.008411834480523158</v>
       </c>
       <c r="E35">
-        <v>0.005042755171715449</v>
+        <v>0.02018840275325558</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G35">
-        <v>1.069564693068377</v>
+        <v>0.0949883300909708</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D36">
-        <v>0.00364189402450845</v>
+        <v>0.006169099512903042</v>
       </c>
       <c r="E36">
-        <v>0.02257974295195239</v>
+        <v>0.0148058388309673</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G36">
-        <v>1.069885867143429</v>
+        <v>0.0950259625100751</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.005635631568739282</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.03494091572618355</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G37">
-        <v>1.069885867143429</v>
+        <v>0.09514974701486127</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D38">
-        <v>0.004155140810606508</v>
+        <v>0.004322240492346785</v>
       </c>
       <c r="E38">
-        <v>0.00997233794545562</v>
+        <v>0.02679789105255007</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G38">
-        <v>1.071618685890769</v>
+        <v>0.09680261212800884</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D39">
-        <v>0.006335499256032897</v>
+        <v>0.002687653724268145</v>
       </c>
       <c r="E39">
-        <v>0.01520519821447895</v>
+        <v>0.0166634530904625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G39">
-        <v>1.073799044336196</v>
+        <v>0.09695786896846301</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D40">
-        <v>0.005817974818131259</v>
+        <v>0.005830760080329759</v>
       </c>
       <c r="E40">
-        <v>0.01396313956351502</v>
+        <v>0.03615071249804451</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G40">
-        <v>1.07570384196156</v>
+        <v>0.09725035433121978</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D41">
-        <v>0.006959679253733936</v>
+        <v>0.00330705374989109</v>
       </c>
       <c r="E41">
-        <v>0.01670323020896144</v>
+        <v>0.007936928999738614</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G41">
-        <v>1.07823383703376</v>
+        <v>0.09833301625996618</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D42">
-        <v>0.001932047572945665</v>
+        <v>0.005780206739697688</v>
       </c>
       <c r="E42">
-        <v>0.004636914175069595</v>
+        <v>0.03583728178612567</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G42">
-        <v>1.078734607522427</v>
+        <v>0.09834965435982787</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D43">
-        <v>0.007648622206662494</v>
+        <v>0.003483481727348316</v>
       </c>
       <c r="E43">
-        <v>0.01835669329598999</v>
+        <v>0.02159758670955956</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G43">
-        <v>1.080248402480866</v>
+        <v>0.09863322874220959</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D44">
-        <v>0.006731486523899787</v>
+        <v>0.005475788182787524</v>
       </c>
       <c r="E44">
-        <v>0.01615556765735949</v>
+        <v>0.01314189163869006</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G44">
-        <v>1.082489049705777</v>
+        <v>0.0991674650064895</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D45">
-        <v>0.006035450336233643</v>
+        <v>0.004984952847404893</v>
       </c>
       <c r="E45">
-        <v>0.01448508080696074</v>
+        <v>0.01196388683377174</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G45">
-        <v>1.084269287369994</v>
+        <v>0.1001930936365044</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D46">
-        <v>0.007765920233404409</v>
+        <v>0.004552542885722697</v>
       </c>
       <c r="E46">
-        <v>0.01863820856017058</v>
+        <v>0.01092610292573447</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G46">
-        <v>1.086500527755832</v>
+        <v>0.1009554922898454</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D47">
-        <v>0.007180281147450647</v>
+        <v>0.004298002020664683</v>
       </c>
       <c r="E47">
-        <v>0.01723267475388155</v>
+        <v>0.02664761252812103</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G47">
-        <v>1.087428683628316</v>
+        <v>0.1012558709891277</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D48">
-        <v>0.005493476864429058</v>
+        <v>0.003931445284339171</v>
       </c>
       <c r="E48">
-        <v>0.01318434447462974</v>
+        <v>0.02437496076290286</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G48">
-        <v>1.087982526570206</v>
+        <v>0.102281099644167</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D49">
-        <v>0.004498259701016203</v>
+        <v>0.00322379921985308</v>
       </c>
       <c r="E49">
-        <v>0.02788921014630046</v>
+        <v>0.007737118127647392</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G49">
-        <v>2.020857027617276</v>
+        <v>0.1034168928563575</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D50">
-        <v>0.006137684447465595</v>
+        <v>0.007464372518708164</v>
       </c>
       <c r="E50">
-        <v>0.03805364357428669</v>
+        <v>0.01791449404489959</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G50">
-        <v>2.035434766684655</v>
+        <v>0.1066318375251977</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.006108379795330359</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.01466011150879286</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G51">
-        <v>2.050463717081817</v>
+        <v>0.1070638720851757</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.007213552607491128</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.044724026166445</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G52">
-        <v>2.050463717081817</v>
+        <v>1.01883923999772</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D53">
-        <v>0.002121566713794011</v>
+        <v>0.005905671173710166</v>
       </c>
       <c r="E53">
-        <v>0.01315371362552287</v>
+        <v>0.03661516127700303</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G53">
-        <v>2.052585283795611</v>
+        <v>1.020247263089148</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D54">
-        <v>0.004647923040381567</v>
+        <v>0.001670917219621728</v>
       </c>
       <c r="E54">
-        <v>0.02881712285036572</v>
+        <v>0.01035968676165472</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G54">
-        <v>2.053407204345525</v>
+        <v>1.035098579266079</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.007751390660766308</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.04805862209675112</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G55">
-        <v>2.053407204345525</v>
+        <v>1.03597011840194</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D56">
-        <v>0.007022640339780262</v>
+        <v>0.005859837158168505</v>
       </c>
       <c r="E56">
-        <v>0.04354037010663762</v>
+        <v>0.03633099038064473</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G56">
-        <v>2.060429844685305</v>
+        <v>1.053037167253801</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D57">
-        <v>0.007955007704042645</v>
+        <v>0.009446613514834936</v>
       </c>
       <c r="E57">
-        <v>0.0493210477650644</v>
+        <v>0.0585690037919766</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G57">
-        <v>2.062738730185691</v>
+        <v>1.05318788268185</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D58">
-        <v>0.002960480387602852</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.01835497840313768</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G58">
-        <v>2.065699210573294</v>
+        <v>1.067211566350468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59">
+        <v>1.067211566350468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60">
+        <v>1.067211566350468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61">
+        <v>1.067407280291607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62">
+        <v>1.067407280291607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63">
+        <v>1.067407280291607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64">
+        <v>0.0009825575813268617</v>
+      </c>
+      <c r="E64">
+        <v>0.006091857004226543</v>
+      </c>
+      <c r="F64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <v>1.068389837872934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65">
+        <v>0.001834113688469322</v>
+      </c>
+      <c r="E65">
+        <v>0.01137150486850979</v>
+      </c>
+      <c r="F65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65">
+        <v>1.069045680038937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66">
+        <v>0.002074234310571407</v>
+      </c>
+      <c r="E66">
+        <v>0.01286025272554272</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66">
+        <v>1.069481514602178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67">
+        <v>0.003408840723258191</v>
+      </c>
+      <c r="E67">
+        <v>0.02113481248420078</v>
+      </c>
+      <c r="F67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67">
+        <v>1.069652940021374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68">
+        <v>1.069652940021374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69">
+        <v>0.003875886443703572</v>
+      </c>
+      <c r="E69">
+        <v>0.02403049595096214</v>
+      </c>
+      <c r="F69" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69">
+        <v>1.069705640035455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70">
+        <v>1.069705640035455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71">
+        <v>0.003076899300787148</v>
+      </c>
+      <c r="E71">
+        <v>0.01907677566488032</v>
+      </c>
+      <c r="F71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71">
+        <v>1.070288465651255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72">
+        <v>0.002150236180414641</v>
+      </c>
+      <c r="E72">
+        <v>0.01333146431857077</v>
+      </c>
+      <c r="F72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72">
+        <v>1.072870475105233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73">
+        <v>0.005744312069420986</v>
+      </c>
+      <c r="E73">
+        <v>0.03561473483041011</v>
+      </c>
+      <c r="F73" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73">
+        <v>1.072955878419889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74">
+        <v>0.006408161669894937</v>
+      </c>
+      <c r="E74">
+        <v>0.01537958800774785</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74">
+        <v>1.073815441961502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>0.001753930702042798</v>
+      </c>
+      <c r="E75">
+        <v>0.01087437035266535</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75">
+        <v>1.074623859507734</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76">
+        <v>0.005254913326011492</v>
+      </c>
+      <c r="E76">
+        <v>0.01261179198242758</v>
+      </c>
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76">
+        <v>1.074907853347385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77">
+        <v>0.007483587250712942</v>
+      </c>
+      <c r="E77">
+        <v>0.04639824095442024</v>
+      </c>
+      <c r="F77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77">
+        <v>1.077189227286168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78">
+        <v>0.002290725592780045</v>
+      </c>
+      <c r="E78">
+        <v>0.005497741422672108</v>
+      </c>
+      <c r="F78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78">
+        <v>1.077411605582837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79">
+        <v>0.008289250967628231</v>
+      </c>
+      <c r="E79">
+        <v>0.05139335599929503</v>
+      </c>
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79">
+        <v>1.077549798193846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80">
+        <v>0.008073941734969108</v>
+      </c>
+      <c r="E80">
+        <v>0.05005843875680847</v>
+      </c>
+      <c r="F80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80">
+        <v>1.078421813292713</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81">
+        <v>0.005946914476148392</v>
+      </c>
+      <c r="E81">
+        <v>0.03687086975212003</v>
+      </c>
+      <c r="F81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81">
+        <v>1.078817389581381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82">
+        <v>0.001756920215976765</v>
+      </c>
+      <c r="E82">
+        <v>0.01089290533905594</v>
+      </c>
+      <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82">
+        <v>1.080214488360125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83">
+        <v>0.003514953344646406</v>
+      </c>
+      <c r="E83">
+        <v>0.008435888027151372</v>
+      </c>
+      <c r="F83" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83">
+        <v>1.080926558927483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84">
+        <v>0.007507493054027928</v>
+      </c>
+      <c r="E84">
+        <v>0.04654645693497315</v>
+      </c>
+      <c r="F84" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84">
+        <v>1.08215972725282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85">
+        <v>0.008669681531953435</v>
+      </c>
+      <c r="E85">
+        <v>0.0537520254981113</v>
+      </c>
+      <c r="F85" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85">
+        <v>1.083293541039687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86">
+        <v>0.006665244218169433</v>
+      </c>
+      <c r="E86">
+        <v>0.04132451415265048</v>
+      </c>
+      <c r="F86" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86">
+        <v>1.085087057510882</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87">
+        <v>0.0050631039275509</v>
+      </c>
+      <c r="E87">
+        <v>0.03139124435081558</v>
+      </c>
+      <c r="F87" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87">
+        <v>1.085277592287676</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88">
+        <v>0.008327399885852654</v>
+      </c>
+      <c r="E88">
+        <v>0.01998575972604637</v>
+      </c>
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88">
+        <v>1.085308634748543</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89">
+        <v>0.008187911527528369</v>
+      </c>
+      <c r="E89">
+        <v>0.05076505147067589</v>
+      </c>
+      <c r="F89" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89">
+        <v>1.085737709721375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90">
+        <v>0.002748447672965753</v>
+      </c>
+      <c r="E90">
+        <v>0.006596274415117807</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90">
+        <v>1.088057082421509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91">
+        <v>0.008612072204917574</v>
+      </c>
+      <c r="E91">
+        <v>0.05339484767048897</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91">
+        <v>1.090771799457737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92">
+        <v>0.006285952526298868</v>
+      </c>
+      <c r="E92">
+        <v>0.03897290566305298</v>
+      </c>
+      <c r="F92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92">
+        <v>2.018868376988432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93">
+        <v>0.01029910675957669</v>
+      </c>
+      <c r="E93">
+        <v>0.06385446190937551</v>
+      </c>
+      <c r="F93" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93">
+        <v>2.020192389867852</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94">
+        <v>0.009768717423766334</v>
+      </c>
+      <c r="E94">
+        <v>0.06056604802735127</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94">
+        <v>2.036282153595756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95">
+        <v>0.00338097111952252</v>
+      </c>
+      <c r="E95">
+        <v>0.02096202094103963</v>
+      </c>
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95">
+        <v>2.036713024704361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96">
+        <v>2.050523184905274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97">
+        <v>2.050523184905274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98">
+        <v>2.050526704117479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99">
+        <v>2.050526704117479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100">
+        <v>0.001036323311759204</v>
+      </c>
+      <c r="E100">
+        <v>0.002487175948222089</v>
+      </c>
+      <c r="F100" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100">
+        <v>2.051563027429238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101">
+        <v>0.001246175258870931</v>
+      </c>
+      <c r="E101">
+        <v>0.007726286604999775</v>
+      </c>
+      <c r="F101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101">
+        <v>2.05177287937635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102">
+        <v>0.001444553463570886</v>
+      </c>
+      <c r="E102">
+        <v>0.003466928312570125</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102">
+        <v>2.051967738368845</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103">
+        <v>0.007034675741255195</v>
+      </c>
+      <c r="E103">
+        <v>0.04361498959578221</v>
+      </c>
+      <c r="F103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G103">
+        <v>2.052109009774206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104">
+        <v>2.052109009774206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105">
+        <v>0.002142508007908651</v>
+      </c>
+      <c r="E105">
+        <v>0.005142019218980762</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105">
+        <v>2.055270519703118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" t="s">
+        <v>156</v>
+      </c>
+      <c r="D106">
+        <v>0.005197110185229442</v>
+      </c>
+      <c r="E106">
+        <v>0.01247306444455066</v>
+      </c>
+      <c r="F106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G106">
+        <v>2.055720295090504</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107">
+        <v>0.006198510114893332</v>
+      </c>
+      <c r="E107">
+        <v>0.03843076271233866</v>
+      </c>
+      <c r="F107" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107">
+        <v>2.055768467843704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108">
+        <v>2.055768467843704</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109">
+        <v>0.002477516140983694</v>
+      </c>
+      <c r="E109">
+        <v>0.005946038738360866</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109">
+        <v>2.056086676990892</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110">
+        <v>0.003409515505720325</v>
+      </c>
+      <c r="E110">
+        <v>0.02113899613546601</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110">
+        <v>2.056762903204603</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111">
+        <v>0.001800966951388107</v>
+      </c>
+      <c r="E111">
+        <v>0.01116599509860626</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111">
+        <v>2.058563870155991</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112">
+        <v>0.002680123483860595</v>
+      </c>
+      <c r="E112">
+        <v>0.006432296361265429</v>
+      </c>
+      <c r="F112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G112">
+        <v>2.058766800474753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113">
+        <v>0.004262855666246783</v>
+      </c>
+      <c r="E113">
+        <v>0.01023085359899228</v>
+      </c>
+      <c r="F113" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113">
+        <v>2.061306304958072</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114">
+        <v>0.005886876869185421</v>
+      </c>
+      <c r="E114">
+        <v>0.03649863658894961</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114">
+        <v>2.061655344712889</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115">
+        <v>0.007453655750008949</v>
+      </c>
+      <c r="E115">
+        <v>0.01788877380002148</v>
+      </c>
+      <c r="F115" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115">
+        <v>2.062724175453127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" t="s">
+        <v>156</v>
+      </c>
+      <c r="D116">
+        <v>0.00158722426191637</v>
+      </c>
+      <c r="E116">
+        <v>0.003809338228599289</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116">
+        <v>2.062893529219988</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +4781,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,1382 +4812,2762 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>0.01689331733005417</v>
+        <v>0.01686055333473982</v>
       </c>
       <c r="E2">
-        <v>0.3496916687321212</v>
+        <v>0.3490134540291143</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>0.01689331733005417</v>
+        <v>0.01686055333473982</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>0.001211886072412492</v>
+        <v>0.002212153062183754</v>
       </c>
       <c r="E3">
-        <v>0.02508604169893859</v>
+        <v>0.04579156838720371</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>0.01689331733005417</v>
+        <v>0.01686055333473982</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D4">
-        <v>0.001211886072412492</v>
+        <v>0.002212153062183754</v>
       </c>
       <c r="E4">
-        <v>0.02508604169893859</v>
+        <v>0.04579156838720371</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>0.01689331733005417</v>
+        <v>0.01686055333473982</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D5">
-        <v>0.01711143291968176</v>
+        <v>0.01691920921352455</v>
       </c>
       <c r="E5">
-        <v>0.3542066614374124</v>
+        <v>0.3502276307199581</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>0.01711143291968176</v>
+        <v>0.01691920921352455</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D6">
-        <v>0.001016026456723559</v>
+        <v>0.002837720211911187</v>
       </c>
       <c r="E6">
-        <v>0.02103174765417767</v>
+        <v>0.05874080838656156</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>0.01711143291968176</v>
+        <v>0.01691920921352455</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D7">
-        <v>0.001016026456723559</v>
+        <v>0.002837720211911187</v>
       </c>
       <c r="E7">
-        <v>0.02103174765417767</v>
+        <v>0.05874080838656156</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>0.01711143291968176</v>
+        <v>0.01691920921352455</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D8">
-        <v>0.0172985264747843</v>
+        <v>0.01730605592149003</v>
       </c>
       <c r="E8">
-        <v>0.3580794980280351</v>
+        <v>0.3582353575748437</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>0.0172985264747843</v>
+        <v>0.01730605592149003</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>0.001681914487536391</v>
+        <v>0.00147451992283613</v>
       </c>
       <c r="E9">
-        <v>0.03481562989200328</v>
+        <v>0.03052256240270788</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>0.0172985264747843</v>
+        <v>0.01730605592149003</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D10">
-        <v>0.001681914487536391</v>
+        <v>0.00147451992283613</v>
       </c>
       <c r="E10">
-        <v>0.03481562989200328</v>
+        <v>0.03052256240270788</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>0.0172985264747843</v>
+        <v>0.01730605592149003</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D11">
-        <v>0.01749167585760823</v>
+        <v>0.01796221828889297</v>
       </c>
       <c r="E11">
-        <v>0.3620776902524904</v>
+        <v>0.3718179185800844</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>0.01749167585760823</v>
+        <v>0.01796221828889297</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D12">
-        <v>0.001526844953841911</v>
+        <v>0.0004838512208766194</v>
       </c>
       <c r="E12">
-        <v>0.03160569054452755</v>
+        <v>0.01001572027214602</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>0.01749167585760823</v>
+        <v>0.01796221828889297</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D13">
-        <v>0.001526844953841911</v>
+        <v>0.0004838512208766194</v>
       </c>
       <c r="E13">
-        <v>0.03160569054452755</v>
+        <v>0.01001572027214602</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>0.01749167585760823</v>
+        <v>0.01796221828889297</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D14">
-        <v>0.01811220402884679</v>
+        <v>0.01821466055201301</v>
       </c>
       <c r="E14">
-        <v>0.3749226233971286</v>
+        <v>0.3770434734266693</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G14">
-        <v>0.01811220402884679</v>
+        <v>0.01821466055201301</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D15">
-        <v>0.0008007547609984524</v>
+        <v>0.002189552435536102</v>
       </c>
       <c r="E15">
-        <v>0.01657562355266796</v>
+        <v>0.04532373541559731</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>0.01811220402884679</v>
+        <v>0.01821466055201301</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D16">
-        <v>0.0008007547609984524</v>
+        <v>0.002189552435536102</v>
       </c>
       <c r="E16">
-        <v>0.01657562355266796</v>
+        <v>0.04532373541559731</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G16">
-        <v>0.01811220402884679</v>
+        <v>0.01821466055201301</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D17">
-        <v>0.01830535449504237</v>
+        <v>0.01826763430124363</v>
       </c>
       <c r="E17">
-        <v>0.3789208380473771</v>
+        <v>0.378140030035743</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>0.01830535449504237</v>
+        <v>0.01826763430124363</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D18">
-        <v>0.0007416536950234888</v>
+        <v>0.0004240409629874191</v>
       </c>
       <c r="E18">
-        <v>0.01535223148698622</v>
+        <v>0.008777647933839575</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G18">
-        <v>0.01830535449504237</v>
+        <v>0.01826763430124363</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D19">
-        <v>0.0007416536950234888</v>
+        <v>0.0004240409629874191</v>
       </c>
       <c r="E19">
-        <v>0.01535223148698622</v>
+        <v>0.008777647933839575</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>0.01830535449504237</v>
+        <v>0.01826763430124363</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D20">
-        <v>0.01676809178908558</v>
+        <v>0.01744027597339267</v>
       </c>
       <c r="E20">
-        <v>0.04024342029380539</v>
+        <v>0.3610137126492283</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G20">
-        <v>0.03387952470876734</v>
+        <v>0.03435948518691722</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D21">
-        <v>0.01716756466190372</v>
+        <v>0.0007263744507697298</v>
       </c>
       <c r="E21">
-        <v>0.1751091595514179</v>
+        <v>0.01503595113093341</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>0.03446609113668803</v>
+        <v>0.03435948518691722</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D22">
-        <v>0.002874707498251585</v>
+        <v>0.0007263744507697298</v>
       </c>
       <c r="E22">
-        <v>0.02932201648216617</v>
+        <v>0.01503595113093341</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>0.03446609113668803</v>
+        <v>0.03435948518691722</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D23">
-        <v>0.002874707498251585</v>
+        <v>0.0183051530084781</v>
       </c>
       <c r="E23">
-        <v>0.02932201648216617</v>
+        <v>0.3789166672754966</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>0.03446609113668803</v>
+        <v>0.03516570634321792</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D24">
-        <v>0.01710384015892931</v>
+        <v>0.002934429375846407</v>
       </c>
       <c r="E24">
-        <v>0.04104921638143033</v>
+        <v>0.06074268808002063</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G24">
-        <v>0.0352160441877761</v>
+        <v>0.03516570634321792</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D25">
-        <v>0.01786387487662115</v>
+        <v>0.002934429375846407</v>
       </c>
       <c r="E25">
-        <v>0.3697822099460577</v>
+        <v>0.06074268808002063</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G25">
-        <v>0.03535555073422938</v>
+        <v>0.03516570634321792</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D26">
-        <v>0.0006534332372024089</v>
+        <v>0.01855190621487342</v>
       </c>
       <c r="E26">
-        <v>0.01352606801008986</v>
+        <v>0.3840244586478798</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G26">
-        <v>0.03535555073422938</v>
+        <v>0.03585796213636346</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D27">
-        <v>0.0006534332372024089</v>
+        <v>0.002049606551379122</v>
       </c>
       <c r="E27">
-        <v>0.01352606801008986</v>
+        <v>0.04242685561354782</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G27">
-        <v>0.03535555073422938</v>
+        <v>0.03585796213636346</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D28">
-        <v>0.0192066995795253</v>
+        <v>0.002049606551379122</v>
       </c>
       <c r="E28">
-        <v>0.09987483781353154</v>
+        <v>0.04242685561354782</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G28">
-        <v>0.03610001690957947</v>
+        <v>0.03585796213636346</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D29">
-        <v>0.01834149013781672</v>
+        <v>0.0181142633685181</v>
       </c>
       <c r="E29">
-        <v>0.1870831994057305</v>
+        <v>0.3749652517283247</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G29">
-        <v>0.0366468446328591</v>
+        <v>0.03607648165741106</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D30">
-        <v>0.002677447427010121</v>
+        <v>0.001637336350032944</v>
       </c>
       <c r="E30">
-        <v>0.02730996375550323</v>
+        <v>0.03389286244568193</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G30">
-        <v>0.0366468446328591</v>
+        <v>0.03607648165741106</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D31">
-        <v>0.002677447427010121</v>
+        <v>0.001637336350032944</v>
       </c>
       <c r="E31">
-        <v>0.02730996375550323</v>
+        <v>0.03389286244568193</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>0.0366468446328591</v>
+        <v>0.03607648165741106</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D32">
-        <v>0.01872073853432661</v>
+        <v>0.0184087350700216</v>
       </c>
       <c r="E32">
-        <v>0.1909515330501315</v>
+        <v>0.3810608159494471</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G32">
-        <v>0.05260026324309396</v>
+        <v>0.03662339562203461</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D33">
-        <v>0.0002890595879318068</v>
+        <v>0.002107287317309723</v>
       </c>
       <c r="E33">
-        <v>0.00294840779690443</v>
+        <v>0.04362084746831126</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>0.05260026324309396</v>
+        <v>0.03662339562203461</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D34">
-        <v>0.0002890595879318068</v>
+        <v>0.002107287317309723</v>
       </c>
       <c r="E34">
-        <v>0.00294840779690443</v>
+        <v>0.04362084746831126</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>0.05260026324309396</v>
+        <v>0.03662339562203461</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D35">
-        <v>0.01912592991778573</v>
+        <v>0.01839542205881222</v>
       </c>
       <c r="E35">
-        <v>0.1950844851614145</v>
+        <v>0.3807852366174129</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G35">
-        <v>0.05359202105447376</v>
+        <v>0.03666305636005585</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D36">
-        <v>0.0003419972298144299</v>
+        <v>0.0007309119470384035</v>
       </c>
       <c r="E36">
-        <v>0.003488371744107184</v>
+        <v>0.01512987730369495</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G36">
-        <v>0.05359202105447376</v>
+        <v>0.03666305636005585</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D37">
-        <v>0.0003419972298144299</v>
+        <v>0.0007309119470384035</v>
       </c>
       <c r="E37">
-        <v>0.003488371744107184</v>
+        <v>0.01512987730369495</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G37">
-        <v>0.05359202105447376</v>
+        <v>0.03666305636005585</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D38">
-        <v>0.00132748668756599</v>
+        <v>0.01746509278674861</v>
       </c>
       <c r="E38">
-        <v>0.006902930775343148</v>
+        <v>0.09081848249109276</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G38">
-        <v>0.08381296098585925</v>
+        <v>0.05263079912996652</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D39">
-        <v>0.001639669794796557</v>
+        <v>0.01891077343725932</v>
       </c>
       <c r="E39">
-        <v>0.008526282932942095</v>
+        <v>0.09833602187374847</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G39">
-        <v>0.08381296098585925</v>
+        <v>0.05327025862417654</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D40">
-        <v>0.001019243787107256</v>
+        <v>0.01896342314838077</v>
       </c>
       <c r="E40">
-        <v>0.005300067692957733</v>
+        <v>0.04551221555611385</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G40">
-        <v>0.08381296098585925</v>
+        <v>0.05482138528474423</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D41">
-        <v>0.001249140274378346</v>
+        <v>0.01855451141456636</v>
       </c>
       <c r="E41">
-        <v>0.006495529426767398</v>
+        <v>0.1892560164285769</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G41">
-        <v>0.08381296098585925</v>
+        <v>0.05521756777462221</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D42">
-        <v>0.002156930611201412</v>
+        <v>0.0007487014890632038</v>
       </c>
       <c r="E42">
-        <v>0.01121603917824734</v>
+        <v>0.007636755188444679</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G42">
-        <v>0.08545547513181107</v>
+        <v>0.05521756777462221</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D43">
-        <v>0.03404800752409359</v>
+        <v>0.0007487014890632038</v>
       </c>
       <c r="E43">
-        <v>0.7047937557487374</v>
+        <v>0.007636755188444679</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G43">
-        <v>0.1178609685099528</v>
+        <v>0.05521756777462221</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D44">
-        <v>0.03572849312483527</v>
+        <v>0.01933462841314617</v>
       </c>
       <c r="E44">
-        <v>0.73957980768409</v>
+        <v>0.04640310819155079</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G44">
-        <v>0.1195414541106945</v>
+        <v>0.05541111007055723</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D45">
-        <v>0.0358350186780182</v>
+        <v>0.01889864625918583</v>
       </c>
       <c r="E45">
-        <v>0.7417848866349768</v>
+        <v>0.1927661918436955</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G45">
-        <v>0.1196479796638774</v>
+        <v>0.05552204188122044</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D46">
-        <v>0.03607583347228657</v>
+        <v>0.0005457807554617667</v>
       </c>
       <c r="E46">
-        <v>0.7467697528763318</v>
+        <v>0.005566963705710019</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G46">
-        <v>0.1198887944581458</v>
+        <v>0.05552204188122044</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D47">
-        <v>0.03595595466191505</v>
+        <v>0.0005457807554617667</v>
       </c>
       <c r="E47">
-        <v>0.7442882615016415</v>
+        <v>0.005566963705710019</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G47">
-        <v>0.1214114297937261</v>
+        <v>0.05552204188122044</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D48">
-        <v>0.001345991838655554</v>
+        <v>0.01761938117501944</v>
       </c>
       <c r="E48">
-        <v>0.006999157561008879</v>
+        <v>0.3647211903229023</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G48">
-        <v>1.067463545080163</v>
+        <v>0.07088963979919598</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D49">
-        <v>0.002009107844076962</v>
+        <v>0.001275006503621686</v>
       </c>
       <c r="E49">
-        <v>0.0104473607892002</v>
+        <v>0.02639263462496891</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G49">
-        <v>1.067463545080163</v>
+        <v>0.07088963979919598</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D50">
-        <v>9.186679206409012E-05</v>
+        <v>0.001275006503621686</v>
       </c>
       <c r="E50">
-        <v>0.0002204803009538163</v>
+        <v>0.02639263462496891</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G50">
-        <v>1.067463545080163</v>
+        <v>0.07088963979919598</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D51">
-        <v>0.001116208613722532</v>
+        <v>0.01832329903225044</v>
       </c>
       <c r="E51">
-        <v>0.002678900672934077</v>
+        <v>0.3792922899675841</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G51">
-        <v>1.069885867143429</v>
+        <v>0.07095409816221696</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D52">
-        <v>0.03366353242931194</v>
+        <v>0.001449539303486369</v>
       </c>
       <c r="E52">
-        <v>0.6968351212867571</v>
+        <v>0.03000546358216783</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G52">
-        <v>1.101127077509475</v>
+        <v>0.07095409816221696</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D53">
-        <v>0.03494711061681403</v>
+        <v>0.001449539303486369</v>
       </c>
       <c r="E53">
-        <v>0.7234051897680503</v>
+        <v>0.03000546358216783</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G53">
-        <v>1.102410655696977</v>
+        <v>0.07095409816221696</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D54">
-        <v>0.03551687497685768</v>
+        <v>0.01687847569094354</v>
       </c>
       <c r="E54">
-        <v>0.3622721247639483</v>
+        <v>0.04050834165826449</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G54">
-        <v>1.10298042005702</v>
+        <v>0.07209604346556575</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D55">
-        <v>0.03352845697366207</v>
+        <v>0.01838114667893719</v>
       </c>
       <c r="E55">
-        <v>0.3419902611313531</v>
+        <v>0.04411475202944926</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G55">
-        <v>1.103414324117091</v>
+        <v>0.07320253196368143</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D56">
-        <v>0.002890209094368068</v>
+        <v>0.01787958308209339</v>
       </c>
       <c r="E56">
-        <v>0.01502908729071396</v>
+        <v>0.1823717474373525</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G56">
-        <v>2.050463717081817</v>
+        <v>0.07329069315265062</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D57">
-        <v>0.0009799454318563032</v>
+        <v>0.0004133890169413922</v>
       </c>
       <c r="E57">
-        <v>0.002351869036455127</v>
+        <v>0.0042165679728022</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G57">
-        <v>2.050463717081817</v>
+        <v>0.07329069315265062</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D58">
-        <v>0.002696097072666928</v>
+        <v>0.0004133890169413922</v>
       </c>
       <c r="E58">
-        <v>0.006470632974400627</v>
+        <v>0.0042165679728022</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G58">
-        <v>2.053407204345525</v>
+        <v>0.07329069315265062</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D59">
-        <v>0.03418575947651288</v>
+        <v>0.01813178772158263</v>
       </c>
       <c r="E59">
-        <v>0.3486947466604314</v>
+        <v>0.1849442347601428</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G59">
-        <v>2.08464947655833</v>
+        <v>0.07365382960280306</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D60">
-        <v>0.03487549655262862</v>
+        <v>0.000314444719845592</v>
       </c>
       <c r="E60">
-        <v>0.7219227786394123</v>
+        <v>0.003207336142425038</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G60">
-        <v>2.085339213634446</v>
+        <v>0.07365382960280306</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="D61">
-        <v>0.03446257997697232</v>
+        <v>0.000314444719845592</v>
       </c>
       <c r="E61">
-        <v>0.3515183157651176</v>
+        <v>0.003207336142425038</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G61">
-        <v>2.087869784322497</v>
+        <v>0.07365382960280306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62">
+        <v>0.002495134139356695</v>
+      </c>
+      <c r="E62">
+        <v>0.01297469752465482</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62">
+        <v>0.08379308455863912</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63">
+        <v>0.00258801189857155</v>
+      </c>
+      <c r="E63">
+        <v>0.01345766187257206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63">
+        <v>0.08379308455863912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64">
+        <v>0.0009536459590248229</v>
+      </c>
+      <c r="E64">
+        <v>0.00495895898692908</v>
+      </c>
+      <c r="F64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <v>0.08379308455863912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65">
+        <v>0.001597063158691621</v>
+      </c>
+      <c r="E65">
+        <v>0.008304728425196431</v>
+      </c>
+      <c r="F65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65">
+        <v>0.08379308455863912</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66">
+        <v>0.002470638719471897</v>
+      </c>
+      <c r="E66">
+        <v>0.01284732134125386</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66">
+        <v>0.08435088258502069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67">
+        <v>0.000720020804546886</v>
+      </c>
+      <c r="E67">
+        <v>0.003744108183643807</v>
+      </c>
+      <c r="F67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67">
+        <v>0.08435088258502069</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68">
+        <v>0.001475186148903758</v>
+      </c>
+      <c r="E68">
+        <v>0.007670967974299544</v>
+      </c>
+      <c r="F68" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68">
+        <v>0.08435088258502069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69">
+        <v>0.001230591121777862</v>
+      </c>
+      <c r="E69">
+        <v>0.006399073833244883</v>
+      </c>
+      <c r="F69" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69">
+        <v>0.08435088258502069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70">
+        <v>0.001296669794373944</v>
+      </c>
+      <c r="E70">
+        <v>0.006742682930744508</v>
+      </c>
+      <c r="F70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70">
+        <v>0.08513476872343095</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71">
+        <v>0.001413118989275868</v>
+      </c>
+      <c r="E71">
+        <v>0.007348218744234515</v>
+      </c>
+      <c r="F71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71">
+        <v>0.08657649561044764</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72">
+        <v>0.016708395947803</v>
+      </c>
+      <c r="E72">
+        <v>0.1704256386675906</v>
+      </c>
+      <c r="F72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72">
+        <v>0.08759803574699898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
+        <v>0.002121100623895015</v>
+      </c>
+      <c r="E73">
+        <v>0.02163522636372915</v>
+      </c>
+      <c r="F73" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73">
+        <v>0.08759803574699898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74">
+        <v>0.002121100623895015</v>
+      </c>
+      <c r="E74">
+        <v>0.02163522636372915</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74">
+        <v>0.08759803574699898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>0.0176121760852577</v>
+      </c>
+      <c r="E75">
+        <v>0.1796441960696285</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75">
+        <v>0.08856627424747465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76">
+        <v>0.0006114368431855895</v>
+      </c>
+      <c r="E76">
+        <v>0.006236655800493013</v>
+      </c>
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76">
+        <v>0.08856627424747465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>0.0006114368431855895</v>
+      </c>
+      <c r="E77">
+        <v>0.006236655800493013</v>
+      </c>
+      <c r="F77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77">
+        <v>0.08856627424747465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78">
+        <v>0.01848512349700052</v>
+      </c>
+      <c r="E78">
+        <v>0.1885482596694052</v>
+      </c>
+      <c r="F78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78">
+        <v>0.09058116696256627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79">
+        <v>0.001982771461161335</v>
+      </c>
+      <c r="E79">
+        <v>0.02022426890384561</v>
+      </c>
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79">
+        <v>0.09058116696256627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80">
+        <v>0.001982771461161335</v>
+      </c>
+      <c r="E80">
+        <v>0.02022426890384561</v>
+      </c>
+      <c r="F80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80">
+        <v>0.09058116696256627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81">
+        <v>0.01806178067163355</v>
+      </c>
+      <c r="E81">
+        <v>0.1842301628506622</v>
+      </c>
+      <c r="F81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81">
+        <v>0.09126431263531498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82">
+        <v>0.001607713731021667</v>
+      </c>
+      <c r="E82">
+        <v>0.016398680056421</v>
+      </c>
+      <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82">
+        <v>0.09126431263531498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83">
+        <v>0.001607713731021667</v>
+      </c>
+      <c r="E83">
+        <v>0.016398680056421</v>
+      </c>
+      <c r="F83" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83">
+        <v>0.09126431263531498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84">
+        <v>0.03370196125261974</v>
+      </c>
+      <c r="E84">
+        <v>0.6976305979292285</v>
+      </c>
+      <c r="F84" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84">
+        <v>0.1174950458112589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85">
+        <v>0.03333999676952456</v>
+      </c>
+      <c r="E85">
+        <v>0.6901379331291584</v>
+      </c>
+      <c r="F85" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85">
+        <v>0.1176908793545453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86">
+        <v>0.03395826427917487</v>
+      </c>
+      <c r="E86">
+        <v>0.7029360705789197</v>
+      </c>
+      <c r="F86" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86">
+        <v>0.117751348837814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87">
+        <v>0.03452851755801618</v>
+      </c>
+      <c r="E87">
+        <v>0.714740313450935</v>
+      </c>
+      <c r="F87" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87">
+        <v>0.1183216021166553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88">
+        <v>0.03456513330932304</v>
+      </c>
+      <c r="E88">
+        <v>0.7154982595029868</v>
+      </c>
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88">
+        <v>0.1183582178679622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89">
+        <v>0.03598692087233538</v>
+      </c>
+      <c r="E89">
+        <v>0.7449292620573424</v>
+      </c>
+      <c r="F89" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89">
+        <v>0.1203378034573561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90">
+        <v>0.03456855910349438</v>
+      </c>
+      <c r="E90">
+        <v>0.7155691734423336</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90">
+        <v>0.1520636049147532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91">
+        <v>0.03451445843488956</v>
+      </c>
+      <c r="E91">
+        <v>0.7144492896022139</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91">
+        <v>0.1522053377894348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92">
+        <v>0.03457128664771251</v>
+      </c>
+      <c r="E92">
+        <v>0.7156256336076489</v>
+      </c>
+      <c r="F92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92">
+        <v>0.1528928887643678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93">
+        <v>0.03533868647184485</v>
+      </c>
+      <c r="E93">
+        <v>0.7315108099671883</v>
+      </c>
+      <c r="F93" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93">
+        <v>0.1530900353096588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94">
+        <v>0.002474166679835083</v>
+      </c>
+      <c r="E94">
+        <v>0.01286566673514243</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94">
+        <v>1.067211566350468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95">
+        <v>0.002182267940825525</v>
+      </c>
+      <c r="E95">
+        <v>0.01134779329229273</v>
+      </c>
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95">
+        <v>1.067211566350468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96">
+        <v>0.00165452240152175</v>
+      </c>
+      <c r="E96">
+        <v>0.008603516487913101</v>
+      </c>
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96">
+        <v>1.067211566350468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97">
+        <v>0.001116499392311641</v>
+      </c>
+      <c r="E97">
+        <v>0.005805796840020533</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97">
+        <v>1.067407280291607</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98">
+        <v>0.001710129879104444</v>
+      </c>
+      <c r="E98">
+        <v>0.004104311709850666</v>
+      </c>
+      <c r="F98" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98">
+        <v>1.067407280291607</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99">
+        <v>0.0003832670240241479</v>
+      </c>
+      <c r="E99">
+        <v>0.000919840857657955</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99">
+        <v>1.067407280291607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100">
+        <v>8.361195241685729E-05</v>
+      </c>
+      <c r="E100">
+        <v>0.0002006686858004575</v>
+      </c>
+      <c r="F100" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100">
+        <v>1.069652940021374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101">
+        <v>0.002502377261407264</v>
+      </c>
+      <c r="E101">
+        <v>0.006005705427377432</v>
+      </c>
+      <c r="F101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101">
+        <v>1.069705640035455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102">
+        <v>0.03371559820317611</v>
+      </c>
+      <c r="E102">
+        <v>0.3438991016723963</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102">
+        <v>1.101122878494783</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103">
+        <v>0.03431169989861252</v>
+      </c>
+      <c r="E103">
+        <v>0.3499793389658477</v>
+      </c>
+      <c r="F103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G103">
+        <v>1.10171898019022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104">
+        <v>0.03467472595543489</v>
+      </c>
+      <c r="E104">
+        <v>0.7177668272775022</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104">
+        <v>1.101886292305903</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105">
+        <v>0.03483054247902429</v>
+      </c>
+      <c r="E105">
+        <v>0.7209922293158028</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105">
+        <v>1.102042108829492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106">
+        <v>0.03486548142758132</v>
+      </c>
+      <c r="E106">
+        <v>0.7217154655509334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G106">
+        <v>1.102077047778049</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107">
+        <v>0.03507104815972485</v>
+      </c>
+      <c r="E107">
+        <v>0.7259706969063044</v>
+      </c>
+      <c r="F107" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107">
+        <v>1.102478328451332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108">
+        <v>0.03453693062467811</v>
+      </c>
+      <c r="E108">
+        <v>0.3522766923717167</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108">
+        <v>1.135659809119461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109">
+        <v>0.03546200015432333</v>
+      </c>
+      <c r="E109">
+        <v>0.3617124015740979</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109">
+        <v>1.137180980344543</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>177</v>
+      </c>
+      <c r="B110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110">
+        <v>0.002132656437399198</v>
+      </c>
+      <c r="E110">
+        <v>0.01108981347447583</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110">
+        <v>2.050523184905274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111">
+        <v>0.002366671866712349</v>
+      </c>
+      <c r="E111">
+        <v>0.01230669370690421</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111">
+        <v>2.050523184905274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112">
+        <v>0.001274426801194957</v>
+      </c>
+      <c r="E112">
+        <v>0.003058624322867896</v>
+      </c>
+      <c r="F112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G112">
+        <v>2.050526704117479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113">
+        <v>0.002285441551059062</v>
+      </c>
+      <c r="E113">
+        <v>0.005485059722541748</v>
+      </c>
+      <c r="F113" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113">
+        <v>2.050526704117479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114">
+        <v>0.00144902829112968</v>
+      </c>
+      <c r="E114">
+        <v>0.003477667898711231</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114">
+        <v>2.052109009774206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115">
+        <v>0.002865022636145608</v>
+      </c>
+      <c r="E115">
+        <v>0.00687605432674946</v>
+      </c>
+      <c r="F115" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115">
+        <v>2.055768467843704</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>177</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116">
+        <v>0.03392620973745253</v>
+      </c>
+      <c r="E116">
+        <v>0.7022725415652673</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116">
+        <v>2.084449394642727</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117">
+        <v>0.03476627379729308</v>
+      </c>
+      <c r="E117">
+        <v>0.3546159927323894</v>
+      </c>
+      <c r="F117" t="s">
+        <v>52</v>
+      </c>
+      <c r="G117">
+        <v>2.085292977914772</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118">
+        <v>0.03548370071259225</v>
+      </c>
+      <c r="E118">
+        <v>0.7345126047506595</v>
+      </c>
+      <c r="F118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118">
+        <v>2.086006885617866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119">
+        <v>0.03580454377015313</v>
+      </c>
+      <c r="E119">
+        <v>0.3652063464555619</v>
+      </c>
+      <c r="F119" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119">
+        <v>2.086331247887632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120">
+        <v>0.03471508003734241</v>
+      </c>
+      <c r="E120">
+        <v>0.3540938163808925</v>
+      </c>
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120">
+        <v>2.086824089811548</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121">
+        <v>0.03438206673585747</v>
+      </c>
+      <c r="E121">
+        <v>0.3506970807057462</v>
+      </c>
+      <c r="F121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121">
+        <v>2.090150534579561</v>
       </c>
     </row>
   </sheetData>
@@ -4175,25 +7585,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4201,25 +7611,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>19.52314930928191</v>
+        <v>34.82551411432124</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.52314930928191</v>
+        <v>34.82551411432124</v>
       </c>
       <c r="F2">
-        <v>0.3865970160253843</v>
+        <v>0.6896141408776485</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.3865970160253843</v>
+        <v>0.6896141408776485</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4227,25 +7637,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C3">
-        <v>0.9597285542925802</v>
+        <v>1.938931979039945</v>
       </c>
       <c r="D3">
-        <v>0.3009786679157654</v>
+        <v>0.4417281833256877</v>
       </c>
       <c r="E3">
-        <v>1.260707222208346</v>
+        <v>2.380660162365633</v>
       </c>
       <c r="F3">
-        <v>0.1852850029064301</v>
+        <v>0.3610102086153344</v>
       </c>
       <c r="G3">
-        <v>0.05078804546468078</v>
+        <v>0.09981100801356536</v>
       </c>
       <c r="H3">
-        <v>0.2360730483711109</v>
+        <v>0.4608212166288998</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4253,25 +7663,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="C4">
-        <v>7.487660815581539</v>
+        <v>14.84102703459837</v>
       </c>
       <c r="D4">
-        <v>3.738033152245462</v>
+        <v>7.764527289614252</v>
       </c>
       <c r="E4">
-        <v>11.225693967827</v>
+        <v>22.60555432421262</v>
       </c>
       <c r="F4">
-        <v>0.4904236478339083</v>
+        <v>0.9822733973966793</v>
       </c>
       <c r="G4">
-        <v>0.2240635600479648</v>
+        <v>0.456776108705175</v>
       </c>
       <c r="H4">
-        <v>0.7144872078818731</v>
+        <v>1.439049506101854</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4279,25 +7689,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="C5">
-        <v>27.97053867915603</v>
+        <v>51.60547312795956</v>
       </c>
       <c r="D5">
-        <v>4.039011820161227</v>
+        <v>8.20625547293994</v>
       </c>
       <c r="E5">
-        <v>32.00955049931726</v>
+        <v>59.8117286008995</v>
       </c>
       <c r="F5">
-        <v>1.062305666765723</v>
+        <v>2.032897746889662</v>
       </c>
       <c r="G5">
-        <v>0.2748516055126456</v>
+        <v>0.5565871167187404</v>
       </c>
       <c r="H5">
-        <v>1.337157272278368</v>
+        <v>2.589484863608403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4305,25 +7715,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="C6">
-        <v>27.97053867915603</v>
+        <v>51.60547312795956</v>
       </c>
       <c r="D6">
-        <v>4.039011820161227</v>
+        <v>8.20625547293994</v>
       </c>
       <c r="E6">
-        <v>16.00477524965863</v>
+        <v>29.90586430044975</v>
       </c>
       <c r="F6">
-        <v>1.062305666765723</v>
+        <v>2.032897746889662</v>
       </c>
       <c r="G6">
-        <v>0.2748516055126456</v>
+        <v>0.5565871167187404</v>
       </c>
       <c r="H6">
-        <v>0.6685786361391842</v>
+        <v>1.294742431804201</v>
       </c>
     </row>
   </sheetData>

--- a/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="132">
   <si>
     <t>vehicle_id</t>
   </si>
@@ -40,48 +40,48 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>crane(type='Hybrid', id=1, track_id=1)</t>
+  </si>
+  <si>
     <t>crane(type='Hybrid', id=1, track_id=2)</t>
   </si>
   <si>
-    <t>crane(type='Hybrid', id=1, track_id=1)</t>
-  </si>
-  <si>
     <t>(1, 'Hybrid')</t>
   </si>
   <si>
+    <t>unload_IC_1-Train-19</t>
+  </si>
+  <si>
     <t>unload_IC_1-Train-9</t>
   </si>
   <si>
-    <t>unload_IC_1-Train-19</t>
+    <t>unload_IC_2-Train-19</t>
   </si>
   <si>
     <t>unload_IC_2-Train-9</t>
   </si>
   <si>
-    <t>unload_IC_2-Train-19</t>
-  </si>
-  <si>
     <t>unload_IC_3-Train-9</t>
   </si>
   <si>
     <t>unload_IC_3-Train-19</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=1, train_id=19)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=4, train_id=19)</t>
+  </si>
+  <si>
     <t>load_container(type='Outbound', id=2, train_id=19)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=4, train_id=19)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=1, train_id=19)</t>
+    <t>load_container(type='Outbound', id=5, train_id=19)</t>
   </si>
   <si>
     <t>load_container(type='Outbound', id=3, train_id=19)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=5, train_id=19)</t>
-  </si>
-  <si>
     <t>unload_IC_1-Train-12</t>
   </si>
   <si>
@@ -100,48 +100,45 @@
     <t>end</t>
   </si>
   <si>
+    <t>hostler(type='Diesel', id=1)</t>
+  </si>
+  <si>
     <t>hostler(type='Diesel', id=0)</t>
   </si>
   <si>
-    <t>hostler(type='Diesel', id=1)</t>
-  </si>
-  <si>
     <t>hostler(type='Diesel', id=3)</t>
   </si>
   <si>
     <t>hostler(type='Diesel', id=2)</t>
   </si>
   <si>
+    <t>hostler(type='Diesel', id=4)</t>
+  </si>
+  <si>
     <t>hostler(type='Diesel', id=5)</t>
   </si>
   <si>
-    <t>hostler(type='Diesel', id=4)</t>
-  </si>
-  <si>
     <t>hostler(type='electric', id=6)</t>
   </si>
   <si>
     <t>hostler(type='electric', id=7)</t>
   </si>
   <si>
-    <t>hostler(type='electric', id=8)</t>
-  </si>
-  <si>
     <t>pickup_IC_1-Train-9</t>
   </si>
   <si>
     <t>pickup_IC_1-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC_2-Train-9</t>
+  </si>
+  <si>
     <t>pickup_IC_2-Train-19</t>
   </si>
   <si>
     <t>dropoff_IC_1-Train-9</t>
   </si>
   <si>
-    <t>pickup_IC_2-Train-9</t>
-  </si>
-  <si>
     <t>dropoff_IC_2-Train-9</t>
   </si>
   <si>
@@ -151,60 +148,66 @@
     <t>dropoff_IC_2-Train-19</t>
   </si>
   <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=9)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-9</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
+  </si>
+  <si>
     <t>pickup_IC_3-Train-19</t>
   </si>
   <si>
     <t>dropoff_IC_3-Train-19</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_IC_3-Train-9</t>
-  </si>
-  <si>
-    <t>dropoff_IC_3-Train-9</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=19)</t>
+    <t>dropoff_container(type='Outbound', id=1, train_id=9)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=9)</t>
+  </si>
+  <si>
+    <t>dropoff_OC_container(type='Outbound', id=4, train_id=9)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=19)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
     <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=5, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=9)</t>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=9)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=19)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=4, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=9)</t>
+    <t>dropoff_container(type='Outbound', id=5, train_id=19)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=9)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=3, train_id=19)</t>
   </si>
   <si>
-    <t>dropoff_container(type='Outbound', id=5, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=9)</t>
-  </si>
-  <si>
     <t>dropoff_OC_container(type='Outbound', id=2, train_id=9)</t>
   </si>
   <si>
@@ -214,10 +217,10 @@
     <t>dropoff_OC_container(type='Outbound', id=3, train_id=9)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=4, train_id=9)</t>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=9)</t>
+  </si>
+  <si>
+    <t>dropoff_OC_container(type='Outbound', id=5, train_id=9)</t>
   </si>
   <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
@@ -226,18 +229,6 @@
     <t>dropoff_OC_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=5, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=5, train_id=9)</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -247,19 +238,22 @@
     <t>truck(type='Diesel', id=0, train_id=19)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=0, train_id=7)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=70)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=0, train_id=2)</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=0, train_id=9)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=0, train_id=12)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=0, train_id=9)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=70)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=7)</t>
+    <t>truck(type='Diesel', id=1, train_id=12)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=1, train_id=19)</t>
@@ -268,7 +262,7 @@
     <t>truck(type='Diesel', id=1, train_id=9)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=1, train_id=12)</t>
+    <t>truck(type='Diesel', id=1, train_id=2)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=1, train_id=70)</t>
@@ -277,13 +271,16 @@
     <t>truck(type='Diesel', id=1, train_id=7)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=1, train_id=2)</t>
+    <t>truck(type='Diesel', id=2, train_id=9)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=2, train_id=19)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=2, train_id=9)</t>
+    <t>truck(type='Electric', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>truck(type='Electric', id=2, train_id=2)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=2, train_id=70)</t>
@@ -292,100 +289,94 @@
     <t>truck(type='Diesel', id=2, train_id=7)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=2, train_id=2)</t>
+    <t>truck(type='Electric', id=3, train_id=9)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=3, train_id=19)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=3, train_id=9)</t>
+    <t>truck(type='Electric', id=3, train_id=12)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=3, train_id=2)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=3, train_id=12)</t>
+    <t>truck(type='Electric', id=3, train_id=70)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=3, train_id=7)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=3, train_id=70)</t>
-  </si>
-  <si>
     <t>truck(type='Electric', id=4, train_id=19)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=4, train_id=9)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=4, train_id=7)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=4, train_id=70)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=4, train_id=7)</t>
-  </si>
-  <si>
     <t>entry_OC_1</t>
   </si>
   <si>
     <t>dropoff_OC_1</t>
   </si>
   <si>
+    <t>entry_OC_5</t>
+  </si>
+  <si>
+    <t>dropoff_OC_5</t>
+  </si>
+  <si>
     <t>entry_OC_4</t>
   </si>
   <si>
     <t>dropoff_OC_4</t>
   </si>
   <si>
+    <t>entry_OC_2</t>
+  </si>
+  <si>
+    <t>dropoff_OC_2</t>
+  </si>
+  <si>
     <t>entry_OC_3</t>
   </si>
   <si>
     <t>dropoff_OC_3</t>
   </si>
   <si>
-    <t>entry_OC_2</t>
-  </si>
-  <si>
-    <t>dropoff_OC_2</t>
-  </si>
-  <si>
-    <t>entry_OC_5</t>
-  </si>
-  <si>
-    <t>dropoff_OC_5</t>
-  </si>
-  <si>
     <t>pickup_IC-1-Train-9</t>
   </si>
   <si>
     <t>pickup_IC-1-Train-19</t>
   </si>
   <si>
+    <t>pickup_IC-2-Train-19</t>
+  </si>
+  <si>
     <t>pickup_IC-2-Train-9</t>
   </si>
   <si>
-    <t>pickup_IC-2-Train-19</t>
+    <t>pickup_IC-3-Train-9</t>
   </si>
   <si>
     <t>pickup_IC-3-Train-19</t>
   </si>
   <si>
-    <t>pickup_IC-3-Train-9</t>
+    <t>leave_gate_IC_1-Train-9</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_2-Train-19</t>
   </si>
   <si>
     <t>leave_gate_IC_3-Train-9</t>
   </si>
   <si>
-    <t>leave_gate_IC_2-Train-19</t>
-  </si>
-  <si>
     <t>leave_gate_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_1-Train-9</t>
   </si>
   <si>
     <t>Vehicle</t>
@@ -819,16 +810,16 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.01685507562774423</v>
+        <v>0.01666889082619859</v>
       </c>
       <c r="E2">
-        <v>0.8511813192010838</v>
+        <v>0.8417789867230286</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>0.01685507562774423</v>
+        <v>0.01666889082619859</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -842,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.01692203885466631</v>
+        <v>0.01685488889638669</v>
       </c>
       <c r="E3">
-        <v>0.8545629621606486</v>
+        <v>0.851171889267528</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3">
-        <v>0.01692203885466631</v>
+        <v>0.01685488889638669</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -865,16 +856,16 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.01667185470667874</v>
+        <v>0.01688452309476828</v>
       </c>
       <c r="E4">
-        <v>0.8419286626872764</v>
+        <v>0.8526684162857979</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>0.03352693033442297</v>
+        <v>0.03355341392096686</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -888,21 +879,21 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>0.01684758102107566</v>
+        <v>0.01673169362418536</v>
       </c>
       <c r="E5">
-        <v>0.8508028415643206</v>
+        <v>0.8449505280213604</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5">
-        <v>0.03376961987574197</v>
+        <v>0.03358658252057205</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -911,21 +902,21 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>0.01677730507037785</v>
+        <v>0.01677699142466027</v>
       </c>
       <c r="E6">
-        <v>0.8472539060540811</v>
+        <v>0.8472380669453439</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -934,16 +925,16 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>0.01674942462303843</v>
+        <v>0.01690406584847021</v>
       </c>
       <c r="E7">
-        <v>0.8458459434634407</v>
+        <v>0.8536553253477455</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -957,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>0.01667882290741391</v>
+        <v>0.01692807858809468</v>
       </c>
       <c r="E8">
-        <v>0.8422805568244023</v>
+        <v>0.8548679686987815</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8">
-        <v>0.07095474562095364</v>
+        <v>0.07317808471956458</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -980,16 +971,16 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>0.01685736558745607</v>
+        <v>0.01685054821975738</v>
       </c>
       <c r="E9">
-        <v>0.8512969621665315</v>
+        <v>0.8509526850977478</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9">
-        <v>0.0878121112084097</v>
+        <v>0.09002863293932196</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1003,16 +994,16 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>0.01680828034609478</v>
+        <v>0.01676850033525259</v>
       </c>
       <c r="E10">
-        <v>0.8488181574777863</v>
+        <v>0.8468092669302559</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10">
-        <v>0.1046203915545045</v>
+        <v>0.1067971332745746</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1026,16 +1017,16 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>0.01690822939404374</v>
+        <v>0.01692174966095851</v>
       </c>
       <c r="E11">
-        <v>0.8538655843992088</v>
+        <v>0.8545483578784049</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11">
-        <v>0.1215286209485482</v>
+        <v>0.1237188829355331</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1049,21 +1040,21 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>0.01681554087746533</v>
+        <v>0.01693674045150441</v>
       </c>
       <c r="E12">
-        <v>0.849184814311999</v>
+        <v>0.8553053928009728</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12">
-        <v>0.1383441618260136</v>
+        <v>0.1406556233870375</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1072,21 +1063,21 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0.01680081404960887</v>
+        <v>0.01691351644260008</v>
       </c>
       <c r="E13">
-        <v>0.848441109505248</v>
+        <v>0.8541325803513039</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13">
-        <v>1.016800814049609</v>
+        <v>1.0169135164426</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1095,21 +1086,21 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>0.01670889984248377</v>
+        <v>0.01667805334637388</v>
       </c>
       <c r="E14">
-        <v>0.8437994420454303</v>
+        <v>0.8422416939918809</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14">
-        <v>1.033509713892093</v>
+        <v>1.033591569788974</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1118,21 +1109,21 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>0.01688153616396012</v>
+        <v>0.01669169098499533</v>
       </c>
       <c r="E15">
-        <v>0.8525175762799858</v>
+        <v>0.8429303947422642</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15">
-        <v>1.050391250056053</v>
+        <v>1.050283260773969</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1141,16 +1132,16 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>0.01675099125089171</v>
+        <v>0.01676206899570425</v>
       </c>
       <c r="E16">
-        <v>0.8459250581700312</v>
+        <v>0.8464844842830648</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16">
-        <v>1.067142241306944</v>
+        <v>1.067045329769673</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,22 +1185,22 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>0.002714337980733085</v>
+        <v>0.001410791382135251</v>
       </c>
       <c r="E2">
-        <v>0.01682889548054513</v>
+        <v>0.008746906569238558</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>0.0182790356244188</v>
+        <v>0.01764035679596495</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1217,22 +1208,22 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>0.001644232067826783</v>
+        <v>0.00151704028685842</v>
       </c>
       <c r="E3">
-        <v>0.01019423882052605</v>
+        <v>0.009405649778522202</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3">
-        <v>0.01859535576220158</v>
+        <v>0.0176716931644495</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1240,79 +1231,79 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>0.002573054180438063</v>
+        <v>0.001326706720626741</v>
       </c>
       <c r="E4">
-        <v>0.01595293591871599</v>
+        <v>0.008225581667885794</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>0.03443699996596532</v>
+        <v>0.0344983546525038</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.001612644628752714</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.009998396698266829</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5">
-        <v>0.05030423540480082</v>
+        <v>0.03467097544913834</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>0.002164026929861226</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0134169669651396</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1324,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1332,10 +1323,10 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1347,18 +1338,18 @@
         <v>26</v>
       </c>
       <c r="G8">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1370,191 +1361,191 @@
         <v>26</v>
       </c>
       <c r="G9">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>0.002292465028338167</v>
+        <v>0.0001999594090557441</v>
       </c>
       <c r="E10">
-        <v>0.01421328317569663</v>
+        <v>0.001239748336145613</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10">
-        <v>0.05125407142908645</v>
+        <v>0.05056353335428806</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0003928957172392034</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.002435953446883061</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11">
-        <v>0.05125407142908645</v>
+        <v>0.05085037548667627</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>0.001042391519754681</v>
+        <v>0.001416931952165568</v>
       </c>
       <c r="E12">
-        <v>0.00646282742247902</v>
+        <v>0.008784978103426525</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12">
-        <v>0.0513466269245555</v>
+        <v>0.05139165535419205</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>0.001276641993473365</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.007915180359534866</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13">
-        <v>0.05146327232893298</v>
+        <v>0.05139165535419205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.001248049320194499</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.007737905785205897</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14">
-        <v>0.05146327232893298</v>
+        <v>0.05161162326542681</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>0.001299230945465069</v>
+        <v>0.001725522065391316</v>
       </c>
       <c r="E15">
-        <v>0.008055231861883425</v>
+        <v>0.01069823680542616</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15">
-        <v>0.05160346635026589</v>
+        <v>0.05168697385444766</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>0.001231303172999663</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.007634079672597908</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16">
-        <v>0.05175034767178005</v>
+        <v>0.05168697385444766</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>0.000920839905700371</v>
+        <v>0.0004987696383062726</v>
       </c>
       <c r="E17">
-        <v>0.0057092074153423</v>
+        <v>0.00309237175749889</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17">
-        <v>0.05217491133478681</v>
+        <v>0.05171805059111472</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1562,68 +1553,68 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>0.001927692764065099</v>
+        <v>0.001715496964451312</v>
       </c>
       <c r="E18">
-        <v>0.01195169513720361</v>
+        <v>0.01063608117959813</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18">
-        <v>0.05244673726284549</v>
+        <v>0.05217297673388838</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>0.001268337523021276</v>
+        <v>0.0006498516307903359</v>
       </c>
       <c r="E19">
-        <v>0.00786369264273191</v>
+        <v>0.001559643913896806</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19">
-        <v>0.05273160985195426</v>
+        <v>0.05291480272254764</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>0.0006164291374071919</v>
+        <v>0.0002252434171016504</v>
       </c>
       <c r="E20">
-        <v>0.00382186065192459</v>
+        <v>0.002297482854436833</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20">
-        <v>0.0529704367844372</v>
+        <v>0.05314004613964929</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1631,114 +1622,114 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>0.0002552581046763143</v>
+        <v>0.001822020429032439</v>
       </c>
       <c r="E21">
-        <v>0.001582600248993149</v>
+        <v>0.01129652666000112</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21">
-        <v>0.05329786722223058</v>
+        <v>0.0535089942834801</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>0.001354415055420169</v>
+        <v>0.001509742338031408</v>
       </c>
       <c r="E22">
-        <v>0.008397373343605047</v>
+        <v>0.00936040249579473</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
       <c r="G22">
-        <v>0.05330738032538453</v>
+        <v>0.0535644496340338</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>0.001569002872078753</v>
+        <v>0.002536780746872508</v>
       </c>
       <c r="E23">
-        <v>0.009727817806888268</v>
+        <v>0.01572804063060955</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
       <c r="G23">
-        <v>0.05347381717524045</v>
+        <v>0.05392843610106456</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>0.0006791939363480884</v>
+        <v>0.0005468384466515457</v>
       </c>
       <c r="E24">
-        <v>0.001630065447235412</v>
+        <v>0.00131241227196371</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
       <c r="G24">
-        <v>0.05349334184713703</v>
+        <v>0.05398074622537537</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>0.0009695616422525821</v>
+        <v>0.002671853830501622</v>
       </c>
       <c r="E25">
-        <v>0.00601128218196601</v>
+        <v>0.01656549374911005</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
       <c r="G25">
-        <v>0.05398638641263626</v>
+        <v>0.05418538536693622</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1746,344 +1737,298 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>0.001830200541544506</v>
+        <v>0.0004790924579090695</v>
       </c>
       <c r="E26">
-        <v>0.01134724335757594</v>
+        <v>0.002970373239036231</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
       <c r="G26">
-        <v>0.05427592271353972</v>
+        <v>0.05486748190448466</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>0.0007111573988267281</v>
+        <v>0.002542716833749049</v>
       </c>
       <c r="E27">
-        <v>0.001706777757184147</v>
+        <v>0.0157648443692441</v>
       </c>
       <c r="F27" t="s">
         <v>26</v>
       </c>
       <c r="G27">
-        <v>0.05428743198301672</v>
+        <v>0.05506814298809995</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>0.001192133872191277</v>
+        <v>0.0006655774966175516</v>
       </c>
       <c r="E28">
-        <v>0.01215976549635102</v>
+        <v>0.00412658047902882</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
       </c>
       <c r="G28">
-        <v>0.05468547571932831</v>
+        <v>0.05577460072323061</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>0.001759416109101231</v>
+        <v>0.002141364861156163</v>
       </c>
       <c r="E29">
-        <v>0.01090837987642763</v>
+        <v>0.01327646213916821</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
       </c>
       <c r="G29">
-        <v>0.05472985289353843</v>
+        <v>0.0562500061314699</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30">
-        <v>0.001539807696241829</v>
+        <v>0.002425334002546639</v>
       </c>
       <c r="E30">
-        <v>0.009546807716699341</v>
+        <v>0.02473840682597572</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
       </c>
       <c r="G30">
-        <v>0.05552619410887809</v>
+        <v>0.05640608022792201</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>0.001553073161159956</v>
+        <v>0.002409392107751734</v>
       </c>
       <c r="E31">
-        <v>0.01584134624383155</v>
+        <v>0.01493823106806075</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
       </c>
       <c r="G31">
-        <v>0.05584050514417668</v>
+        <v>0.05659477747468795</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>0.002384029679677273</v>
+        <v>0.001244505518452151</v>
       </c>
       <c r="E32">
-        <v>0.01478098401399909</v>
+        <v>0.007715934214403334</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
       </c>
       <c r="G32">
-        <v>0.056659952393217</v>
+        <v>0.05749451164992205</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>0.0006600375366518771</v>
+        <v>0.00243541531227779</v>
       </c>
       <c r="E33">
-        <v>0.004092232727241638</v>
+        <v>0.0150995749361223</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
       </c>
       <c r="G33">
-        <v>0.05901218647039075</v>
+        <v>0.05750355830037774</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>0.002043935414522029</v>
+        <v>0.002185685983323788</v>
       </c>
       <c r="E34">
-        <v>0.03208978600799585</v>
+        <v>0.03431526993818348</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
       </c>
       <c r="G34">
-        <v>0.06105612188491278</v>
+        <v>0.05796028670655441</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>0.0006766858601346128</v>
+        <v>0.0004944496934024801</v>
       </c>
       <c r="E35">
-        <v>0.0041954523328346</v>
+        <v>0.003065588099095377</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
       </c>
       <c r="G35">
-        <v>0.06628758061348948</v>
+        <v>0.0615368697785841</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>0.0003537769877427605</v>
+        <v>0.001827644480467011</v>
       </c>
       <c r="E36">
-        <v>0.005554298707561339</v>
+        <v>0.02869401834333207</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
       </c>
       <c r="G36">
-        <v>0.06664135760123224</v>
+        <v>0.06336451425905111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D37">
-        <v>0.000678777057249802</v>
+        <v>0.0006634325589094396</v>
       </c>
       <c r="E37">
-        <v>0.004208417754948773</v>
+        <v>0.004113281865238526</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
       <c r="G37">
-        <v>0.07074497671895393</v>
+        <v>0.06776926184480186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38">
-        <v>0.0004190608889079721</v>
+        <v>0.002743860874423308</v>
       </c>
       <c r="E38">
-        <v>0.006579255955855162</v>
+        <v>0.04307861572844594</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
       </c>
       <c r="G38">
-        <v>0.0711640376078619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39">
-        <v>0.0006808901498379548</v>
-      </c>
-      <c r="E39">
-        <v>0.001634136359611092</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39">
-        <v>0.07479430059264448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40">
-        <v>0.002314855610868993</v>
-      </c>
-      <c r="E40">
-        <v>0.02361152723086372</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40">
-        <v>0.07710915620351348</v>
+        <v>0.07051312271922518</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2124,830 +2069,830 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>0.01709003499068657</v>
+        <v>0.01759282889768155</v>
       </c>
       <c r="E2">
-        <v>0.3537637243072121</v>
+        <v>0.3641715581820081</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>0.01709003499068657</v>
+        <v>0.01759282889768155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>0.0001248824695126604</v>
+        <v>0.0001164631712718608</v>
       </c>
       <c r="E3">
-        <v>0.00258506711891207</v>
+        <v>0.002410787645327518</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3">
-        <v>0.01709003499068657</v>
+        <v>0.01759282889768155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>0.0001248824695126604</v>
+        <v>0.0001164631712718608</v>
       </c>
       <c r="E4">
-        <v>0.00258506711891207</v>
+        <v>0.002410787645327518</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4">
-        <v>0.01709003499068657</v>
+        <v>0.01759282889768155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>0.01740136870098069</v>
+        <v>0.01763207969430362</v>
       </c>
       <c r="E5">
-        <v>0.3602083321103003</v>
+        <v>0.3649840496720849</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5">
-        <v>0.01740136870098069</v>
+        <v>0.01763207969430362</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>0.0006196024770434046</v>
+        <v>0.0007515567309058262</v>
       </c>
       <c r="E6">
-        <v>0.01282577127479847</v>
+        <v>0.0155572243297506</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6">
-        <v>0.01740136870098069</v>
+        <v>0.01763207969430362</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>0.0006196024770434046</v>
+        <v>0.0007515567309058262</v>
       </c>
       <c r="E7">
-        <v>0.01282577127479847</v>
+        <v>0.0155572243297506</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7">
-        <v>0.01740136870098069</v>
+        <v>0.01763207969430362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>0.01857799905725679</v>
+        <v>0.01826991466662603</v>
       </c>
       <c r="E8">
-        <v>0.3845645804852155</v>
+        <v>0.3781872335991589</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8">
-        <v>0.01857799905725679</v>
+        <v>0.01826991466662603</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>1.437797953363148E-05</v>
+        <v>0.0004967548189853536</v>
       </c>
       <c r="E9">
-        <v>0.0002976241763461716</v>
+        <v>0.01028282475299682</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9">
-        <v>0.01857799905725679</v>
+        <v>0.01826991466662603</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>1.437797953363148E-05</v>
+        <v>0.0004967548189853536</v>
       </c>
       <c r="E10">
-        <v>0.0002976241763461716</v>
+        <v>0.01028282475299682</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10">
-        <v>0.01857799905725679</v>
+        <v>0.01826991466662603</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>0.01892682787083259</v>
+        <v>0.01895983431806599</v>
       </c>
       <c r="E11">
-        <v>0.3917853369262345</v>
+        <v>0.392468570383966</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="G11">
-        <v>0.01892682787083259</v>
+        <v>0.01895983431806599</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>0.0009129709818521568</v>
+        <v>0.0003612013324970079</v>
       </c>
       <c r="E12">
-        <v>0.01889849932433964</v>
+        <v>0.007476867582688063</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12">
-        <v>0.01892682787083259</v>
+        <v>0.01895983431806599</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>0.0009129709818521568</v>
+        <v>0.0003612013324970079</v>
       </c>
       <c r="E13">
-        <v>0.01889849932433964</v>
+        <v>0.007476867582688063</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13">
-        <v>0.01892682787083259</v>
+        <v>0.01895983431806599</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>0.01901351975458247</v>
+        <v>0.01900603299510232</v>
       </c>
       <c r="E14">
-        <v>0.393579858919857</v>
+        <v>0.3934248829986181</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14">
-        <v>0.01901351975458247</v>
+        <v>0.01900603299510232</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>2.626625015001533E-05</v>
+        <v>0.0007985807171123213</v>
       </c>
       <c r="E15">
-        <v>0.0005437113781053172</v>
+        <v>0.01653062084422505</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15">
-        <v>0.01901351975458247</v>
+        <v>0.01900603299510232</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>2.626625015001533E-05</v>
+        <v>0.0007985807171123213</v>
       </c>
       <c r="E16">
-        <v>0.0005437113781053172</v>
+        <v>0.01653062084422505</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16">
-        <v>0.01901351975458247</v>
+        <v>0.01900603299510232</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>0.01911613067754936</v>
+        <v>0.0194271711827539</v>
       </c>
       <c r="E17">
-        <v>0.3957039050252716</v>
+        <v>0.4021424434830057</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17">
-        <v>0.01911613067754936</v>
+        <v>0.0194271711827539</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>4.868501083790315E-05</v>
+        <v>0.0007303106011838315</v>
       </c>
       <c r="E18">
-        <v>0.001007779724344595</v>
+        <v>0.01511742944450531</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18">
-        <v>0.01911613067754936</v>
+        <v>0.0194271711827539</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>4.868501083790315E-05</v>
+        <v>0.0007303106011838315</v>
       </c>
       <c r="E19">
-        <v>0.001007779724344595</v>
+        <v>0.01511742944450531</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19">
-        <v>0.01911613067754936</v>
+        <v>0.0194271711827539</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>0.01743754165249099</v>
+        <v>0.01675176921455708</v>
       </c>
       <c r="E20">
-        <v>0.3609571122065635</v>
+        <v>0.3467616227413315</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20">
-        <v>0.03452757664317756</v>
+        <v>0.03502168388118311</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>0.0003302078405787057</v>
+        <v>0.0008752205995214269</v>
       </c>
       <c r="E21">
-        <v>0.006835302299979207</v>
+        <v>0.01811706641009354</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21">
-        <v>0.03452757664317756</v>
+        <v>0.03502168388118311</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>0.0003302078405787057</v>
+        <v>0.01780158459442778</v>
       </c>
       <c r="E22">
-        <v>0.006835302299979207</v>
+        <v>0.368492801104655</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
       <c r="G22">
-        <v>0.03452757664317756</v>
+        <v>0.03539441349210933</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>0.01840843684516373</v>
+        <v>0.0002668815869751028</v>
       </c>
       <c r="E23">
-        <v>0.3810546426948892</v>
+        <v>0.005524448850384628</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
       <c r="G23">
-        <v>0.03580980554614442</v>
+        <v>0.03539441349210933</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>0.0004972025002188014</v>
+        <v>0.01792317202388322</v>
       </c>
       <c r="E24">
-        <v>0.01029209175452919</v>
+        <v>0.3710096608943826</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
       <c r="G24">
-        <v>0.03580980554614442</v>
+        <v>0.03555525171818684</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>0.01814386553914701</v>
+        <v>0.0004085753431197294</v>
       </c>
       <c r="E25">
-        <v>0.3755780166603432</v>
+        <v>0.008457509602578399</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
       <c r="G25">
-        <v>0.0367218645964038</v>
+        <v>0.03555525171818684</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>0.0002245779210123929</v>
+        <v>0.01678183749522731</v>
       </c>
       <c r="E26">
-        <v>0.004648762964956533</v>
+        <v>0.3473840361512053</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
       <c r="G26">
-        <v>0.0367218645964038</v>
+        <v>0.0357416718132933</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>0.01910505313120562</v>
+        <v>0.0001808280366645583</v>
       </c>
       <c r="E27">
-        <v>0.3954745998159563</v>
+        <v>0.003743140358956358</v>
       </c>
       <c r="F27" t="s">
         <v>26</v>
       </c>
       <c r="G27">
-        <v>0.03811857288578809</v>
+        <v>0.0357416718132933</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>0.0008907432661577766</v>
+        <v>0.01796945432844485</v>
       </c>
       <c r="E28">
-        <v>0.01843838560946598</v>
+        <v>0.3719677045988084</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
       </c>
       <c r="G28">
-        <v>0.03811857288578809</v>
+        <v>0.03697548732354718</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>0.01904159594905998</v>
+        <v>0.0008395267524210164</v>
       </c>
       <c r="E29">
-        <v>0.3941610361455415</v>
+        <v>0.01737820377511504</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
       </c>
       <c r="G29">
-        <v>0.03815772662660934</v>
+        <v>0.03697548732354718</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30">
-        <v>0.0002395802949300509</v>
+        <v>0.01757830216449124</v>
       </c>
       <c r="E30">
-        <v>0.004959312105052053</v>
+        <v>0.3638708548049686</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
       </c>
       <c r="G30">
-        <v>0.03815772662660934</v>
+        <v>0.03700547334724513</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>0.01934154302234354</v>
+        <v>0.0003653204713169136</v>
       </c>
       <c r="E31">
-        <v>0.4003699405625114</v>
+        <v>0.007562133756260111</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
       </c>
       <c r="G31">
-        <v>0.03826837089317613</v>
+        <v>0.03700547334724513</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>0.0008501178285685694</v>
+        <v>0.0007815978043389685</v>
       </c>
       <c r="E32">
-        <v>0.01759743905136939</v>
+        <v>0.004064308582562636</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
       </c>
       <c r="G32">
-        <v>0.03826837089317613</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>0.0005866389032508929</v>
+        <v>0.0005436674463650885</v>
       </c>
       <c r="E33">
-        <v>0.003050522296904643</v>
+        <v>0.002827070721098461</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
       </c>
       <c r="G33">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>0.0004972025002188014</v>
+        <v>0.0008752205995214269</v>
       </c>
       <c r="E34">
-        <v>0.01029209175452919</v>
+        <v>0.01811706641009354</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
       </c>
       <c r="G34">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35">
-        <v>0.0009171711235663346</v>
+        <v>0.0002668815869751028</v>
       </c>
       <c r="E35">
-        <v>0.00476928984254494</v>
+        <v>0.005524448850384628</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
       </c>
       <c r="G35">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>0.0002245779210123929</v>
+        <v>0.0004085753431197294</v>
       </c>
       <c r="E36">
-        <v>0.004648762964956533</v>
+        <v>0.008457509602578399</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
       </c>
       <c r="G36">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>0.0008907432661577766</v>
+        <v>0.0001808280366645583</v>
       </c>
       <c r="E37">
-        <v>0.01843838560946598</v>
+        <v>0.003743140358956358</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
       <c r="G37">
-        <v>0.05030423540480082</v>
+        <v>0.05036357394523232</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2955,1241 +2900,1218 @@
         <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>0.0008087016861986651</v>
+        <v>0.0008603137248523344</v>
       </c>
       <c r="E38">
-        <v>0.004205248768233059</v>
+        <v>0.004473631369232139</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
       </c>
       <c r="G38">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>0.0001479202907007905</v>
+        <v>7.025150460441117E-05</v>
       </c>
       <c r="E39">
-        <v>0.0007691855116441107</v>
+        <v>0.0003653078239429381</v>
       </c>
       <c r="F39" t="s">
         <v>26</v>
       </c>
       <c r="G39">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D40">
-        <v>0.0002395802949300509</v>
+        <v>0.0008395267524210164</v>
       </c>
       <c r="E40">
-        <v>0.004959312105052053</v>
+        <v>0.01737820377511504</v>
       </c>
       <c r="F40" t="s">
         <v>26</v>
       </c>
       <c r="G40">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41">
-        <v>0.0008501178285685694</v>
+        <v>0.0003653204713169136</v>
       </c>
       <c r="E41">
-        <v>0.01759743905136939</v>
+        <v>0.007562133756260111</v>
       </c>
       <c r="F41" t="s">
         <v>26</v>
       </c>
       <c r="G41">
-        <v>0.05051904449878039</v>
+        <v>0.05045747976943707</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>0.0007709611392920159</v>
+        <v>0.0002768071759660921</v>
       </c>
       <c r="E42">
-        <v>0.004008997924318483</v>
+        <v>0.001439397315023679</v>
       </c>
       <c r="F42" t="s">
         <v>26</v>
       </c>
       <c r="G42">
-        <v>0.05125407142908645</v>
+        <v>0.05139165535419205</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D43">
-        <v>0.00078809941411601</v>
+        <v>0.0005950096687922405</v>
       </c>
       <c r="E43">
-        <v>0.004098116953403253</v>
+        <v>0.003094050277719651</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
       </c>
       <c r="G43">
-        <v>0.05146327232893298</v>
+        <v>0.05168697385444766</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>0.01731981401618911</v>
+        <v>0.01744613508187191</v>
       </c>
       <c r="E44">
-        <v>0.3585201501351145</v>
+        <v>0.3611349961947485</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
       <c r="G44">
-        <v>0.05184739065936667</v>
+        <v>0.05284054857398124</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45">
-        <v>0.0006914647230368811</v>
+        <v>0.0003321136534944499</v>
       </c>
       <c r="E45">
-        <v>0.01431331976686344</v>
+        <v>0.006874752627335112</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45">
-        <v>0.05184739065936667</v>
+        <v>0.05284054857398124</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>0.0006914647230368811</v>
+        <v>0.0003321136534944499</v>
       </c>
       <c r="E46">
-        <v>0.01431331976686344</v>
+        <v>0.006874752627335112</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
       <c r="G46">
-        <v>0.05184739065936667</v>
+        <v>0.05284054857398124</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D47">
-        <v>0.01764251289878454</v>
+        <v>0.01863062429527105</v>
       </c>
       <c r="E47">
-        <v>0.3652000170048399</v>
+        <v>0.3856539229121108</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
       </c>
       <c r="G47">
-        <v>0.05345231844492895</v>
+        <v>0.05365230817645417</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D48">
-        <v>0.0003757389721282813</v>
+        <v>0.00062633156277575</v>
       </c>
       <c r="E48">
-        <v>0.007777796723055423</v>
+        <v>0.01296506334945802</v>
       </c>
       <c r="F48" t="s">
         <v>26</v>
       </c>
       <c r="G48">
-        <v>0.05345231844492895</v>
+        <v>0.05365230817645417</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>0.0003757389721282813</v>
+        <v>0.00062633156277575</v>
       </c>
       <c r="E49">
-        <v>0.007777796723055423</v>
+        <v>0.01296506334945802</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
       </c>
       <c r="G49">
-        <v>0.05345231844492895</v>
+        <v>0.05365230817645417</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D50">
-        <v>0.01709665676548794</v>
+        <v>0.0186509079722396</v>
       </c>
       <c r="E50">
-        <v>0.3539007950456003</v>
+        <v>0.1902392613168438</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
       </c>
       <c r="G50">
-        <v>0.05525438339209728</v>
+        <v>0.05420615969042644</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>0.0005761688359889476</v>
+        <v>0.0004140431240210239</v>
       </c>
       <c r="E51">
-        <v>0.01192669490497122</v>
+        <v>0.004223239865014444</v>
       </c>
       <c r="F51" t="s">
         <v>26</v>
       </c>
       <c r="G51">
-        <v>0.05525438339209728</v>
+        <v>0.05420615969042644</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>0.0005761688359889476</v>
+        <v>0.0004140431240210239</v>
       </c>
       <c r="E52">
-        <v>0.01192669490497122</v>
+        <v>0.004223239865014444</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
       </c>
       <c r="G52">
-        <v>0.05525438339209728</v>
+        <v>0.05420615969042644</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D53">
-        <v>0.01712464184754669</v>
+        <v>0.01881994780005172</v>
       </c>
       <c r="E53">
-        <v>0.3544800862442165</v>
+        <v>0.1919634675605275</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
       </c>
       <c r="G53">
-        <v>0.05539301274072281</v>
+        <v>0.05456161961334502</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>0.0004852540284897187</v>
+        <v>2.644852890347221E-05</v>
       </c>
       <c r="E54">
-        <v>0.01004475838973718</v>
+        <v>0.0002697749948154165</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
       </c>
       <c r="G54">
-        <v>0.05539301274072281</v>
+        <v>0.05456161961334502</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>0.0004852540284897187</v>
+        <v>2.644852890347221E-05</v>
       </c>
       <c r="E55">
-        <v>0.01004475838973718</v>
+        <v>0.0002697749948154165</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
       </c>
       <c r="G55">
-        <v>0.05539301274072281</v>
+        <v>0.05456161961334502</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56">
-        <v>0.01868202020493405</v>
+        <v>0.01779255479974252</v>
       </c>
       <c r="E56">
-        <v>0.1905566060903273</v>
+        <v>0.3683058843546702</v>
       </c>
       <c r="F56" t="s">
         <v>26</v>
       </c>
       <c r="G56">
-        <v>0.05540388480133785</v>
+        <v>0.0547680421232897</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>0.0008718667872559122</v>
+        <v>0.0006654386114541812</v>
       </c>
       <c r="E57">
-        <v>0.008893041230010303</v>
+        <v>0.01377457925710155</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
       </c>
       <c r="G57">
-        <v>0.05540388480133785</v>
+        <v>0.0547680421232897</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>0.0008718667872559122</v>
+        <v>0.0006654386114541812</v>
       </c>
       <c r="E58">
-        <v>0.008893041230010303</v>
+        <v>0.01377457925710155</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
       </c>
       <c r="G58">
-        <v>0.05540388480133785</v>
+        <v>0.0547680421232897</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>0.01922949688664291</v>
+        <v>0.01859420763468576</v>
       </c>
       <c r="E59">
-        <v>0.1961408682437577</v>
+        <v>0.3849000980379953</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
       </c>
       <c r="G59">
-        <v>0.057348069772431</v>
+        <v>0.0555996809819309</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D60">
-        <v>0.0007032422413391987</v>
+        <v>0.0003272643490419204</v>
       </c>
       <c r="E60">
-        <v>0.007173070861659826</v>
+        <v>0.006774372025167751</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
       </c>
       <c r="G60">
-        <v>0.057348069772431</v>
+        <v>0.0555996809819309</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>0.0007032422413391987</v>
+        <v>0.0003272643490419204</v>
       </c>
       <c r="E61">
-        <v>0.007173070861659826</v>
+        <v>0.006774372025167751</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
       </c>
       <c r="G61">
-        <v>0.057348069772431</v>
+        <v>0.0555996809819309</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>0.01676893657498097</v>
+        <v>0.01714405482639646</v>
       </c>
       <c r="E62">
-        <v>0.1710431530648059</v>
+        <v>0.1748693592292439</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
       </c>
       <c r="G62">
-        <v>0.06861632723434764</v>
+        <v>0.07079636300285064</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63">
-        <v>0.000708055557243669</v>
+        <v>0.0001151268165893669</v>
       </c>
       <c r="E63">
-        <v>0.007222166683885423</v>
+        <v>0.001174293529211543</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
       </c>
       <c r="G63">
-        <v>0.06861632723434764</v>
+        <v>0.07079636300285064</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>0.000708055557243669</v>
+        <v>0.0001151268165893669</v>
       </c>
       <c r="E64">
-        <v>0.007222166683885423</v>
+        <v>0.001174293529211543</v>
       </c>
       <c r="F64" t="s">
         <v>26</v>
       </c>
       <c r="G64">
-        <v>0.06861632723434764</v>
+        <v>0.07079636300285064</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D65">
-        <v>0.01845930675096726</v>
+        <v>0.01859537987276185</v>
       </c>
       <c r="E65">
-        <v>0.1882849288598661</v>
+        <v>0.1896728747021709</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
       </c>
       <c r="G65">
-        <v>0.07191162519589622</v>
+        <v>0.0714359284467431</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D66">
-        <v>0.0002695478420406568</v>
+        <v>0.0002377127159801194</v>
       </c>
       <c r="E66">
-        <v>0.002749387988814699</v>
+        <v>0.002424669702997218</v>
       </c>
       <c r="F66" t="s">
         <v>26</v>
       </c>
       <c r="G66">
-        <v>0.07191162519589622</v>
+        <v>0.0714359284467431</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D67">
-        <v>0.0002695478420406568</v>
+        <v>0.0002377127159801194</v>
       </c>
       <c r="E67">
-        <v>0.002749387988814699</v>
+        <v>0.002424669702997218</v>
       </c>
       <c r="F67" t="s">
         <v>26</v>
       </c>
       <c r="G67">
-        <v>0.07191162519589622</v>
+        <v>0.0714359284467431</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D68">
-        <v>0.01703299665575644</v>
+        <v>0.01898012661121095</v>
       </c>
       <c r="E68">
-        <v>0.1737365658887156</v>
+        <v>0.1935972914343516</v>
       </c>
       <c r="F68" t="s">
         <v>26</v>
       </c>
       <c r="G68">
-        <v>0.07242600939647925</v>
+        <v>0.07318628630163738</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D69">
-        <v>0.0004248602330994955</v>
+        <v>0.0006774274459976891</v>
       </c>
       <c r="E69">
-        <v>0.004333574377614853</v>
+        <v>0.006909759949176428</v>
       </c>
       <c r="F69" t="s">
         <v>26</v>
       </c>
       <c r="G69">
-        <v>0.07242600939647925</v>
+        <v>0.07318628630163738</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D70">
-        <v>0.0004248602330994955</v>
+        <v>0.0006774274459976891</v>
       </c>
       <c r="E70">
-        <v>0.004333574377614853</v>
+        <v>0.006909759949176428</v>
       </c>
       <c r="F70" t="s">
         <v>26</v>
       </c>
       <c r="G70">
-        <v>0.07242600939647925</v>
+        <v>0.07318628630163738</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D71">
-        <v>0.0184295052387004</v>
+        <v>0.01865870121645615</v>
       </c>
       <c r="E71">
-        <v>0.187980953434744</v>
+        <v>0.1903187524078528</v>
       </c>
       <c r="F71" t="s">
         <v>26</v>
       </c>
       <c r="G71">
-        <v>0.07368388863079767</v>
+        <v>0.07322032082980118</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>0.000903425976975863</v>
+        <v>0.0002912035493208031</v>
       </c>
       <c r="E72">
-        <v>0.009214944965153802</v>
+        <v>0.002970276203072191</v>
       </c>
       <c r="F72" t="s">
         <v>26</v>
       </c>
       <c r="G72">
-        <v>0.07368388863079767</v>
+        <v>0.07322032082980118</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D73">
-        <v>0.01670366835490414</v>
+        <v>0.01864419849650713</v>
       </c>
       <c r="E73">
-        <v>0.1703774172200222</v>
+        <v>0.1901708246643728</v>
       </c>
       <c r="F73" t="s">
         <v>26</v>
       </c>
       <c r="G73">
-        <v>0.07405173812733513</v>
+        <v>0.07341224061979684</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D74">
-        <v>0.0006451958349319869</v>
+        <v>0.0003274652395807095</v>
       </c>
       <c r="E74">
-        <v>0.006580997516306266</v>
+        <v>0.003340145443723237</v>
       </c>
       <c r="F74" t="s">
         <v>26</v>
       </c>
       <c r="G74">
-        <v>0.07405173812733513</v>
+        <v>0.07341224061979684</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D75">
-        <v>0.000903425976975863</v>
+        <v>0.01917641022073917</v>
       </c>
       <c r="E75">
-        <v>0.009214944965153802</v>
+        <v>0.1955993842515395</v>
       </c>
       <c r="F75" t="s">
         <v>26</v>
       </c>
       <c r="G75">
-        <v>0.07411341044280653</v>
+        <v>0.07477609120267006</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D76">
-        <v>0.01884974322435898</v>
+        <v>0.0001174274746225442</v>
       </c>
       <c r="E76">
-        <v>0.1922673808884616</v>
+        <v>0.00119776024114995</v>
       </c>
       <c r="F76" t="s">
         <v>26</v>
       </c>
       <c r="G76">
-        <v>0.07425362802569684</v>
+        <v>0.07477609120267006</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D77">
-        <v>0.0006608037011340204</v>
+        <v>0.03386158328280908</v>
       </c>
       <c r="E77">
-        <v>0.006740197751567007</v>
+        <v>0.7009347739541479</v>
       </c>
       <c r="F77" t="s">
         <v>26</v>
       </c>
       <c r="G77">
-        <v>0.07425362802569684</v>
+        <v>0.0842251572280414</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D78">
-        <v>0.0334933611069712</v>
+        <v>0.03420604436786026</v>
       </c>
       <c r="E78">
-        <v>0.6933125749143038</v>
+        <v>0.7080651184147074</v>
       </c>
       <c r="F78" t="s">
         <v>26</v>
       </c>
       <c r="G78">
-        <v>0.08495663343590418</v>
+        <v>0.08466352413729733</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D79">
-        <v>0.03456655645003923</v>
+        <v>0.03469876161374263</v>
       </c>
       <c r="E79">
-        <v>0.715527718515812</v>
+        <v>0.7182643654044725</v>
       </c>
       <c r="F79" t="s">
         <v>26</v>
       </c>
       <c r="G79">
-        <v>0.08508560094881962</v>
+        <v>0.0851562413831797</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D80">
-        <v>0.03396867979102482</v>
+        <v>0.03581201383241196</v>
       </c>
       <c r="E80">
-        <v>0.7031516716742137</v>
+        <v>0.7413086863309275</v>
       </c>
       <c r="F80" t="s">
         <v>26</v>
       </c>
       <c r="G80">
-        <v>0.08522275122011126</v>
+        <v>0.08617558777764428</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D81">
-        <v>0.03515390911963721</v>
+        <v>0.03529977825968676</v>
       </c>
       <c r="E81">
-        <v>0.7276859187764902</v>
+        <v>0.7307054099755159</v>
       </c>
       <c r="F81" t="s">
         <v>26</v>
       </c>
       <c r="G81">
-        <v>0.08545814452443803</v>
+        <v>0.08669143361387881</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D82">
-        <v>0.01703941379275958</v>
+        <v>0.03555538178071454</v>
       </c>
       <c r="E82">
-        <v>0.1738020206861477</v>
+        <v>0.7359964028607909</v>
       </c>
       <c r="F82" t="s">
         <v>26</v>
       </c>
       <c r="G82">
-        <v>0.08565574102710721</v>
+        <v>0.08724235563516219</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D83">
-        <v>0.0005892988111191941</v>
+        <v>0.01777323958887049</v>
       </c>
       <c r="E83">
-        <v>0.00601084787341578</v>
+        <v>0.1812870438064789</v>
       </c>
       <c r="F83" t="s">
         <v>26</v>
       </c>
       <c r="G83">
-        <v>0.08565574102710721</v>
+        <v>0.08856960259172113</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D84">
-        <v>0.03557050895484156</v>
+        <v>0.0002089024755646892</v>
       </c>
       <c r="E84">
-        <v>0.7363095353652203</v>
+        <v>0.00213080525075983</v>
       </c>
       <c r="F84" t="s">
         <v>26</v>
       </c>
       <c r="G84">
-        <v>0.08587474435964237</v>
+        <v>0.08856960259172113</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D85">
-        <v>0.03602349099612942</v>
+        <v>0.01717402136212898</v>
       </c>
       <c r="E85">
-        <v>0.745686263619879</v>
+        <v>0.1751750178937156</v>
       </c>
       <c r="F85" t="s">
         <v>26</v>
       </c>
       <c r="G85">
-        <v>0.08654253549490981</v>
+        <v>0.08860994980887207</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D86">
-        <v>0.01685684457859919</v>
+        <v>3.218955641803306E-05</v>
       </c>
       <c r="E86">
-        <v>0.1719398147017117</v>
+        <v>0.0003283334754639372</v>
       </c>
       <c r="F86" t="s">
         <v>26</v>
       </c>
       <c r="G86">
-        <v>0.08876846977449541</v>
+        <v>0.08860994980887207</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D87">
-        <v>0.0004076885031462751</v>
+        <v>0.01708974166415577</v>
       </c>
       <c r="E87">
-        <v>0.004158422732092006</v>
+        <v>0.1743153649743889</v>
       </c>
       <c r="F87" t="s">
         <v>26</v>
       </c>
       <c r="G87">
-        <v>0.08876846977449541</v>
+        <v>0.09031006249395696</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D88">
-        <v>0.01836640704954222</v>
+        <v>0.0005217746436373793</v>
       </c>
       <c r="E88">
-        <v>0.1873373519053307</v>
+        <v>0.005322101365101269</v>
       </c>
       <c r="F88" t="s">
         <v>26</v>
       </c>
       <c r="G88">
-        <v>0.09079241644602147</v>
+        <v>0.09031006249395696</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D89">
-        <v>7.708941585327767E-05</v>
+        <v>0.01738372005619149</v>
       </c>
       <c r="E89">
-        <v>0.0007863120417034322</v>
+        <v>0.1773139445731532</v>
       </c>
       <c r="F89" t="s">
         <v>26</v>
       </c>
       <c r="G89">
-        <v>0.09079241644602147</v>
+        <v>0.09057000635782887</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D90">
-        <v>0.01716004859466647</v>
+        <v>0.0002710605957479568</v>
       </c>
       <c r="E90">
-        <v>0.1750324956655979</v>
+        <v>0.002764818076629159</v>
       </c>
       <c r="F90" t="s">
         <v>26</v>
       </c>
       <c r="G90">
-        <v>0.09084393722546413</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91">
-        <v>0.0004665890688117028</v>
-      </c>
-      <c r="E91">
-        <v>0.004759208501879368</v>
-      </c>
-      <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91">
-        <v>0.09084393722546413</v>
+        <v>0.09057000635782887</v>
       </c>
     </row>
   </sheetData>
@@ -4207,25 +4129,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4233,25 +4155,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>12.72770489631147</v>
+        <v>12.73973603736548</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.72770489631147</v>
+        <v>12.73973603736548</v>
       </c>
       <c r="F2">
-        <v>0.2520337603229995</v>
+        <v>0.2522720007399105</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2520337603229995</v>
+        <v>0.2522720007399105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4259,25 +4181,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>0.1546458499182373</v>
+        <v>0.1546434375912047</v>
       </c>
       <c r="D3">
-        <v>0.1609797961737525</v>
+        <v>0.1963755563580406</v>
       </c>
       <c r="E3">
-        <v>0.3156256460919898</v>
+        <v>0.3510189939492453</v>
       </c>
       <c r="F3">
-        <v>0.02494287901907053</v>
+        <v>0.02494248993406527</v>
       </c>
       <c r="G3">
-        <v>0.01965337370544821</v>
+        <v>0.02034312117107945</v>
       </c>
       <c r="H3">
-        <v>0.04459625272451874</v>
+        <v>0.04528561110514472</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4285,25 +4207,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <v>4.342575044162968</v>
+        <v>4.351538523030142</v>
       </c>
       <c r="D4">
-        <v>8.591994682704049</v>
+        <v>8.57453467229058</v>
       </c>
       <c r="E4">
-        <v>12.93456972686702</v>
+        <v>12.92607319532072</v>
       </c>
       <c r="F4">
-        <v>0.2127959989757681</v>
+        <v>0.2125612104621444</v>
       </c>
       <c r="G4">
-        <v>0.5287902759971059</v>
+        <v>0.5272442305502039</v>
       </c>
       <c r="H4">
-        <v>0.7415862749728741</v>
+        <v>0.7398054410123482</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4311,25 +4233,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>17.22492579039268</v>
+        <v>17.24591799798683</v>
       </c>
       <c r="D5">
-        <v>8.752974478877801</v>
+        <v>8.770910228648621</v>
       </c>
       <c r="E5">
-        <v>25.97790026927048</v>
+        <v>26.01682822663545</v>
       </c>
       <c r="F5">
-        <v>0.4897726383178382</v>
+        <v>0.4897757011361202</v>
       </c>
       <c r="G5">
-        <v>0.5484436497025541</v>
+        <v>0.5475873517212834</v>
       </c>
       <c r="H5">
-        <v>1.038216288020392</v>
+        <v>1.037363052857403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4337,25 +4259,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>17.22492579039268</v>
+        <v>17.24591799798683</v>
       </c>
       <c r="D6">
-        <v>8.752974478877801</v>
+        <v>8.770910228648621</v>
       </c>
       <c r="E6">
-        <v>12.98895013463524</v>
+        <v>13.00841411331773</v>
       </c>
       <c r="F6">
-        <v>0.4897726383178382</v>
+        <v>0.4897757011361202</v>
       </c>
       <c r="G6">
-        <v>0.5484436497025541</v>
+        <v>0.5475873517212834</v>
       </c>
       <c r="H6">
-        <v>0.5191081440101961</v>
+        <v>0.5186815264287017</v>
       </c>
     </row>
   </sheetData>

--- a/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
+++ b/python/demos/double_track_results/double_track_vehicle_log_crane_1_hostler_10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="221">
   <si>
     <t>vehicle_id</t>
   </si>
@@ -61,39 +61,99 @@
     <t>unload_IC_2-Train-9</t>
   </si>
   <si>
+    <t>unload_IC_3-Train-19</t>
+  </si>
+  <si>
     <t>unload_IC_3-Train-9</t>
   </si>
   <si>
-    <t>unload_IC_3-Train-19</t>
+    <t>load_container(type='Outbound', id=1, train_id=9)</t>
   </si>
   <si>
     <t>load_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
-    <t>load_container(type='Outbound', id=4, train_id=19)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=5, train_id=19)</t>
-  </si>
-  <si>
-    <t>load_container(type='Outbound', id=3, train_id=19)</t>
-  </si>
-  <si>
     <t>unload_IC_1-Train-12</t>
   </si>
   <si>
+    <t>unload_IC_1-Train-2</t>
+  </si>
+  <si>
+    <t>unload_IC_2-Train-2</t>
+  </si>
+  <si>
     <t>unload_IC_2-Train-12</t>
   </si>
   <si>
+    <t>unload_IC_3-Train-2</t>
+  </si>
+  <si>
     <t>unload_IC_3-Train-12</t>
   </si>
   <si>
+    <t>unload_IC_4-Train-2</t>
+  </si>
+  <si>
     <t>unload_IC_4-Train-12</t>
   </si>
   <si>
+    <t>load_container(type='Outbound', id=1, train_id=12)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=2)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=3, train_id=12)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=1, train_id=2)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=4, train_id=2)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=3, train_id=2)</t>
+  </si>
+  <si>
+    <t>unload_IC_1-Train-7</t>
+  </si>
+  <si>
+    <t>unload_IC_1-Train-70</t>
+  </si>
+  <si>
+    <t>unload_IC_2-Train-7</t>
+  </si>
+  <si>
+    <t>unload_IC_2-Train-70</t>
+  </si>
+  <si>
+    <t>unload_IC_3-Train-7</t>
+  </si>
+  <si>
+    <t>unload_IC_3-Train-70</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=5, train_id=70)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
+    <t>load_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
     <t>full</t>
   </si>
   <si>
@@ -121,9 +181,15 @@
     <t>hostler(type='electric', id=6)</t>
   </si>
   <si>
+    <t>hostler(type='electric', id=8)</t>
+  </si>
+  <si>
     <t>hostler(type='electric', id=7)</t>
   </si>
   <si>
+    <t>hostler(type='electric', id=9)</t>
+  </si>
+  <si>
     <t>pickup_IC_1-Train-9</t>
   </si>
   <si>
@@ -136,97 +202,235 @@
     <t>pickup_IC_2-Train-19</t>
   </si>
   <si>
+    <t>dropoff_IC_1-Train-19</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-19</t>
+  </si>
+  <si>
     <t>dropoff_IC_1-Train-9</t>
   </si>
   <si>
     <t>dropoff_IC_2-Train-9</t>
   </si>
   <si>
-    <t>dropoff_IC_1-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_IC_2-Train-19</t>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-19</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-9</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
   </si>
   <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=9)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_IC_3-Train-9</t>
-  </si>
-  <si>
-    <t>dropoff_IC_3-Train-9</t>
+    <t>dropoff_container(type='Outbound', id=1, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=9)</t>
   </si>
   <si>
     <t>pickup_OC_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
-    <t>pickup_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_IC_3-Train-19</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=1, train_id=9)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=5, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=4, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=4, train_id=9)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=19)</t>
+    <t>back_parking</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=2)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=3, train_id=12)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=12)</t>
   </si>
   <si>
     <t>dropoff_container(type='Outbound', id=1, train_id=19)</t>
   </si>
   <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=2, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=4, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=5, train_id=19)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=3, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_container(type='Outbound', id=3, train_id=19)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=2, train_id=9)</t>
-  </si>
-  <si>
-    <t>back_parking</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=3, train_id=9)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=5, train_id=9)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=5, train_id=9)</t>
-  </si>
-  <si>
-    <t>pickup_OC_container(type='Outbound', id=1, train_id=12)</t>
-  </si>
-  <si>
-    <t>dropoff_OC_container(type='Outbound', id=1, train_id=12)</t>
+    <t>dropoff_container(type='Outbound', id=4, train_id=12)</t>
+  </si>
+  <si>
+    <t>dropoff_OC_container(type='Outbound', id=2, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_IC_1-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC_1-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC_2-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC_2-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_1-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_1-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-2</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_IC_4-Train-12</t>
+  </si>
+  <si>
+    <t>dropoff_IC_4-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=2)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=70)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=3, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=5, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=70)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=3, train_id=2)</t>
+  </si>
+  <si>
+    <t>pickup_IC_1-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_IC_1-Train-70</t>
+  </si>
+  <si>
+    <t>pickup_IC_2-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_IC_2-Train-70</t>
+  </si>
+  <si>
+    <t>dropoff_IC_1-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_IC_1-Train-70</t>
+  </si>
+  <si>
+    <t>dropoff_IC_2-Train-70</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-7</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=2, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=3, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_IC_3-Train-70</t>
+  </si>
+  <si>
+    <t>dropoff_IC_3-Train-70</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=1, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=4, train_id=7)</t>
+  </si>
+  <si>
+    <t>pickup_OC_container(type='Outbound', id=5, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=3, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=2, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=5, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=1, train_id=7)</t>
+  </si>
+  <si>
+    <t>dropoff_container(type='Outbound', id=4, train_id=7)</t>
   </si>
   <si>
     <t>empty</t>
@@ -235,148 +439,211 @@
     <t>loaded</t>
   </si>
   <si>
+    <t>truck(type='Diesel', id=0, train_id=9)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=70)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=12)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=2)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=0, train_id=7)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=0, train_id=19)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=0, train_id=7)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=70)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=2)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=9)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=0, train_id=12)</t>
+    <t>truck(type='Diesel', id=1, train_id=19)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=1, train_id=9)</t>
+  </si>
+  <si>
+    <t>truck(type='Electric', id=2, train_id=19)</t>
+  </si>
+  <si>
+    <t>truck(type='Diesel', id=1, train_id=2)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=1, train_id=12)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=1, train_id=19)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=1, train_id=9)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=1, train_id=2)</t>
+    <t>truck(type='Electric', id=2, train_id=9)</t>
+  </si>
+  <si>
+    <t>truck(type='Electric', id=2, train_id=2)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=1, train_id=70)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=2, train_id=12)</t>
+  </si>
+  <si>
     <t>truck(type='Diesel', id=1, train_id=7)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=2, train_id=9)</t>
-  </si>
-  <si>
-    <t>truck(type='Diesel', id=2, train_id=19)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=2, train_id=12)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=2, train_id=2)</t>
+    <t>truck(type='Diesel', id=2, train_id=7)</t>
   </si>
   <si>
     <t>truck(type='Diesel', id=2, train_id=70)</t>
   </si>
   <si>
-    <t>truck(type='Diesel', id=2, train_id=7)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=3, train_id=9)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=3, train_id=19)</t>
-  </si>
-  <si>
     <t>truck(type='Electric', id=3, train_id=12)</t>
   </si>
   <si>
+    <t>truck(type='Electric', id=3, train_id=7)</t>
+  </si>
+  <si>
     <t>truck(type='Electric', id=3, train_id=2)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=3, train_id=70)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=3, train_id=7)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=4, train_id=19)</t>
-  </si>
-  <si>
-    <t>truck(type='Electric', id=4, train_id=9)</t>
+    <t>truck(type='Electric', id=4, train_id=70)</t>
   </si>
   <si>
     <t>truck(type='Electric', id=4, train_id=7)</t>
   </si>
   <si>
-    <t>truck(type='Electric', id=4, train_id=70)</t>
-  </si>
-  <si>
     <t>entry_OC_1</t>
   </si>
   <si>
     <t>dropoff_OC_1</t>
   </si>
   <si>
+    <t>entry_OC_3</t>
+  </si>
+  <si>
+    <t>dropoff_OC_3</t>
+  </si>
+  <si>
+    <t>entry_OC_2</t>
+  </si>
+  <si>
+    <t>dropoff_OC_2</t>
+  </si>
+  <si>
+    <t>entry_OC_4</t>
+  </si>
+  <si>
+    <t>dropoff_OC_4</t>
+  </si>
+  <si>
+    <t>pass_gate</t>
+  </si>
+  <si>
+    <t>pickup_IC-1-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC-1-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_IC-2-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC-2-Train-9</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-19</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-9</t>
+  </si>
+  <si>
     <t>entry_OC_5</t>
   </si>
   <si>
     <t>dropoff_OC_5</t>
   </si>
   <si>
-    <t>entry_OC_4</t>
-  </si>
-  <si>
-    <t>dropoff_OC_4</t>
-  </si>
-  <si>
-    <t>entry_OC_2</t>
-  </si>
-  <si>
-    <t>dropoff_OC_2</t>
-  </si>
-  <si>
-    <t>entry_OC_3</t>
-  </si>
-  <si>
-    <t>dropoff_OC_3</t>
-  </si>
-  <si>
-    <t>pickup_IC-1-Train-9</t>
-  </si>
-  <si>
-    <t>pickup_IC-1-Train-19</t>
-  </si>
-  <si>
-    <t>pickup_IC-2-Train-19</t>
-  </si>
-  <si>
-    <t>pickup_IC-2-Train-9</t>
-  </si>
-  <si>
-    <t>pickup_IC-3-Train-9</t>
-  </si>
-  <si>
-    <t>pickup_IC-3-Train-19</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_1-Train-9</t>
-  </si>
-  <si>
-    <t>leave_gate_IC_2-Train-19</t>
+    <t>leave_gate_IC_2-Train-9</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_1-Train-19</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_3-Train-19</t>
   </si>
   <si>
     <t>leave_gate_IC_3-Train-9</t>
   </si>
   <si>
-    <t>leave_gate_IC_3-Train-19</t>
+    <t>pickup_IC-1-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC-1-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC-2-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC-2-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC-4-Train-2</t>
+  </si>
+  <si>
+    <t>pickup_IC-4-Train-12</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_3-Train-12</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_2-Train-12</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_1-Train-2</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_2-Train-2</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_4-Train-2</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_4-Train-12</t>
+  </si>
+  <si>
+    <t>pickup_IC-1-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_IC-1-Train-70</t>
+  </si>
+  <si>
+    <t>pickup_IC-2-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_IC-2-Train-70</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-7</t>
+  </si>
+  <si>
+    <t>pickup_IC-3-Train-70</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_1-Train-7</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_2-Train-70</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_3-Train-70</t>
+  </si>
+  <si>
+    <t>leave_gate_IC_3-Train-7</t>
   </si>
   <si>
     <t>Vehicle</t>
@@ -770,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,19 +1074,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>0.01666889082619859</v>
+        <v>0.01678284755939434</v>
       </c>
       <c r="E2">
-        <v>0.8417789867230286</v>
+        <v>0.8475338017494142</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>0.01666889082619859</v>
+        <v>0.01678284755939434</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -830,19 +1097,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>0.01685488889638669</v>
+        <v>0.0168301426959425</v>
       </c>
       <c r="E3">
-        <v>0.851171889267528</v>
+        <v>0.8499222061450963</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>0.01685488889638669</v>
+        <v>0.0168301426959425</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -853,19 +1120,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>0.01688452309476828</v>
+        <v>0.01686113383228689</v>
       </c>
       <c r="E4">
-        <v>0.8526684162857979</v>
+        <v>0.8514872585304881</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>0.03355341392096686</v>
+        <v>0.03364398139168123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -876,65 +1143,65 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>0.01673169362418536</v>
+        <v>0.01685043508595254</v>
       </c>
       <c r="E5">
-        <v>0.8449505280213604</v>
+        <v>0.8509469718406035</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>0.03358658252057205</v>
+        <v>0.03368057778189504</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>0.01677699142466027</v>
+        <v>0.01684930394835334</v>
       </c>
       <c r="E6">
-        <v>0.8472380669453439</v>
+        <v>0.8508898493918439</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>0.05036357394523232</v>
+        <v>0.05049328534003458</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>0.01690406584847021</v>
+        <v>0.0168595614201937</v>
       </c>
       <c r="E7">
-        <v>0.8536553253477455</v>
+        <v>0.8514078517197819</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0.05045747976943707</v>
+        <v>0.05054013920208875</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -945,19 +1212,19 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>0.01692807858809468</v>
+        <v>0.01669674530671986</v>
       </c>
       <c r="E8">
-        <v>0.8548679686987815</v>
+        <v>0.843185637989353</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>0.07317808471956458</v>
+        <v>0.07059797403274064</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -968,111 +1235,111 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>0.01685054821975738</v>
+        <v>0.01667557076633336</v>
       </c>
       <c r="E9">
-        <v>0.8509526850977478</v>
+        <v>0.8421163236998348</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>0.09002863293932196</v>
+        <v>0.07189412090912724</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>0.01676850033525259</v>
+        <v>0.01687492132392184</v>
       </c>
       <c r="E10">
-        <v>0.8468092669302559</v>
+        <v>0.8521835268580529</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>0.1067971332745746</v>
+        <v>1.016874921323922</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>0.01692174966095851</v>
+        <v>0.01691535816941721</v>
       </c>
       <c r="E11">
-        <v>0.8545483578784049</v>
+        <v>0.8542255875555692</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>0.1237188829355331</v>
+        <v>1.016915358169417</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>0.01693674045150441</v>
+        <v>0.01677894620895448</v>
       </c>
       <c r="E12">
-        <v>0.8553053928009728</v>
+        <v>0.8473367835522013</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>0.1406556233870375</v>
+        <v>1.033694304378372</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>0.01691351644260008</v>
+        <v>0.01691148415564894</v>
       </c>
       <c r="E13">
-        <v>0.8541325803513039</v>
+        <v>0.8540299498602716</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>1.0169135164426</v>
+        <v>1.033786405479571</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1083,42 +1350,42 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>0.01667805334637388</v>
+        <v>0.01669147865723384</v>
       </c>
       <c r="E14">
-        <v>0.8422416939918809</v>
+        <v>0.8429196721903089</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>1.033591569788974</v>
+        <v>1.050385783035606</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>0.01669169098499533</v>
+        <v>0.01679898619511155</v>
       </c>
       <c r="E15">
-        <v>0.8429303947422642</v>
+        <v>0.8483488028531333</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>1.050283260773969</v>
+        <v>1.050585391674682</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1129,19 +1396,479 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>0.0169037393922031</v>
+      </c>
+      <c r="E16">
+        <v>0.8536388393062567</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <v>1.067289522427809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="D16">
-        <v>0.01676206899570425</v>
-      </c>
-      <c r="E16">
-        <v>0.8464844842830648</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>0.01673647523208997</v>
+      </c>
+      <c r="E17">
+        <v>0.8451919992205433</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>1.067321866906772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="G16">
-        <v>1.067045329769673</v>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0.01694188817650621</v>
+      </c>
+      <c r="E18">
+        <v>0.8555653529135635</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>1.086014027392701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>0.01689386309104423</v>
+      </c>
+      <c r="E19">
+        <v>0.8531400860977336</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>1.089133252285464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0.01688749996808004</v>
+      </c>
+      <c r="E20">
+        <v>0.8528187483880421</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>1.102901527360781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>0.01690170647980757</v>
+      </c>
+      <c r="E21">
+        <v>0.8535361772302825</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>1.106034958765271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>0.01673106409577103</v>
+      </c>
+      <c r="E22">
+        <v>0.8449187368364373</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22">
+        <v>1.119632591456552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>0.01680381904785929</v>
+      </c>
+      <c r="E23">
+        <v>0.8485928619168942</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>1.12283877781313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>0.01681730419694922</v>
+      </c>
+      <c r="E24">
+        <v>0.8492738619459353</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>1.136449895653501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>0.01678042778127661</v>
+      </c>
+      <c r="E25">
+        <v>0.8474116029544688</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>1.139619205594407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>0.01678347469835908</v>
+      </c>
+      <c r="E26">
+        <v>0.8475654722671333</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>2.016783474698359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>0.01694026834646977</v>
+      </c>
+      <c r="E27">
+        <v>0.8554835514967236</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27">
+        <v>2.01694026834647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0.0167871362032152</v>
+      </c>
+      <c r="E28">
+        <v>0.8477503782623674</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28">
+        <v>2.033570610901574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>0.01672869793652913</v>
+      </c>
+      <c r="E29">
+        <v>0.8447992457947212</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29">
+        <v>2.033668966282999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>0.01689678366173454</v>
+      </c>
+      <c r="E30">
+        <v>0.8532875749175941</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30">
+        <v>2.050467394563309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>0.01688806296293201</v>
+      </c>
+      <c r="E31">
+        <v>0.8528471796280663</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>2.050557029245931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>0.01675423650087453</v>
+      </c>
+      <c r="E32">
+        <v>0.8460889432941636</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32">
+        <v>2.068626332005425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>0.01691448150089053</v>
+      </c>
+      <c r="E33">
+        <v>0.8541813157949719</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33">
+        <v>2.085540813506316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>0.01686068717165954</v>
+      </c>
+      <c r="E34">
+        <v>0.851464702168807</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34">
+        <v>2.102401500677975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>0.01680479559130844</v>
+      </c>
+      <c r="E35">
+        <v>0.8486421773610764</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>2.119206296269284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>0.01674646885424407</v>
+      </c>
+      <c r="E36">
+        <v>0.8456966771393256</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <v>2.135952765123528</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1182,105 +1909,105 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>0.001410791382135251</v>
+        <v>0.001297336709954671</v>
       </c>
       <c r="E2">
-        <v>0.008746906569238558</v>
+        <v>0.008043487601718961</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>0.01764035679596495</v>
+        <v>0.01769143804021544</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>0.00151704028685842</v>
+        <v>0.001357268705028201</v>
       </c>
       <c r="E3">
-        <v>0.009405649778522202</v>
+        <v>0.008415065971174843</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>0.0176716931644495</v>
+        <v>0.01779253707422995</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D4">
-        <v>0.001326706720626741</v>
+        <v>0.001492534462786429</v>
       </c>
       <c r="E4">
-        <v>0.008225581667885794</v>
+        <v>0.009253713669275861</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>0.0344983546525038</v>
+        <v>0.03470320680777988</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D5">
-        <v>0.001612644628752714</v>
+        <v>0.001705106766352685</v>
       </c>
       <c r="E5">
-        <v>0.009998396698266829</v>
+        <v>0.01057166195138665</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>0.03467097544913834</v>
+        <v>0.03491934153442922</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1289,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>0.05036357394523232</v>
+        <v>0.05049328534003458</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1312,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0.05036357394523232</v>
+        <v>0.05049328534003458</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1335,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>0.05045747976943707</v>
+        <v>0.05054013920208875</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1358,677 +2085,2126 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>0.05045747976943707</v>
+        <v>0.05054013920208875</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D10">
-        <v>0.0001999594090557441</v>
+        <v>0.0005117492004620313</v>
       </c>
       <c r="E10">
-        <v>0.001239748336145613</v>
+        <v>0.003172845042864594</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>0.05056353335428806</v>
+        <v>0.05100503454049661</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>0.0003928957172392034</v>
+        <v>0.0009725075573504576</v>
       </c>
       <c r="E11">
-        <v>0.002435953446883061</v>
+        <v>0.006029546855572838</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>0.05085037548667627</v>
+        <v>0.05120742393918724</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>0.001416931952165568</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.008784978103426525</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>0.05139165535419205</v>
+        <v>0.05120742393918724</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0006850407593248398</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.004247252707814007</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>0.05139165535419205</v>
+        <v>0.05122517996141358</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>0.001248049320194499</v>
+        <v>0.002401713105645856</v>
       </c>
       <c r="E14">
-        <v>0.007737905785205897</v>
+        <v>0.01489062125500431</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>0.05161162326542681</v>
+        <v>0.05144035266824855</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>0.001725522065391316</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01069823680542616</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>0.05168697385444766</v>
+        <v>0.05144035266824855</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0009122479489467439</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.005655937283469812</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>0.05168697385444766</v>
+        <v>0.05145238715103549</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D17">
-        <v>0.0004987696383062726</v>
+        <v>0.001491130903231678</v>
       </c>
       <c r="E17">
-        <v>0.00309237175749889</v>
+        <v>0.009245011600036403</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G17">
-        <v>0.05171805059111472</v>
+        <v>0.05198441624326625</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D18">
-        <v>0.001715496964451312</v>
+        <v>0.0006335325613223084</v>
       </c>
       <c r="E18">
-        <v>0.01063608117959813</v>
+        <v>0.003927901880198312</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G18">
-        <v>0.05217297673388838</v>
+        <v>0.0527242528235482</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D19">
-        <v>0.0006498516307903359</v>
+        <v>0.0005104803638020933</v>
       </c>
       <c r="E19">
-        <v>0.001559643913896806</v>
+        <v>0.003164978255572978</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>0.05291480272254764</v>
+        <v>0.05278647120751418</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D20">
-        <v>0.0002252434171016504</v>
+        <v>0.001428059439434098</v>
       </c>
       <c r="E20">
-        <v>0.002297482854436833</v>
+        <v>0.008853968524491407</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>0.05314004613964929</v>
+        <v>0.05286841210768264</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D21">
-        <v>0.001822020429032439</v>
+        <v>0.0003232543924440722</v>
       </c>
       <c r="E21">
-        <v>0.01129652666000112</v>
+        <v>0.002004177233153248</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>0.0535089942834801</v>
+        <v>0.05304750721599227</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D22">
-        <v>0.001509742338031408</v>
+        <v>0.0007022460259688035</v>
       </c>
       <c r="E22">
-        <v>0.00936040249579473</v>
+        <v>0.001685390462325128</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G22">
-        <v>0.0535644496340338</v>
+        <v>0.05351797576233391</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D23">
-        <v>0.002536780746872508</v>
+        <v>0.001951455378342058</v>
       </c>
       <c r="E23">
-        <v>0.01572804063060955</v>
+        <v>0.01209902334572076</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>0.05392843610106456</v>
+        <v>0.05361435762627892</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D24">
-        <v>0.0005468384466515457</v>
+        <v>0.002423391887162691</v>
       </c>
       <c r="E24">
-        <v>0.00131241227196371</v>
+        <v>0.01502502970040868</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G24">
-        <v>0.05398074622537537</v>
+        <v>0.05363081582634993</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D25">
-        <v>0.002671853830501622</v>
+        <v>0.0008799264268108823</v>
       </c>
       <c r="E25">
-        <v>0.01656549374911005</v>
+        <v>0.00545554384622747</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>0.05418538536693622</v>
+        <v>0.05366639763432506</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D26">
-        <v>0.0004790924579090695</v>
+        <v>0.002219952123448546</v>
       </c>
       <c r="E26">
-        <v>0.002970373239036231</v>
+        <v>0.01376370316538099</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G26">
-        <v>0.05486748190448466</v>
+        <v>0.05390122872602078</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D27">
-        <v>0.002542716833749049</v>
+        <v>0.0002911305731041051</v>
       </c>
       <c r="E27">
-        <v>0.0157648443692441</v>
+        <v>0.001805009553245452</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G27">
-        <v>0.05506814298809995</v>
+        <v>0.05390548819938303</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D28">
-        <v>0.0006655774966175516</v>
+        <v>0.0008819857652436672</v>
       </c>
       <c r="E28">
-        <v>0.00412658047902882</v>
+        <v>0.005468311744510737</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G28">
-        <v>0.05577460072323061</v>
+        <v>0.05424237286179238</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>0.002141364861156163</v>
+        <v>0.0007144987762266781</v>
       </c>
       <c r="E29">
-        <v>0.01327646213916821</v>
+        <v>0.004429892412605404</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G29">
-        <v>0.0562500061314699</v>
+        <v>0.05495687163801907</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D30">
-        <v>0.002425334002546639</v>
+        <v>0.0009625043989605939</v>
       </c>
       <c r="E30">
-        <v>0.02473840682597572</v>
+        <v>0.005967527273555683</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G30">
-        <v>0.05640608022792201</v>
+        <v>0.05521855014279387</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D31">
-        <v>0.002409392107751734</v>
+        <v>0.002221596369598434</v>
       </c>
       <c r="E31">
-        <v>0.01493823106806075</v>
+        <v>0.02266028296990403</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G31">
-        <v>0.05659477747468795</v>
+        <v>0.05573957213193234</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D32">
-        <v>0.001244505518452151</v>
+        <v>0.002117690342091041</v>
       </c>
       <c r="E32">
-        <v>0.007715934214403334</v>
+        <v>0.01312968012096445</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G32">
-        <v>0.05749451164992205</v>
+        <v>0.05601891906811182</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>0.00243541531227779</v>
+        <v>0.001103543533134849</v>
       </c>
       <c r="E33">
-        <v>0.0150995749361223</v>
+        <v>0.006841969905436067</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G33">
-        <v>0.05750355830037774</v>
+        <v>0.05632209367592872</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D34">
-        <v>0.002185685983323788</v>
+        <v>0.002340208866819546</v>
       </c>
       <c r="E34">
-        <v>0.03431526993818348</v>
+        <v>0.01450929497428119</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G34">
-        <v>0.05796028670655441</v>
+        <v>1.017658421097746</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>0.0004944496934024801</v>
+        <v>0.001521502420779411</v>
       </c>
       <c r="E35">
-        <v>0.003065588099095377</v>
+        <v>0.009433315008832349</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G35">
-        <v>0.0615368697785841</v>
+        <v>1.017812546252089</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D36">
-        <v>0.001827644480467011</v>
+        <v>0.001990954581313722</v>
       </c>
       <c r="E36">
-        <v>0.02869401834333207</v>
+        <v>0.01234391840414508</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>0.06336451425905111</v>
+        <v>1.034383496772615</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D37">
-        <v>0.0006634325589094396</v>
+        <v>0.003409735505553887</v>
       </c>
       <c r="E37">
-        <v>0.004113281865238526</v>
+        <v>0.0211403601344341</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>0.06776926184480186</v>
+        <v>1.035372990869611</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D38">
-        <v>0.002743860874423308</v>
+        <v>0.001528816194119794</v>
       </c>
       <c r="E38">
-        <v>0.04307861572844594</v>
+        <v>0.009478660403542722</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>0.07051312271922518</v>
+        <v>1.050862404119087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39">
+        <v>0.002772815181816536</v>
+      </c>
+      <c r="E39">
+        <v>0.01719145412726253</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>1.051806904420686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40">
+        <v>1.067289522427809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>1.067289522427809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42">
+        <v>1.067289522427809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43">
+        <v>1.067321866906772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44">
+        <v>1.067321866906772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45">
+        <v>1.067321866906772</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46">
+        <v>0.0005316171727899071</v>
+      </c>
+      <c r="E46">
+        <v>0.003296026471297424</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46">
+        <v>1.067853484079562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47">
+        <v>0.00058002311673715</v>
+      </c>
+      <c r="E47">
+        <v>0.00359614332377033</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>1.06790189002351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48">
+        <v>0.0009625055464141805</v>
+      </c>
+      <c r="E48">
+        <v>0.002310013311394033</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <v>1.068252027974223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49">
+        <v>0.001416703673589497</v>
+      </c>
+      <c r="E49">
+        <v>0.008783562776254883</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>1.068649248043611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50">
+        <v>1.068649248043611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51">
+        <v>0.001374697189104349</v>
+      </c>
+      <c r="E51">
+        <v>0.003299273253850436</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51">
+        <v>1.068664219616913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52">
+        <v>0.001609403803702156</v>
+      </c>
+      <c r="E52">
+        <v>0.00997830358295337</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52">
+        <v>1.068730513468525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53">
+        <v>1.068730513468525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54">
+        <v>0.0002877636714130348</v>
+      </c>
+      <c r="E54">
+        <v>0.001784134762760816</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54">
+        <v>1.068937011715024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55">
+        <v>0.0003416300284255397</v>
+      </c>
+      <c r="E55">
+        <v>0.0008199120682212954</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55">
+        <v>1.06902908998585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56">
+        <v>0.0008059994842913925</v>
+      </c>
+      <c r="E56">
+        <v>0.004997196802606634</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>1.069072139216195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57">
+        <v>0.001867988156286266</v>
+      </c>
+      <c r="E57">
+        <v>0.004483171575087039</v>
+      </c>
+      <c r="F57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57">
+        <v>1.069189855063059</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58">
+        <v>0.0008245710822334356</v>
+      </c>
+      <c r="E58">
+        <v>0.005112340709847301</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58">
+        <v>1.069386435634684</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59">
+        <v>0.002108023366790404</v>
+      </c>
+      <c r="E59">
+        <v>0.0130697448741005</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>1.069397545794599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60">
+        <v>0.001718686268065204</v>
+      </c>
+      <c r="E60">
+        <v>0.01065585486200427</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60">
+        <v>1.07044919973659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61">
+        <v>0.001261377815476289</v>
+      </c>
+      <c r="E61">
+        <v>0.00782054245595299</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61">
+        <v>1.070921157850921</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62">
+        <v>0.001992734987144779</v>
+      </c>
+      <c r="E62">
+        <v>0.004782563969147468</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62">
+        <v>1.071021824972995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>0.0005534491304484842</v>
+      </c>
+      <c r="E63">
+        <v>0.003431384608780602</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63">
+        <v>1.071280706104564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64">
+        <v>0.002327077278656576</v>
+      </c>
+      <c r="E64">
+        <v>0.01442787912767077</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64">
+        <v>1.071399216494851</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65">
+        <v>0.002024948602349504</v>
+      </c>
+      <c r="E65">
+        <v>0.00485987664563881</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65">
+        <v>1.071631194104621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66">
+        <v>0.002306639401054523</v>
+      </c>
+      <c r="E66">
+        <v>0.01430116428653804</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66">
+        <v>1.071693075035739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67">
+        <v>0.002590579205837877</v>
+      </c>
+      <c r="E67">
+        <v>0.006217390094010904</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67">
+        <v>1.071774824944322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68">
+        <v>0.0003063946015486246</v>
+      </c>
+      <c r="E68">
+        <v>0.000735347043716699</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68">
+        <v>1.071937588706169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69">
+        <v>0.0008083954855963465</v>
+      </c>
+      <c r="E69">
+        <v>0.005012052010697349</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69">
+        <v>1.072089101590161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70">
+        <v>0.002084498367409562</v>
+      </c>
+      <c r="E70">
+        <v>0.01292388987793929</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70">
+        <v>1.072239389194419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71">
+        <v>0.001365545121405824</v>
+      </c>
+      <c r="E71">
+        <v>0.008466379752716108</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71">
+        <v>1.072286702972327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72">
+        <v>0.002741807708528764</v>
+      </c>
+      <c r="E72">
+        <v>0.006580338500469033</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72">
+        <v>1.07451663265285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73">
+        <v>0.002376475011263568</v>
+      </c>
+      <c r="E73">
+        <v>0.01473414506983413</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73">
+        <v>1.074615864205683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74">
+        <v>0.002100298560970429</v>
+      </c>
+      <c r="E74">
+        <v>0.01302185107801666</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74">
+        <v>2.017580184163673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75">
+        <v>0.002835381743094038</v>
+      </c>
+      <c r="E75">
+        <v>0.01757936680718304</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75">
+        <v>2.018093590103894</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76">
+        <v>0.001735983646304424</v>
+      </c>
+      <c r="E76">
+        <v>0.01076309860708743</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76">
+        <v>2.034506604700191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77">
+        <v>0.002661428372770107</v>
+      </c>
+      <c r="E77">
+        <v>0.01650085591117467</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77">
+        <v>2.034627590313365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78">
+        <v>2.050467394563309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>2.050467394563309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80">
+        <v>2.050557029245931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>2.050557029245931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82">
+        <v>0.001044994707302698</v>
+      </c>
+      <c r="E82">
+        <v>0.00647896718527673</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82">
+        <v>2.051212911685346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>2.051212911685346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84">
+        <v>0.001196852702919746</v>
+      </c>
+      <c r="E84">
+        <v>0.00287244648700739</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>2.051753881948851</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85">
+        <v>0.001370041070245277</v>
+      </c>
+      <c r="E85">
+        <v>0.008494254635520716</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>2.051837435633554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86">
+        <v>0.003395836931342641</v>
+      </c>
+      <c r="E86">
+        <v>0.02105418897432438</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>2.051872095504551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87">
+        <v>2.051872095504551</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88">
+        <v>0.0002487653190346824</v>
+      </c>
+      <c r="E88">
+        <v>0.001542344978015031</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <v>2.052120860823586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89">
+        <v>0.002673383100269908</v>
+      </c>
+      <c r="E89">
+        <v>0.01657497522167343</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89">
+        <v>2.053140777663579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90">
+        <v>0.002638642550422422</v>
+      </c>
+      <c r="E90">
+        <v>0.01635958381261902</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90">
+        <v>2.053195671796353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91">
+        <v>0.002583110439333459</v>
+      </c>
+      <c r="E91">
+        <v>0.006199465054400302</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91">
+        <v>2.05379602212468</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92">
+        <v>0.002101759141726923</v>
+      </c>
+      <c r="E92">
+        <v>0.01303090667870692</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92">
+        <v>2.054387099293667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93">
+        <v>0.002045607777291607</v>
+      </c>
+      <c r="E93">
+        <v>0.004909458665499856</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93">
+        <v>2.054487423506167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94">
+        <v>0.0007258371552146058</v>
+      </c>
+      <c r="E94">
+        <v>0.001742009172515054</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94">
+        <v>2.054938159287503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95">
+        <v>0.001624274333328805</v>
+      </c>
+      <c r="E95">
+        <v>0.01007050086663859</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95">
+        <v>2.055612464066496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96">
+        <v>0.00251477807712842</v>
+      </c>
+      <c r="E96">
+        <v>0.0155916240781962</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96">
+        <v>2.056011057184985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97">
+        <v>0.0006323834172819868</v>
+      </c>
+      <c r="E97">
+        <v>0.003920777187148318</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97">
+        <v>2.056643440602266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98">
+        <v>0.002198625696084997</v>
+      </c>
+      <c r="E98">
+        <v>0.005276701670603992</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98">
+        <v>2.056686049202252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99">
+        <v>0.001976509915049155</v>
+      </c>
+      <c r="E99">
+        <v>0.004743623796117972</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99">
+        <v>2.056914669202552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100">
+        <v>0.002588037918612163</v>
+      </c>
+      <c r="E100">
+        <v>0.01604583509539541</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100">
+        <v>2.056975137212279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101">
+        <v>0.002238646673539029</v>
+      </c>
+      <c r="E101">
+        <v>0.01387960937594198</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101">
+        <v>2.057851110740035</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +4214,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2069,2049 +4245,2394 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>0.01759282889768155</v>
+        <v>0.01680114056471102</v>
       </c>
       <c r="E2">
-        <v>0.3641715581820081</v>
+        <v>0.3477836096895181</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>0.01759282889768155</v>
+        <v>0.01680114056471102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>0.0001164631712718608</v>
+        <v>0.0001249482780961413</v>
       </c>
       <c r="E3">
-        <v>0.002410787645327518</v>
+        <v>0.002586429356590125</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>0.01759282889768155</v>
+        <v>0.01680114056471102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D4">
-        <v>0.0001164631712718608</v>
+        <v>0.0001249482780961413</v>
       </c>
       <c r="E4">
-        <v>0.002410787645327518</v>
+        <v>0.002586429356590125</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>0.01759282889768155</v>
+        <v>0.01680114056471102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>0.01763207969430362</v>
+        <v>0.01741230060883268</v>
       </c>
       <c r="E5">
-        <v>0.3649840496720849</v>
+        <v>0.3604346226028364</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>0.01763207969430362</v>
+        <v>0.01741230060883268</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>0.0007515567309058262</v>
+        <v>0.0003360302591480824</v>
       </c>
       <c r="E6">
-        <v>0.0155572243297506</v>
+        <v>0.006955826364365304</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>0.01763207969430362</v>
+        <v>0.01741230060883268</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D7">
-        <v>0.0007515567309058262</v>
+        <v>0.0003360302591480824</v>
       </c>
       <c r="E7">
-        <v>0.0155572243297506</v>
+        <v>0.006955826364365304</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>0.01763207969430362</v>
+        <v>0.01741230060883268</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>0.01826991466662603</v>
+        <v>0.01772880120082489</v>
       </c>
       <c r="E8">
-        <v>0.3781872335991589</v>
+        <v>0.3669861848570751</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>0.01826991466662603</v>
+        <v>0.01772880120082489</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>0.0004967548189853536</v>
+        <v>0.0007449323038085401</v>
       </c>
       <c r="E9">
-        <v>0.01028282475299682</v>
+        <v>0.01542009868883678</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>0.01826991466662603</v>
+        <v>0.01772880120082489</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>0.0004967548189853536</v>
+        <v>0.0007449323038085401</v>
       </c>
       <c r="E10">
-        <v>0.01028282475299682</v>
+        <v>0.01542009868883678</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>0.01826991466662603</v>
+        <v>0.01772880120082489</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>0.01895983431806599</v>
+        <v>0.01819494577230153</v>
       </c>
       <c r="E11">
-        <v>0.392468570383966</v>
+        <v>0.3766353774866416</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>0.01895983431806599</v>
+        <v>0.01819494577230153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>0.0003612013324970079</v>
+        <v>4.077901105616891E-05</v>
       </c>
       <c r="E12">
-        <v>0.007476867582688063</v>
+        <v>0.0008441255288626964</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>0.01895983431806599</v>
+        <v>0.01819494577230153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D13">
-        <v>0.0003612013324970079</v>
+        <v>4.077901105616891E-05</v>
       </c>
       <c r="E13">
-        <v>0.007476867582688063</v>
+        <v>0.0008441255288626964</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>0.01895983431806599</v>
+        <v>0.01819494577230153</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>0.01900603299510232</v>
+        <v>0.01836610042018988</v>
       </c>
       <c r="E14">
-        <v>0.3934248829986181</v>
+        <v>0.3801782786979304</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>0.01900603299510232</v>
+        <v>0.01836610042018988</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>0.0007985807171123213</v>
+        <v>0.0001629387079709765</v>
       </c>
       <c r="E15">
-        <v>0.01653062084422505</v>
+        <v>0.003372831254999213</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>0.01900603299510232</v>
+        <v>0.01836610042018988</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D16">
-        <v>0.0007985807171123213</v>
+        <v>0.0001629387079709765</v>
       </c>
       <c r="E16">
-        <v>0.01653062084422505</v>
+        <v>0.003372831254999213</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>0.01900603299510232</v>
+        <v>0.01836610042018988</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D17">
-        <v>0.0194271711827539</v>
+        <v>0.01838271144212322</v>
       </c>
       <c r="E17">
-        <v>0.4021424434830057</v>
+        <v>0.3805221268519506</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G17">
-        <v>0.0194271711827539</v>
+        <v>0.01838271144212322</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D18">
-        <v>0.0007303106011838315</v>
+        <v>0.000759172150865734</v>
       </c>
       <c r="E18">
-        <v>0.01511742944450531</v>
+        <v>0.01571486352292069</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G18">
-        <v>0.0194271711827539</v>
+        <v>0.01838271144212322</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D19">
-        <v>0.0007303106011838315</v>
+        <v>0.000759172150865734</v>
       </c>
       <c r="E19">
-        <v>0.01511742944450531</v>
+        <v>0.01571486352292069</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>0.0194271711827539</v>
+        <v>0.01838271144212322</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D20">
-        <v>0.01675176921455708</v>
+        <v>0.01760524348720341</v>
       </c>
       <c r="E20">
-        <v>0.3467616227413315</v>
+        <v>0.09154726613345772</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>0.03502168388118311</v>
+        <v>0.03440638405191443</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D21">
-        <v>0.0008752205995214269</v>
+        <v>0.01799567608641593</v>
       </c>
       <c r="E21">
-        <v>0.01811706641009354</v>
+        <v>0.09357751564936283</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>0.03502168388118311</v>
+        <v>0.0354079766952486</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D22">
-        <v>0.01780158459442778</v>
+        <v>0.01770089165575253</v>
       </c>
       <c r="E22">
-        <v>0.368492801104655</v>
+        <v>0.04248213997380607</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G22">
-        <v>0.03539441349210933</v>
+        <v>0.03542969285657742</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D23">
-        <v>0.0002668815869751028</v>
+        <v>0.01742349467424933</v>
       </c>
       <c r="E23">
-        <v>0.005524448850384628</v>
+        <v>0.3606663397569612</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>0.03539441349210933</v>
+        <v>0.03580620611637254</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>0.01792317202388322</v>
+        <v>0.0004763161891675211</v>
       </c>
       <c r="E24">
-        <v>0.3710096608943826</v>
+        <v>0.009859745115767687</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G24">
-        <v>0.03555525171818684</v>
+        <v>0.03580620611637254</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D25">
-        <v>0.0004085753431197294</v>
+        <v>0.0004763161891675211</v>
       </c>
       <c r="E25">
-        <v>0.008457509602578399</v>
+        <v>0.009859745115767687</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>0.03555525171818684</v>
+        <v>0.03580620611637254</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D26">
-        <v>0.01678183749522731</v>
+        <v>0.01828571176266909</v>
       </c>
       <c r="E26">
-        <v>0.3473840361512053</v>
+        <v>0.3785142334872501</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G26">
-        <v>0.0357416718132933</v>
+        <v>0.03665181218285896</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D27">
-        <v>0.0001808280366645583</v>
+        <v>0.0008426191688315095</v>
       </c>
       <c r="E27">
-        <v>0.003743140358956358</v>
+        <v>0.01744221679481225</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G27">
-        <v>0.0357416718132933</v>
+        <v>0.03665181218285896</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D28">
-        <v>0.01796945432844485</v>
+        <v>0.0008426191688315095</v>
       </c>
       <c r="E28">
-        <v>0.3719677045988084</v>
+        <v>0.01744221679481225</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G28">
-        <v>0.03697548732354718</v>
+        <v>0.03665181218285896</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>0.0008395267524210164</v>
+        <v>0.01910332703250428</v>
       </c>
       <c r="E29">
-        <v>0.01737820377511504</v>
+        <v>0.04584798487801027</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G29">
-        <v>0.03697548732354718</v>
+        <v>0.03729827280480581</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D30">
-        <v>0.01757830216449124</v>
+        <v>5.719702793591868E-05</v>
       </c>
       <c r="E30">
-        <v>0.3638708548049686</v>
+        <v>0.0002974245452667772</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G30">
-        <v>0.03700547334724513</v>
+        <v>0.05049328534003458</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>0.0003653204713169136</v>
+        <v>0.0005954893578436485</v>
       </c>
       <c r="E31">
-        <v>0.007562133756260111</v>
+        <v>0.003096544660786973</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G31">
-        <v>0.03700547334724513</v>
+        <v>0.05049328534003458</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D32">
-        <v>0.0007815978043389685</v>
+        <v>0.0007389576721195778</v>
       </c>
       <c r="E32">
-        <v>0.004064308582562636</v>
+        <v>0.003842579895021805</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G32">
-        <v>0.05036357394523232</v>
+        <v>0.05054013920208875</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>0.0005436674463650885</v>
+        <v>0.0008639328761906129</v>
       </c>
       <c r="E33">
-        <v>0.002827070721098461</v>
+        <v>0.004492450956191187</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G33">
-        <v>0.05036357394523232</v>
+        <v>0.05054013920208875</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D34">
-        <v>0.0008752205995214269</v>
+        <v>0.0002758854945327166</v>
       </c>
       <c r="E34">
-        <v>0.01811706641009354</v>
+        <v>0.001434604571570126</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G34">
-        <v>0.05036357394523232</v>
+        <v>0.05120742393918724</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>0.0002668815869751028</v>
+        <v>0.0003464911088854358</v>
       </c>
       <c r="E35">
-        <v>0.005524448850384628</v>
+        <v>0.001801753766204266</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G35">
-        <v>0.05036357394523232</v>
+        <v>0.05144035266824855</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D36">
-        <v>0.0004085753431197294</v>
+        <v>0.01666800111681344</v>
       </c>
       <c r="E36">
-        <v>0.008457509602578399</v>
+        <v>0.170013611391497</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>0.05036357394523232</v>
+        <v>0.05247420723318598</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D37">
-        <v>0.0001808280366645583</v>
+        <v>0.0006602537498600877</v>
       </c>
       <c r="E37">
-        <v>0.003743140358956358</v>
+        <v>0.006734588248572895</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>0.05036357394523232</v>
+        <v>0.05247420723318598</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D38">
-        <v>0.0008603137248523344</v>
+        <v>0.0006602537498600877</v>
       </c>
       <c r="E38">
-        <v>0.004473631369232139</v>
+        <v>0.006734588248572895</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>0.05045747976943707</v>
+        <v>0.05247420723318598</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D39">
-        <v>7.025150460441117E-05</v>
+        <v>0.01924299882753075</v>
       </c>
       <c r="E39">
-        <v>0.0003653078239429381</v>
+        <v>0.3983300757298864</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G39">
-        <v>0.05045747976943707</v>
+        <v>0.05364938287944518</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D40">
-        <v>0.0008395267524210164</v>
+        <v>0.0007213674616737265</v>
       </c>
       <c r="E40">
-        <v>0.01737820377511504</v>
+        <v>0.01493230645664614</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G40">
-        <v>0.05045747976943707</v>
+        <v>0.05364938287944518</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D41">
-        <v>0.0003653204713169136</v>
+        <v>0.0007213674616737265</v>
       </c>
       <c r="E41">
-        <v>0.007562133756260111</v>
+        <v>0.01493230645664614</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G41">
-        <v>0.05045747976943707</v>
+        <v>0.05364938287944518</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D42">
-        <v>0.0002768071759660921</v>
+        <v>0.01822713755025143</v>
       </c>
       <c r="E42">
-        <v>0.001439397315023679</v>
+        <v>0.1859168030125646</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G42">
-        <v>0.05139165535419205</v>
+        <v>0.05365683040682885</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D43">
-        <v>0.0005950096687922405</v>
+        <v>0.0004298363979212357</v>
       </c>
       <c r="E43">
-        <v>0.003094050277719651</v>
+        <v>0.004384331258796604</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G43">
-        <v>0.05168697385444766</v>
+        <v>0.05365683040682885</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D44">
-        <v>0.01744613508187191</v>
+        <v>0.0004298363979212357</v>
       </c>
       <c r="E44">
-        <v>0.3611349961947485</v>
+        <v>0.004384331258796604</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G44">
-        <v>0.05284054857398124</v>
+        <v>0.05365683040682885</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D45">
-        <v>0.0003321136534944499</v>
+        <v>0.018916041636346</v>
       </c>
       <c r="E45">
-        <v>0.006874752627335112</v>
+        <v>0.3915620618723622</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G45">
-        <v>0.05284054857398124</v>
+        <v>0.0543240183315946</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D46">
-        <v>0.0003321136534944499</v>
+        <v>0.0008633681243165086</v>
       </c>
       <c r="E46">
-        <v>0.006874752627335112</v>
+        <v>0.01787172017335173</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G46">
-        <v>0.05284054857398124</v>
+        <v>0.0543240183315946</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D47">
-        <v>0.01863062429527105</v>
+        <v>0.0008633681243165086</v>
       </c>
       <c r="E47">
-        <v>0.3856539229121108</v>
+        <v>0.01787172017335173</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G47">
-        <v>0.05365230817645417</v>
+        <v>0.0543240183315946</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D48">
-        <v>0.00062633156277575</v>
+        <v>0.01711466716011512</v>
       </c>
       <c r="E48">
-        <v>0.01296506334945802</v>
+        <v>0.354273610214383</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G48">
-        <v>0.05365230817645417</v>
+        <v>0.05441293996492093</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D49">
-        <v>0.00062633156277575</v>
+        <v>0.0002902432632409736</v>
       </c>
       <c r="E49">
-        <v>0.01296506334945802</v>
+        <v>0.006008035549088154</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G49">
-        <v>0.05365230817645417</v>
+        <v>0.05441293996492093</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D50">
-        <v>0.0186509079722396</v>
+        <v>0.0002902432632409736</v>
       </c>
       <c r="E50">
-        <v>0.1902392613168438</v>
+        <v>0.006008035549088154</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G50">
-        <v>0.05420615969042644</v>
+        <v>0.05441293996492093</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D51">
-        <v>0.0004140431240210239</v>
+        <v>0.01832599804991667</v>
       </c>
       <c r="E51">
-        <v>0.004223239865014444</v>
+        <v>0.379348159633275</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G51">
-        <v>0.05420615969042644</v>
+        <v>0.05497781023277563</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D52">
-        <v>0.0004140431240210239</v>
+        <v>6.776868259308205E-05</v>
       </c>
       <c r="E52">
-        <v>0.004223239865014444</v>
+        <v>0.001402811729676798</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G52">
-        <v>0.05420615969042644</v>
+        <v>0.05497781023277563</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D53">
-        <v>0.01881994780005172</v>
+        <v>6.776868259308205E-05</v>
       </c>
       <c r="E53">
-        <v>0.1919634675605275</v>
+        <v>0.001402811729676798</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G53">
-        <v>0.05456161961334502</v>
+        <v>0.05497781023277563</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D54">
-        <v>2.644852890347221E-05</v>
+        <v>0.01894899241629271</v>
       </c>
       <c r="E54">
-        <v>0.0002697749948154165</v>
+        <v>0.1932797226461856</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G54">
-        <v>0.05456161961334502</v>
+        <v>0.07142319964947869</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D55">
-        <v>2.644852890347221E-05</v>
+        <v>0.0006400205210229056</v>
       </c>
       <c r="E55">
-        <v>0.0002697749948154165</v>
+        <v>0.006528209314433637</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G55">
-        <v>0.05456161961334502</v>
+        <v>0.07142319964947869</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D56">
-        <v>0.01779255479974252</v>
+        <v>0.0006400205210229056</v>
       </c>
       <c r="E56">
-        <v>0.3683058843546702</v>
+        <v>0.006528209314433637</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G56">
-        <v>0.0547680421232897</v>
+        <v>0.07142319964947869</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D57">
-        <v>0.0006654386114541812</v>
+        <v>0.01750619821902923</v>
       </c>
       <c r="E57">
-        <v>0.01377457925710155</v>
+        <v>0.1785632218340981</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G57">
-        <v>0.0547680421232897</v>
+        <v>0.07183021655062383</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D58">
-        <v>0.0006654386114541812</v>
+        <v>0.0005953608179266594</v>
       </c>
       <c r="E58">
-        <v>0.01377457925710155</v>
+        <v>0.006072680342851925</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G58">
-        <v>0.0547680421232897</v>
+        <v>0.07183021655062383</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D59">
-        <v>0.01859420763468576</v>
+        <v>0.0005953608179266594</v>
       </c>
       <c r="E59">
-        <v>0.3849000980379953</v>
+        <v>0.006072680342851925</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G59">
-        <v>0.0555996809819309</v>
+        <v>0.07183021655062383</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D60">
-        <v>0.0003272643490419204</v>
+        <v>0.01832133276050502</v>
       </c>
       <c r="E60">
-        <v>0.006774372025167751</v>
+        <v>0.1868775941571512</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G60">
-        <v>0.0555996809819309</v>
+        <v>0.07197071563995019</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D61">
-        <v>0.0003272643490419204</v>
+        <v>0.0007412764198368303</v>
       </c>
       <c r="E61">
-        <v>0.006774372025167751</v>
+        <v>0.007561019482335668</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G61">
-        <v>0.0555996809819309</v>
+        <v>0.07197071563995019</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D62">
-        <v>0.01714405482639646</v>
+        <v>0.0007412764198368303</v>
       </c>
       <c r="E62">
-        <v>0.1748693592292439</v>
+        <v>0.007561019482335668</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G62">
-        <v>0.07079636300285064</v>
+        <v>0.07197071563995019</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D63">
-        <v>0.0001151268165893669</v>
+        <v>0.01875711756809514</v>
       </c>
       <c r="E63">
-        <v>0.001174293529211543</v>
+        <v>0.1913225991945704</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G63">
-        <v>0.07079636300285064</v>
+        <v>0.072413947974924</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D64">
-        <v>0.0001151268165893669</v>
+        <v>0.0002649527312346564</v>
       </c>
       <c r="E64">
-        <v>0.001174293529211543</v>
+        <v>0.002702517858593495</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G64">
-        <v>0.07079636300285064</v>
+        <v>0.072413947974924</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D65">
-        <v>0.01859537987276185</v>
+        <v>0.0002649527312346564</v>
       </c>
       <c r="E65">
-        <v>0.1896728747021709</v>
+        <v>0.002702517858593495</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G65">
-        <v>0.0714359284467431</v>
+        <v>0.072413947974924</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D66">
-        <v>0.0002377127159801194</v>
+        <v>0.01826548796628593</v>
       </c>
       <c r="E66">
-        <v>0.002424669702997218</v>
+        <v>0.1863079772561164</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G66">
-        <v>0.0714359284467431</v>
+        <v>0.07267842793120685</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D67">
-        <v>0.0002377127159801194</v>
+        <v>0.0006544538041291561</v>
       </c>
       <c r="E67">
-        <v>0.002424669702997218</v>
+        <v>0.006675428802117391</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G67">
-        <v>0.0714359284467431</v>
+        <v>0.07267842793120685</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D68">
-        <v>0.01898012661121095</v>
+        <v>0.0006544538041291561</v>
       </c>
       <c r="E68">
-        <v>0.1935972914343516</v>
+        <v>0.006675428802117391</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G68">
-        <v>0.07318628630163738</v>
+        <v>0.07267842793120685</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D69">
-        <v>0.0006774274459976891</v>
+        <v>0.01932900289077178</v>
       </c>
       <c r="E69">
-        <v>0.006909759949176428</v>
+        <v>0.1971558294858722</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G69">
-        <v>0.07318628630163738</v>
+        <v>0.07430681312354742</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D70">
-        <v>0.0006774274459976891</v>
+        <v>0.0007177210143624133</v>
       </c>
       <c r="E70">
-        <v>0.006909759949176428</v>
+        <v>0.007320754346496616</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G70">
-        <v>0.07318628630163738</v>
+        <v>0.07430681312354742</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D71">
-        <v>0.01865870121645615</v>
+        <v>0.0007177210143624133</v>
       </c>
       <c r="E71">
-        <v>0.1903187524078528</v>
+        <v>0.007320754346496616</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G71">
-        <v>0.07322032082980118</v>
+        <v>0.07430681312354742</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D72">
-        <v>0.0002912035493208031</v>
+        <v>0.03342754610231562</v>
       </c>
       <c r="E72">
-        <v>0.002970276203072191</v>
+        <v>0.6919502043179332</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G72">
-        <v>0.07322032082980118</v>
+        <v>0.08396768530440436</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D73">
-        <v>0.01864419849650713</v>
+        <v>0.03405365030632795</v>
       </c>
       <c r="E73">
-        <v>0.1901708246643728</v>
+        <v>0.7049105613409886</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G73">
-        <v>0.07341224061979684</v>
+        <v>0.08454693564636254</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D74">
-        <v>0.0003274652395807095</v>
+        <v>0.03372008763141071</v>
       </c>
       <c r="E74">
-        <v>0.003340145443723237</v>
+        <v>0.6980058139702017</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G74">
-        <v>0.07341224061979684</v>
+        <v>0.08492751157059794</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D75">
-        <v>0.01917641022073917</v>
+        <v>0.03389062755786393</v>
       </c>
       <c r="E75">
-        <v>0.1955993842515395</v>
+        <v>0.7015359904477833</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G75">
-        <v>0.07477609120267006</v>
+        <v>0.08533098022611248</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D76">
-        <v>0.0001174274746225442</v>
+        <v>0.03508493047755557</v>
       </c>
       <c r="E76">
-        <v>0.00119776024114995</v>
+        <v>0.7262580608854003</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G76">
-        <v>0.07477609120267006</v>
+        <v>0.08557821581759015</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D77">
-        <v>0.03386158328280908</v>
+        <v>0.03579377528567198</v>
       </c>
       <c r="E77">
-        <v>0.7009347739541479</v>
+        <v>0.7409311484134099</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G77">
-        <v>0.0842251572280414</v>
+        <v>0.08633391448776073</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D78">
-        <v>0.03420604436786026</v>
+        <v>0.0003890599399349375</v>
       </c>
       <c r="E78">
-        <v>0.7080651184147074</v>
+        <v>0.002023111687661675</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G78">
-        <v>0.08466352413729733</v>
+        <v>1.067289522427809</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D79">
-        <v>0.03469876161374263</v>
+        <v>0.0006909404823408709</v>
       </c>
       <c r="E79">
-        <v>0.7182643654044725</v>
+        <v>0.003592890508172529</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G79">
-        <v>0.0851562413831797</v>
+        <v>1.067289522427809</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D80">
-        <v>0.03581201383241196</v>
+        <v>0.0006511969753666707</v>
       </c>
       <c r="E80">
-        <v>0.7413086863309275</v>
+        <v>0.00156287274088001</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G80">
-        <v>0.08617558777764428</v>
+        <v>1.067289522427809</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D81">
-        <v>0.03529977825968676</v>
+        <v>0.0006307355489748815</v>
       </c>
       <c r="E81">
-        <v>0.7307054099755159</v>
+        <v>0.001513765317539715</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G81">
-        <v>0.08669143361387881</v>
+        <v>1.067321866906772</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D82">
-        <v>0.03555538178071454</v>
+        <v>0.0008470836075494232</v>
       </c>
       <c r="E82">
-        <v>0.7359964028607909</v>
+        <v>0.004404834759257001</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G82">
-        <v>0.08724235563516219</v>
+        <v>1.067321866906772</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D83">
-        <v>0.01777323958887049</v>
+        <v>0.0003515389634971094</v>
       </c>
       <c r="E83">
-        <v>0.1812870438064789</v>
+        <v>0.001828002610184969</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G83">
-        <v>0.08856960259172113</v>
+        <v>1.067321866906772</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D84">
-        <v>0.0002089024755646892</v>
+        <v>0.0007844195996209989</v>
       </c>
       <c r="E84">
-        <v>0.00213080525075983</v>
+        <v>0.004078981918029194</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G84">
-        <v>0.08856960259172113</v>
+        <v>1.068649248043611</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D85">
-        <v>0.01717402136212898</v>
+        <v>0.0004812647458607339</v>
       </c>
       <c r="E85">
-        <v>0.1751750178937156</v>
+        <v>0.002502576678475816</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G85">
-        <v>0.08860994980887207</v>
+        <v>1.068730513468525</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D86">
-        <v>3.218955641803306E-05</v>
+        <v>0.03371911733795271</v>
       </c>
       <c r="E86">
-        <v>0.0003283334754639372</v>
+        <v>0.6979857288956212</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G86">
-        <v>0.08860994980887207</v>
+        <v>1.101040984244725</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D87">
-        <v>0.01708974166415577</v>
+        <v>0.03396458353058083</v>
       </c>
       <c r="E87">
-        <v>0.1743153649743889</v>
+        <v>0.7030668790830231</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G87">
-        <v>0.09031006249395696</v>
+        <v>1.101286450437353</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D88">
-        <v>0.0005217746436373793</v>
+        <v>0.03403432217449828</v>
       </c>
       <c r="E88">
-        <v>0.005322101365101269</v>
+        <v>0.3471500861798824</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G88">
-        <v>0.09031006249395696</v>
+        <v>1.101356189081271</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D89">
-        <v>0.01738372005619149</v>
+        <v>0.0341239336256785</v>
       </c>
       <c r="E89">
-        <v>0.1773139445731532</v>
+        <v>0.7063654260515451</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G89">
-        <v>0.09057000635782887</v>
+        <v>1.101413456053487</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D90">
-        <v>0.0002710605957479568</v>
+        <v>0.03531508064842858</v>
       </c>
       <c r="E90">
-        <v>0.002764818076629159</v>
+        <v>0.3602138226139715</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G90">
-        <v>0.09057000635782887</v>
+        <v>1.102604603076237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91">
+        <v>0.03582844047446338</v>
+      </c>
+      <c r="E91">
+        <v>0.741648717821392</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91">
+        <v>1.103117962902272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92">
+        <v>0.03419526159675806</v>
+      </c>
+      <c r="E92">
+        <v>0.7078419150528917</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92">
+        <v>1.135236245841483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93">
+        <v>0.03422001975361514</v>
+      </c>
+      <c r="E93">
+        <v>0.7083544088998334</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93">
+        <v>1.135506470190968</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94">
+        <v>0.0005441452412133872</v>
+      </c>
+      <c r="E94">
+        <v>0.001305948578912129</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94">
+        <v>2.050467394563309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95">
+        <v>0.0003434671822760884</v>
+      </c>
+      <c r="E95">
+        <v>0.0008243212374626121</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95">
+        <v>2.050467394563309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <v>3.006874566201118E-05</v>
+      </c>
+      <c r="E96">
+        <v>0.0001563574774424581</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96">
+        <v>2.050557029245931</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97">
+        <v>0.0001449454185662395</v>
+      </c>
+      <c r="E97">
+        <v>0.0007537161765444453</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97">
+        <v>2.050557029245931</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98">
+        <v>0.0008626043597788512</v>
+      </c>
+      <c r="E98">
+        <v>0.002070250463469243</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98">
+        <v>2.051212911685346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99">
+        <v>0.0005974831565559742</v>
+      </c>
+      <c r="E99">
+        <v>0.001433959575734338</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99">
+        <v>2.051872095504551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100">
+        <v>0.03343454453035419</v>
+      </c>
+      <c r="E100">
+        <v>0.3410323542096128</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100">
+        <v>2.083901939093663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101">
+        <v>0.03399372497048383</v>
+      </c>
+      <c r="E101">
+        <v>0.7036701068890152</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101">
+        <v>2.084550754216415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102">
+        <v>0.0358695904980544</v>
+      </c>
+      <c r="E102">
+        <v>0.3658698230801549</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102">
+        <v>2.086336985061363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103">
+        <v>0.03586549254893452</v>
+      </c>
+      <c r="E103">
+        <v>0.7424156957629445</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103">
+        <v>2.086422521794865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104">
+        <v>0.03518149447151612</v>
+      </c>
+      <c r="E104">
+        <v>0.3588512436094644</v>
+      </c>
+      <c r="F104" t="s">
+        <v>46</v>
+      </c>
+      <c r="G104">
+        <v>2.087053589976067</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105">
+        <v>0.03608938264057578</v>
+      </c>
+      <c r="E105">
+        <v>0.3681117029338729</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105">
+        <v>2.087302294325922</v>
       </c>
     </row>
   </sheetData>
@@ -4129,25 +6650,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4155,25 +6676,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="C2">
-        <v>12.73973603736548</v>
+        <v>29.73842970887106</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.73973603736548</v>
+        <v>29.73842970887106</v>
       </c>
       <c r="F2">
-        <v>0.2522720007399105</v>
+        <v>0.5888797962152684</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2522720007399105</v>
+        <v>0.5888797962152684</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4181,25 +6702,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>0.1546434375912047</v>
+        <v>0.5294948086040409</v>
       </c>
       <c r="D3">
-        <v>0.1963755563580406</v>
+        <v>0.1635408059367998</v>
       </c>
       <c r="E3">
-        <v>0.3510189939492453</v>
+        <v>0.6930356145408406</v>
       </c>
       <c r="F3">
-        <v>0.02494248993406527</v>
+        <v>0.09578783486749155</v>
       </c>
       <c r="G3">
-        <v>0.02034312117107945</v>
+        <v>0.03026879688492062</v>
       </c>
       <c r="H3">
-        <v>0.04528561110514472</v>
+        <v>0.1260566317524122</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4207,25 +6728,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="C4">
-        <v>4.351538523030142</v>
+        <v>12.43264154521839</v>
       </c>
       <c r="D4">
-        <v>8.57453467229058</v>
+        <v>6.285453120238359</v>
       </c>
       <c r="E4">
-        <v>12.92607319532072</v>
+        <v>18.71809466545675</v>
       </c>
       <c r="F4">
-        <v>0.2125612104621444</v>
+        <v>0.7744376519296222</v>
       </c>
       <c r="G4">
-        <v>0.5272442305502039</v>
+        <v>0.3824869007219807</v>
       </c>
       <c r="H4">
-        <v>0.7398054410123482</v>
+        <v>1.156924552651603</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4233,25 +6754,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="C5">
-        <v>17.24591799798683</v>
+        <v>42.70056606269349</v>
       </c>
       <c r="D5">
-        <v>8.770910228648621</v>
+        <v>6.448993926175159</v>
       </c>
       <c r="E5">
-        <v>26.01682822663545</v>
+        <v>49.14955998886865</v>
       </c>
       <c r="F5">
-        <v>0.4897757011361202</v>
+        <v>1.459105283012382</v>
       </c>
       <c r="G5">
-        <v>0.5475873517212834</v>
+        <v>0.4127556976069013</v>
       </c>
       <c r="H5">
-        <v>1.037363052857403</v>
+        <v>1.871860980619283</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4259,25 +6780,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="C6">
-        <v>17.24591799798683</v>
+        <v>42.70056606269349</v>
       </c>
       <c r="D6">
-        <v>8.770910228648621</v>
+        <v>6.448993926175159</v>
       </c>
       <c r="E6">
-        <v>13.00841411331773</v>
+        <v>24.57477999443432</v>
       </c>
       <c r="F6">
-        <v>0.4897757011361202</v>
+        <v>1.459105283012382</v>
       </c>
       <c r="G6">
-        <v>0.5475873517212834</v>
+        <v>0.4127556976069013</v>
       </c>
       <c r="H6">
-        <v>0.5186815264287017</v>
+        <v>0.9359304903096417</v>
       </c>
     </row>
   </sheetData>
